--- a/api/1/xlsx/fr/SectorGroup.xlsx
+++ b/api/1/xlsx/fr/SectorGroup.xlsx
@@ -25,18 +25,18 @@
     <t>status</t>
   </si>
   <si>
+    <t>codeforiati:group-code</t>
+  </si>
+  <si>
+    <t>codeforiati:category-name</t>
+  </si>
+  <si>
     <t>codeforiati:group-name</t>
   </si>
   <si>
-    <t>codeforiati:group-code</t>
-  </si>
-  <si>
     <t>codeforiati:category-code</t>
   </si>
   <si>
-    <t>codeforiati:category-name</t>
-  </si>
-  <si>
     <t>11110</t>
   </si>
   <si>
@@ -46,18 +46,18 @@
     <t>active</t>
   </si>
   <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>Education, Niveau non spécifié</t>
+  </si>
+  <si>
     <t>Education</t>
   </si>
   <si>
-    <t>110</t>
-  </si>
-  <si>
     <t>111</t>
   </si>
   <si>
-    <t>Education, Niveau non spécifié</t>
-  </si>
-  <si>
     <t>11120</t>
   </si>
   <si>
@@ -82,12 +82,12 @@
     <t>Enseignement primaire</t>
   </si>
   <si>
+    <t>Education de Base</t>
+  </si>
+  <si>
     <t>112</t>
   </si>
   <si>
-    <t>Education de Base</t>
-  </si>
-  <si>
     <t>11230</t>
   </si>
   <si>
@@ -130,12 +130,12 @@
     <t>Enseignement secondaire supérieur (modifié et comprend les données de 11322)</t>
   </si>
   <si>
+    <t>Education Secondaire</t>
+  </si>
+  <si>
     <t>113</t>
   </si>
   <si>
-    <t>Education Secondaire</t>
-  </si>
-  <si>
     <t>11330</t>
   </si>
   <si>
@@ -148,12 +148,12 @@
     <t>Enseignement supérieur</t>
   </si>
   <si>
+    <t>Education Post Secondaire</t>
+  </si>
+  <si>
     <t>114</t>
   </si>
   <si>
-    <t>Education Post Secondaire</t>
-  </si>
-  <si>
     <t>11430</t>
   </si>
   <si>
@@ -166,18 +166,18 @@
     <t>Politique de la santé et gestion administrative</t>
   </si>
   <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>Santé, Général</t>
+  </si>
+  <si>
     <t>Santé</t>
   </si>
   <si>
-    <t>120</t>
-  </si>
-  <si>
     <t>121</t>
   </si>
   <si>
-    <t>Santé, Général</t>
-  </si>
-  <si>
     <t>12181</t>
   </si>
   <si>
@@ -202,12 +202,12 @@
     <t>Soins et services de santé de base</t>
   </si>
   <si>
+    <t>Santé de Base</t>
+  </si>
+  <si>
     <t>122</t>
   </si>
   <si>
-    <t>Santé de Base</t>
-  </si>
-  <si>
     <t>12230</t>
   </si>
   <si>
@@ -262,12 +262,12 @@
     <t>Lutte contre les MNT, général</t>
   </si>
   <si>
+    <t>Maladies non-transmissibles (MNT)</t>
+  </si>
+  <si>
     <t>123</t>
   </si>
   <si>
-    <t>Maladies non-transmissibles (MNT)</t>
-  </si>
-  <si>
     <t>12320</t>
   </si>
   <si>
@@ -304,12 +304,12 @@
     <t>Politique/programmes en matière de population et gestion administrative</t>
   </si>
   <si>
+    <t>130</t>
+  </si>
+  <si>
     <t>Politique en Matière de Population/Santé&amp;Fertilité</t>
   </si>
   <si>
-    <t>130</t>
-  </si>
-  <si>
     <t>13020</t>
   </si>
   <si>
@@ -340,12 +340,12 @@
     <t>Politique et gestion administrative du secteur de l'eau</t>
   </si>
   <si>
+    <t>140</t>
+  </si>
+  <si>
     <t>Distribution d'Eau et Assainissement</t>
   </si>
   <si>
-    <t>140</t>
-  </si>
-  <si>
     <t>14015</t>
   </si>
   <si>
@@ -412,18 +412,18 @@
     <t>Politiques publiques et gestion administrative</t>
   </si>
   <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>Gouvernement &amp; Société Civile-général</t>
+  </si>
+  <si>
     <t>Gouvernement &amp; Société Civile</t>
   </si>
   <si>
-    <t>150</t>
-  </si>
-  <si>
     <t>151</t>
   </si>
   <si>
-    <t>Gouvernement &amp; Société Civile-général</t>
-  </si>
-  <si>
     <t>15111</t>
   </si>
   <si>
@@ -520,12 +520,12 @@
     <t>Gestion et réforme des systèmes de sécurité</t>
   </si>
   <si>
+    <t>Conflits, Paix et Sécurité</t>
+  </si>
+  <si>
     <t>152</t>
   </si>
   <si>
-    <t>Conflits, Paix et Sécurité</t>
-  </si>
-  <si>
     <t>15220</t>
   </si>
   <si>
@@ -562,12 +562,12 @@
     <t>Protection sociale</t>
   </si>
   <si>
+    <t>160</t>
+  </si>
+  <si>
     <t>Infrastructure et Services Sociaux Divers</t>
   </si>
   <si>
-    <t>160</t>
-  </si>
-  <si>
     <t>16020</t>
   </si>
   <si>
@@ -634,12 +634,12 @@
     <t>Politique des transports et gestion administrative</t>
   </si>
   <si>
+    <t>210</t>
+  </si>
+  <si>
     <t>Transports et Entreposage</t>
   </si>
   <si>
-    <t>210</t>
-  </si>
-  <si>
     <t>21020</t>
   </si>
   <si>
@@ -682,12 +682,12 @@
     <t>Politique des communications et gestion administrative</t>
   </si>
   <si>
+    <t>220</t>
+  </si>
+  <si>
     <t>Communications</t>
   </si>
   <si>
-    <t>220</t>
-  </si>
-  <si>
     <t>22020</t>
   </si>
   <si>
@@ -712,18 +712,18 @@
     <t>Politique énergétique et gestion administrative</t>
   </si>
   <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>Politique de l'énergie</t>
+  </si>
+  <si>
     <t>Energie</t>
   </si>
   <si>
-    <t>230</t>
-  </si>
-  <si>
     <t>231</t>
   </si>
   <si>
-    <t>Politique de l'énergie</t>
-  </si>
-  <si>
     <t>23181</t>
   </si>
   <si>
@@ -748,12 +748,12 @@
     <t>Production d'énergie, sources renouvelables - multiples technologies</t>
   </si>
   <si>
+    <t>Production d'électricité, sources renouvelables</t>
+  </si>
+  <si>
     <t>232</t>
   </si>
   <si>
-    <t>Production d'électricité, sources renouvelables</t>
-  </si>
-  <si>
     <t>23220</t>
   </si>
   <si>
@@ -808,12 +808,12 @@
     <t>Production d'énergie, sources non renouvelables - non spécifié</t>
   </si>
   <si>
+    <t>Production d'électricité, sources non renouvelables</t>
+  </si>
+  <si>
     <t>233</t>
   </si>
   <si>
-    <t>Production d'électricité, sources non renouvelables</t>
-  </si>
-  <si>
     <t>23320</t>
   </si>
   <si>
@@ -859,24 +859,24 @@
     <t>Centrales nucléaires et sûreté nucléaire</t>
   </si>
   <si>
+    <t>Centrales nucléaires</t>
+  </si>
+  <si>
     <t>235</t>
   </si>
   <si>
-    <t>Centrales nucléaires</t>
-  </si>
-  <si>
     <t>23610</t>
   </si>
   <si>
     <t>Production de chaleur seule</t>
   </si>
   <si>
+    <t>Distribution de l'énergie</t>
+  </si>
+  <si>
     <t>236</t>
   </si>
   <si>
-    <t>Distribution de l'énergie</t>
-  </si>
-  <si>
     <t>23620</t>
   </si>
   <si>
@@ -919,12 +919,12 @@
     <t>Politique des finances et gestion administrative</t>
   </si>
   <si>
+    <t>240</t>
+  </si>
+  <si>
     <t>Banques et Services Financiers</t>
   </si>
   <si>
-    <t>240</t>
-  </si>
-  <si>
     <t>24020</t>
   </si>
   <si>
@@ -961,12 +961,12 @@
     <t>Politique commerciale et administration</t>
   </si>
   <si>
+    <t>250</t>
+  </si>
+  <si>
     <t>Entreprises et Autres Services</t>
   </si>
   <si>
-    <t>250</t>
-  </si>
-  <si>
     <t>25020</t>
   </si>
   <si>
@@ -991,18 +991,18 @@
     <t>Politique agricole et gestion administrative</t>
   </si>
   <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
     <t>Agriculture, Sylviculture, Pêche</t>
   </si>
   <si>
-    <t>310</t>
-  </si>
-  <si>
     <t>311</t>
   </si>
   <si>
-    <t>Agriculture</t>
-  </si>
-  <si>
     <t>31120</t>
   </si>
   <si>
@@ -1111,12 +1111,12 @@
     <t>Politique de la sylviculture et gestion administrative</t>
   </si>
   <si>
+    <t>Sylviculture</t>
+  </si>
+  <si>
     <t>312</t>
   </si>
   <si>
-    <t>Sylviculture</t>
-  </si>
-  <si>
     <t>31220</t>
   </si>
   <si>
@@ -1153,12 +1153,12 @@
     <t>Politique de la pêche et gestion administrative</t>
   </si>
   <si>
+    <t>Pêche</t>
+  </si>
+  <si>
     <t>313</t>
   </si>
   <si>
-    <t>Pêche</t>
-  </si>
-  <si>
     <t>31320</t>
   </si>
   <si>
@@ -1189,18 +1189,18 @@
     <t>Politique de l'industrie et gestion administrative</t>
   </si>
   <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>Industries Manufacturières</t>
+  </si>
+  <si>
     <t>Industries Manufacturières, Extractives, Construct</t>
   </si>
   <si>
-    <t>320</t>
-  </si>
-  <si>
     <t>321</t>
   </si>
   <si>
-    <t>Industries Manufacturières</t>
-  </si>
-  <si>
     <t>32120</t>
   </si>
   <si>
@@ -1315,12 +1315,12 @@
     <t>Politique de l'industrie extractive et gestion administrative</t>
   </si>
   <si>
+    <t>Industries Extractives</t>
+  </si>
+  <si>
     <t>322</t>
   </si>
   <si>
-    <t>Industries Extractives</t>
-  </si>
-  <si>
     <t>32220</t>
   </si>
   <si>
@@ -1381,24 +1381,24 @@
     <t>Politique de la construction et gestion administrative</t>
   </si>
   <si>
+    <t>Construction</t>
+  </si>
+  <si>
     <t>323</t>
   </si>
   <si>
-    <t>Construction</t>
-  </si>
-  <si>
     <t>33110</t>
   </si>
   <si>
     <t>Politique commerciale et gestion administrative</t>
   </si>
   <si>
+    <t>331</t>
+  </si>
+  <si>
     <t>Politique Commerciale et Réglementations</t>
   </si>
   <si>
-    <t>331</t>
-  </si>
-  <si>
     <t>33120</t>
   </si>
   <si>
@@ -1435,24 +1435,24 @@
     <t>Politique du tourisme et gestion administrative</t>
   </si>
   <si>
+    <t>332</t>
+  </si>
+  <si>
     <t>Tourisme</t>
   </si>
   <si>
-    <t>332</t>
-  </si>
-  <si>
     <t>41010</t>
   </si>
   <si>
     <t>Politique de l'environnement et gestion administrative</t>
   </si>
   <si>
+    <t>410</t>
+  </si>
+  <si>
     <t>Protection de l'Environnement Général</t>
   </si>
   <si>
-    <t>410</t>
-  </si>
-  <si>
     <t>41020</t>
   </si>
   <si>
@@ -1489,12 +1489,12 @@
     <t>Aide plurisectorielle</t>
   </si>
   <si>
+    <t>430</t>
+  </si>
+  <si>
     <t>Autres Multisecteurs</t>
   </si>
   <si>
-    <t>430</t>
-  </si>
-  <si>
     <t>43030</t>
   </si>
   <si>
@@ -1555,36 +1555,36 @@
     <t>Aide relative au soutien budgétaire général</t>
   </si>
   <si>
+    <t>510</t>
+  </si>
+  <si>
     <t>Soutien Budgétaire</t>
   </si>
   <si>
-    <t>510</t>
-  </si>
-  <si>
     <t>52010</t>
   </si>
   <si>
     <t>Assistance alimentaire</t>
   </si>
   <si>
+    <t>520</t>
+  </si>
+  <si>
     <t>Aide Alimentaire Dévelopmentale</t>
   </si>
   <si>
-    <t>520</t>
-  </si>
-  <si>
     <t>53030</t>
   </si>
   <si>
     <t>Subventions à l'importation (biens d'équipement)</t>
   </si>
   <si>
+    <t>530</t>
+  </si>
+  <si>
     <t>Aide sous forme de Produits, Autre</t>
   </si>
   <si>
-    <t>530</t>
-  </si>
-  <si>
     <t>53040</t>
   </si>
   <si>
@@ -1597,12 +1597,12 @@
     <t>Actions se rapportant à la dette</t>
   </si>
   <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>Actions se Rapportant a la Dette</t>
   </si>
   <si>
-    <t>600</t>
-  </si>
-  <si>
     <t>60020</t>
   </si>
   <si>
@@ -1645,12 +1645,12 @@
     <t>Assistance matérielle et services d'urgence</t>
   </si>
   <si>
+    <t>720</t>
+  </si>
+  <si>
     <t>Intervention d'Urgence</t>
   </si>
   <si>
-    <t>720</t>
-  </si>
-  <si>
     <t>72040</t>
   </si>
   <si>
@@ -1669,58 +1669,58 @@
     <t>Reconstruction et réhabilitation immédiate post-urgence</t>
   </si>
   <si>
+    <t>730</t>
+  </si>
+  <si>
     <t>Reconstruction &amp; Réhabilitation</t>
   </si>
   <si>
-    <t>730</t>
-  </si>
-  <si>
     <t>74020</t>
   </si>
   <si>
     <t>Préparation aux interventions multi-risques</t>
   </si>
   <si>
+    <t>740</t>
+  </si>
+  <si>
     <t>Prévention catastrophes/Préparation à leur survenue</t>
   </si>
   <si>
-    <t>740</t>
-  </si>
-  <si>
     <t>91010</t>
   </si>
   <si>
     <t>Frais administratifs (non alloués par secteur)</t>
   </si>
   <si>
+    <t>910</t>
+  </si>
+  <si>
     <t>Frais Administratifs des Donneurs</t>
   </si>
   <si>
-    <t>910</t>
-  </si>
-  <si>
     <t>93010</t>
   </si>
   <si>
     <t>Refugiés/demandeurs d'asile dans les pays donneurs (non alloués)</t>
   </si>
   <si>
+    <t>930</t>
+  </si>
+  <si>
     <t>Refugiés dans les Pays Donneurs</t>
   </si>
   <si>
-    <t>930</t>
-  </si>
-  <si>
     <t>99810</t>
   </si>
   <si>
     <t>Secteur non spécifié</t>
   </si>
   <si>
+    <t>998</t>
+  </si>
+  <si>
     <t>Non Affecté / Non Specifié</t>
-  </si>
-  <si>
-    <t>998</t>
   </si>
   <si>
     <t>99820</t>
@@ -2193,10 +2193,10 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
         <v>23</v>
@@ -2216,10 +2216,10 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
         <v>23</v>
@@ -2239,10 +2239,10 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
         <v>23</v>
@@ -2262,10 +2262,10 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
         <v>23</v>
@@ -2285,10 +2285,10 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
         <v>23</v>
@@ -2308,10 +2308,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
         <v>23</v>
@@ -2331,10 +2331,10 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
         <v>23</v>
@@ -2354,10 +2354,10 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="G13" t="s">
         <v>39</v>
@@ -2377,10 +2377,10 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="G14" t="s">
         <v>39</v>
@@ -2400,10 +2400,10 @@
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -2423,10 +2423,10 @@
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -2538,10 +2538,10 @@
         <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G21" t="s">
         <v>63</v>
@@ -2561,10 +2561,10 @@
         <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G22" t="s">
         <v>63</v>
@@ -2584,10 +2584,10 @@
         <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G23" t="s">
         <v>63</v>
@@ -2607,10 +2607,10 @@
         <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G24" t="s">
         <v>63</v>
@@ -2630,10 +2630,10 @@
         <v>50</v>
       </c>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G25" t="s">
         <v>63</v>
@@ -2653,10 +2653,10 @@
         <v>50</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G26" t="s">
         <v>63</v>
@@ -2676,10 +2676,10 @@
         <v>50</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F27" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G27" t="s">
         <v>63</v>
@@ -2699,10 +2699,10 @@
         <v>50</v>
       </c>
       <c r="E28" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F28" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G28" t="s">
         <v>63</v>
@@ -2722,10 +2722,10 @@
         <v>50</v>
       </c>
       <c r="E29" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F29" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G29" t="s">
         <v>63</v>
@@ -2745,10 +2745,10 @@
         <v>50</v>
       </c>
       <c r="E30" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="F30" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G30" t="s">
         <v>83</v>
@@ -2768,10 +2768,10 @@
         <v>50</v>
       </c>
       <c r="E31" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="F31" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G31" t="s">
         <v>83</v>
@@ -2791,10 +2791,10 @@
         <v>50</v>
       </c>
       <c r="E32" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="F32" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G32" t="s">
         <v>83</v>
@@ -2814,10 +2814,10 @@
         <v>50</v>
       </c>
       <c r="E33" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="F33" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G33" t="s">
         <v>83</v>
@@ -2837,10 +2837,10 @@
         <v>50</v>
       </c>
       <c r="E34" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="F34" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G34" t="s">
         <v>83</v>
@@ -2860,10 +2860,10 @@
         <v>50</v>
       </c>
       <c r="E35" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="F35" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G35" t="s">
         <v>83</v>
@@ -3619,10 +3619,10 @@
         <v>132</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="F68" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="G68" t="s">
         <v>169</v>
@@ -3642,10 +3642,10 @@
         <v>132</v>
       </c>
       <c r="E69" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="F69" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="G69" t="s">
         <v>169</v>
@@ -3665,10 +3665,10 @@
         <v>132</v>
       </c>
       <c r="E70" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="F70" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="G70" t="s">
         <v>169</v>
@@ -3688,10 +3688,10 @@
         <v>132</v>
       </c>
       <c r="E71" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="F71" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="G71" t="s">
         <v>169</v>
@@ -3711,10 +3711,10 @@
         <v>132</v>
       </c>
       <c r="E72" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="F72" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="G72" t="s">
         <v>169</v>
@@ -3734,10 +3734,10 @@
         <v>132</v>
       </c>
       <c r="E73" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="F73" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="G73" t="s">
         <v>169</v>
@@ -4355,10 +4355,10 @@
         <v>232</v>
       </c>
       <c r="E100" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="F100" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G100" t="s">
         <v>245</v>
@@ -4378,10 +4378,10 @@
         <v>232</v>
       </c>
       <c r="E101" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="F101" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G101" t="s">
         <v>245</v>
@@ -4401,10 +4401,10 @@
         <v>232</v>
       </c>
       <c r="E102" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="F102" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G102" t="s">
         <v>245</v>
@@ -4424,10 +4424,10 @@
         <v>232</v>
       </c>
       <c r="E103" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="F103" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G103" t="s">
         <v>245</v>
@@ -4447,10 +4447,10 @@
         <v>232</v>
       </c>
       <c r="E104" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="F104" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G104" t="s">
         <v>245</v>
@@ -4470,10 +4470,10 @@
         <v>232</v>
       </c>
       <c r="E105" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="F105" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G105" t="s">
         <v>245</v>
@@ -4493,10 +4493,10 @@
         <v>232</v>
       </c>
       <c r="E106" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="F106" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G106" t="s">
         <v>245</v>
@@ -4516,10 +4516,10 @@
         <v>232</v>
       </c>
       <c r="E107" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="F107" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G107" t="s">
         <v>245</v>
@@ -4539,10 +4539,10 @@
         <v>232</v>
       </c>
       <c r="E108" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="F108" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G108" t="s">
         <v>245</v>
@@ -4562,10 +4562,10 @@
         <v>232</v>
       </c>
       <c r="E109" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="F109" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="G109" t="s">
         <v>265</v>
@@ -4585,10 +4585,10 @@
         <v>232</v>
       </c>
       <c r="E110" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="F110" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="G110" t="s">
         <v>265</v>
@@ -4608,10 +4608,10 @@
         <v>232</v>
       </c>
       <c r="E111" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="F111" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="G111" t="s">
         <v>265</v>
@@ -4631,10 +4631,10 @@
         <v>232</v>
       </c>
       <c r="E112" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="F112" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="G112" t="s">
         <v>265</v>
@@ -4654,10 +4654,10 @@
         <v>232</v>
       </c>
       <c r="E113" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="F113" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="G113" t="s">
         <v>265</v>
@@ -4677,10 +4677,10 @@
         <v>232</v>
       </c>
       <c r="E114" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="F114" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="G114" t="s">
         <v>265</v>
@@ -4700,13 +4700,13 @@
         <v>232</v>
       </c>
       <c r="E115" t="s">
-        <v>233</v>
+        <v>277</v>
       </c>
       <c r="F115" t="s">
+        <v>234</v>
+      </c>
+      <c r="G115" t="s">
         <v>278</v>
-      </c>
-      <c r="G115" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4723,10 +4723,10 @@
         <v>232</v>
       </c>
       <c r="E116" t="s">
-        <v>233</v>
+        <v>281</v>
       </c>
       <c r="F116" t="s">
-        <v>281</v>
+        <v>234</v>
       </c>
       <c r="G116" t="s">
         <v>282</v>
@@ -4746,10 +4746,10 @@
         <v>232</v>
       </c>
       <c r="E117" t="s">
-        <v>233</v>
+        <v>285</v>
       </c>
       <c r="F117" t="s">
-        <v>285</v>
+        <v>234</v>
       </c>
       <c r="G117" t="s">
         <v>286</v>
@@ -4769,10 +4769,10 @@
         <v>232</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>285</v>
       </c>
       <c r="F118" t="s">
-        <v>285</v>
+        <v>234</v>
       </c>
       <c r="G118" t="s">
         <v>286</v>
@@ -4792,10 +4792,10 @@
         <v>232</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>285</v>
       </c>
       <c r="F119" t="s">
-        <v>285</v>
+        <v>234</v>
       </c>
       <c r="G119" t="s">
         <v>286</v>
@@ -4815,10 +4815,10 @@
         <v>232</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>285</v>
       </c>
       <c r="F120" t="s">
-        <v>285</v>
+        <v>234</v>
       </c>
       <c r="G120" t="s">
         <v>286</v>
@@ -4838,10 +4838,10 @@
         <v>232</v>
       </c>
       <c r="E121" t="s">
-        <v>233</v>
+        <v>285</v>
       </c>
       <c r="F121" t="s">
-        <v>285</v>
+        <v>234</v>
       </c>
       <c r="G121" t="s">
         <v>286</v>
@@ -4861,10 +4861,10 @@
         <v>232</v>
       </c>
       <c r="E122" t="s">
-        <v>233</v>
+        <v>285</v>
       </c>
       <c r="F122" t="s">
-        <v>285</v>
+        <v>234</v>
       </c>
       <c r="G122" t="s">
         <v>286</v>
@@ -4884,10 +4884,10 @@
         <v>232</v>
       </c>
       <c r="E123" t="s">
-        <v>233</v>
+        <v>285</v>
       </c>
       <c r="F123" t="s">
-        <v>285</v>
+        <v>234</v>
       </c>
       <c r="G123" t="s">
         <v>286</v>
@@ -5551,10 +5551,10 @@
         <v>325</v>
       </c>
       <c r="E152" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="F152" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="G152" t="s">
         <v>366</v>
@@ -5574,10 +5574,10 @@
         <v>325</v>
       </c>
       <c r="E153" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="F153" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="G153" t="s">
         <v>366</v>
@@ -5597,10 +5597,10 @@
         <v>325</v>
       </c>
       <c r="E154" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="F154" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="G154" t="s">
         <v>366</v>
@@ -5620,10 +5620,10 @@
         <v>325</v>
       </c>
       <c r="E155" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="F155" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="G155" t="s">
         <v>366</v>
@@ -5643,10 +5643,10 @@
         <v>325</v>
       </c>
       <c r="E156" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="F156" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="G156" t="s">
         <v>366</v>
@@ -5666,10 +5666,10 @@
         <v>325</v>
       </c>
       <c r="E157" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="F157" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="G157" t="s">
         <v>366</v>
@@ -5689,10 +5689,10 @@
         <v>325</v>
       </c>
       <c r="E158" t="s">
-        <v>326</v>
+        <v>379</v>
       </c>
       <c r="F158" t="s">
-        <v>379</v>
+        <v>327</v>
       </c>
       <c r="G158" t="s">
         <v>380</v>
@@ -5712,10 +5712,10 @@
         <v>325</v>
       </c>
       <c r="E159" t="s">
-        <v>326</v>
+        <v>379</v>
       </c>
       <c r="F159" t="s">
-        <v>379</v>
+        <v>327</v>
       </c>
       <c r="G159" t="s">
         <v>380</v>
@@ -5735,10 +5735,10 @@
         <v>325</v>
       </c>
       <c r="E160" t="s">
-        <v>326</v>
+        <v>379</v>
       </c>
       <c r="F160" t="s">
-        <v>379</v>
+        <v>327</v>
       </c>
       <c r="G160" t="s">
         <v>380</v>
@@ -5758,10 +5758,10 @@
         <v>325</v>
       </c>
       <c r="E161" t="s">
-        <v>326</v>
+        <v>379</v>
       </c>
       <c r="F161" t="s">
-        <v>379</v>
+        <v>327</v>
       </c>
       <c r="G161" t="s">
         <v>380</v>
@@ -5781,10 +5781,10 @@
         <v>325</v>
       </c>
       <c r="E162" t="s">
-        <v>326</v>
+        <v>379</v>
       </c>
       <c r="F162" t="s">
-        <v>379</v>
+        <v>327</v>
       </c>
       <c r="G162" t="s">
         <v>380</v>
@@ -6241,10 +6241,10 @@
         <v>391</v>
       </c>
       <c r="E182" t="s">
-        <v>392</v>
+        <v>433</v>
       </c>
       <c r="F182" t="s">
-        <v>433</v>
+        <v>393</v>
       </c>
       <c r="G182" t="s">
         <v>434</v>
@@ -6264,10 +6264,10 @@
         <v>391</v>
       </c>
       <c r="E183" t="s">
-        <v>392</v>
+        <v>433</v>
       </c>
       <c r="F183" t="s">
-        <v>433</v>
+        <v>393</v>
       </c>
       <c r="G183" t="s">
         <v>434</v>
@@ -6287,10 +6287,10 @@
         <v>391</v>
       </c>
       <c r="E184" t="s">
-        <v>392</v>
+        <v>433</v>
       </c>
       <c r="F184" t="s">
-        <v>433</v>
+        <v>393</v>
       </c>
       <c r="G184" t="s">
         <v>434</v>
@@ -6310,10 +6310,10 @@
         <v>391</v>
       </c>
       <c r="E185" t="s">
-        <v>392</v>
+        <v>433</v>
       </c>
       <c r="F185" t="s">
-        <v>433</v>
+        <v>393</v>
       </c>
       <c r="G185" t="s">
         <v>434</v>
@@ -6333,10 +6333,10 @@
         <v>391</v>
       </c>
       <c r="E186" t="s">
-        <v>392</v>
+        <v>433</v>
       </c>
       <c r="F186" t="s">
-        <v>433</v>
+        <v>393</v>
       </c>
       <c r="G186" t="s">
         <v>434</v>
@@ -6356,10 +6356,10 @@
         <v>391</v>
       </c>
       <c r="E187" t="s">
-        <v>392</v>
+        <v>433</v>
       </c>
       <c r="F187" t="s">
-        <v>433</v>
+        <v>393</v>
       </c>
       <c r="G187" t="s">
         <v>434</v>
@@ -6379,10 +6379,10 @@
         <v>391</v>
       </c>
       <c r="E188" t="s">
-        <v>392</v>
+        <v>433</v>
       </c>
       <c r="F188" t="s">
-        <v>433</v>
+        <v>393</v>
       </c>
       <c r="G188" t="s">
         <v>434</v>
@@ -6402,10 +6402,10 @@
         <v>391</v>
       </c>
       <c r="E189" t="s">
-        <v>392</v>
+        <v>433</v>
       </c>
       <c r="F189" t="s">
-        <v>433</v>
+        <v>393</v>
       </c>
       <c r="G189" t="s">
         <v>434</v>
@@ -6425,10 +6425,10 @@
         <v>391</v>
       </c>
       <c r="E190" t="s">
-        <v>392</v>
+        <v>433</v>
       </c>
       <c r="F190" t="s">
-        <v>433</v>
+        <v>393</v>
       </c>
       <c r="G190" t="s">
         <v>434</v>
@@ -6448,10 +6448,10 @@
         <v>391</v>
       </c>
       <c r="E191" t="s">
-        <v>392</v>
+        <v>433</v>
       </c>
       <c r="F191" t="s">
-        <v>433</v>
+        <v>393</v>
       </c>
       <c r="G191" t="s">
         <v>434</v>
@@ -6471,10 +6471,10 @@
         <v>391</v>
       </c>
       <c r="E192" t="s">
-        <v>392</v>
+        <v>455</v>
       </c>
       <c r="F192" t="s">
-        <v>455</v>
+        <v>393</v>
       </c>
       <c r="G192" t="s">
         <v>456</v>

--- a/api/1/xlsx/fr/SectorGroup.xlsx
+++ b/api/1/xlsx/fr/SectorGroup.xlsx
@@ -25,18 +25,18 @@
     <t>status</t>
   </si>
   <si>
+    <t>codeforiati:category-name</t>
+  </si>
+  <si>
+    <t>codeforiati:category-code</t>
+  </si>
+  <si>
+    <t>codeforiati:group-name</t>
+  </si>
+  <si>
     <t>codeforiati:group-code</t>
   </si>
   <si>
-    <t>codeforiati:category-name</t>
-  </si>
-  <si>
-    <t>codeforiati:group-name</t>
-  </si>
-  <si>
-    <t>codeforiati:category-code</t>
-  </si>
-  <si>
     <t>11110</t>
   </si>
   <si>
@@ -46,18 +46,18 @@
     <t>active</t>
   </si>
   <si>
+    <t>Education, Niveau non spécifié</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
     <t>110</t>
   </si>
   <si>
-    <t>Education, Niveau non spécifié</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
     <t>11120</t>
   </si>
   <si>
@@ -166,18 +166,18 @@
     <t>Politique de la santé et gestion administrative</t>
   </si>
   <si>
+    <t>Santé, Général</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>Santé</t>
+  </si>
+  <si>
     <t>120</t>
   </si>
   <si>
-    <t>Santé, Général</t>
-  </si>
-  <si>
-    <t>Santé</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
     <t>12181</t>
   </si>
   <si>
@@ -304,12 +304,12 @@
     <t>Politique/programmes en matière de population et gestion administrative</t>
   </si>
   <si>
+    <t>Politique en Matière de Population/Santé&amp;Fertilité</t>
+  </si>
+  <si>
     <t>130</t>
   </si>
   <si>
-    <t>Politique en Matière de Population/Santé&amp;Fertilité</t>
-  </si>
-  <si>
     <t>13020</t>
   </si>
   <si>
@@ -340,12 +340,12 @@
     <t>Politique et gestion administrative du secteur de l'eau</t>
   </si>
   <si>
+    <t>Distribution d'Eau et Assainissement</t>
+  </si>
+  <si>
     <t>140</t>
   </si>
   <si>
-    <t>Distribution d'Eau et Assainissement</t>
-  </si>
-  <si>
     <t>14015</t>
   </si>
   <si>
@@ -412,18 +412,18 @@
     <t>Politiques publiques et gestion administrative</t>
   </si>
   <si>
+    <t>Gouvernement &amp; Société Civile-général</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>Gouvernement &amp; Société Civile</t>
+  </si>
+  <si>
     <t>150</t>
   </si>
   <si>
-    <t>Gouvernement &amp; Société Civile-général</t>
-  </si>
-  <si>
-    <t>Gouvernement &amp; Société Civile</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
     <t>15111</t>
   </si>
   <si>
@@ -562,12 +562,12 @@
     <t>Protection sociale</t>
   </si>
   <si>
+    <t>Infrastructure et Services Sociaux Divers</t>
+  </si>
+  <si>
     <t>160</t>
   </si>
   <si>
-    <t>Infrastructure et Services Sociaux Divers</t>
-  </si>
-  <si>
     <t>16020</t>
   </si>
   <si>
@@ -634,12 +634,12 @@
     <t>Politique des transports et gestion administrative</t>
   </si>
   <si>
+    <t>Transports et Entreposage</t>
+  </si>
+  <si>
     <t>210</t>
   </si>
   <si>
-    <t>Transports et Entreposage</t>
-  </si>
-  <si>
     <t>21020</t>
   </si>
   <si>
@@ -682,12 +682,12 @@
     <t>Politique des communications et gestion administrative</t>
   </si>
   <si>
+    <t>Communications</t>
+  </si>
+  <si>
     <t>220</t>
   </si>
   <si>
-    <t>Communications</t>
-  </si>
-  <si>
     <t>22020</t>
   </si>
   <si>
@@ -712,18 +712,18 @@
     <t>Politique énergétique et gestion administrative</t>
   </si>
   <si>
+    <t>Politique de l'énergie</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>Energie</t>
+  </si>
+  <si>
     <t>230</t>
   </si>
   <si>
-    <t>Politique de l'énergie</t>
-  </si>
-  <si>
-    <t>Energie</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
     <t>23181</t>
   </si>
   <si>
@@ -919,12 +919,12 @@
     <t>Politique des finances et gestion administrative</t>
   </si>
   <si>
+    <t>Banques et Services Financiers</t>
+  </si>
+  <si>
     <t>240</t>
   </si>
   <si>
-    <t>Banques et Services Financiers</t>
-  </si>
-  <si>
     <t>24020</t>
   </si>
   <si>
@@ -961,12 +961,12 @@
     <t>Politique commerciale et administration</t>
   </si>
   <si>
+    <t>Entreprises et Autres Services</t>
+  </si>
+  <si>
     <t>250</t>
   </si>
   <si>
-    <t>Entreprises et Autres Services</t>
-  </si>
-  <si>
     <t>25020</t>
   </si>
   <si>
@@ -991,18 +991,18 @@
     <t>Politique agricole et gestion administrative</t>
   </si>
   <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>Agriculture, Sylviculture, Pêche</t>
+  </si>
+  <si>
     <t>310</t>
   </si>
   <si>
-    <t>Agriculture</t>
-  </si>
-  <si>
-    <t>Agriculture, Sylviculture, Pêche</t>
-  </si>
-  <si>
-    <t>311</t>
-  </si>
-  <si>
     <t>31120</t>
   </si>
   <si>
@@ -1189,18 +1189,18 @@
     <t>Politique de l'industrie et gestion administrative</t>
   </si>
   <si>
+    <t>Industries Manufacturières</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>Industries Manufacturières, Extractives, Construct</t>
+  </si>
+  <si>
     <t>320</t>
   </si>
   <si>
-    <t>Industries Manufacturières</t>
-  </si>
-  <si>
-    <t>Industries Manufacturières, Extractives, Construct</t>
-  </si>
-  <si>
-    <t>321</t>
-  </si>
-  <si>
     <t>32120</t>
   </si>
   <si>
@@ -1393,12 +1393,12 @@
     <t>Politique commerciale et gestion administrative</t>
   </si>
   <si>
+    <t>Politique Commerciale et Réglementations</t>
+  </si>
+  <si>
     <t>331</t>
   </si>
   <si>
-    <t>Politique Commerciale et Réglementations</t>
-  </si>
-  <si>
     <t>33120</t>
   </si>
   <si>
@@ -1435,24 +1435,24 @@
     <t>Politique du tourisme et gestion administrative</t>
   </si>
   <si>
+    <t>Tourisme</t>
+  </si>
+  <si>
     <t>332</t>
   </si>
   <si>
-    <t>Tourisme</t>
-  </si>
-  <si>
     <t>41010</t>
   </si>
   <si>
     <t>Politique de l'environnement et gestion administrative</t>
   </si>
   <si>
+    <t>Protection de l'Environnement Général</t>
+  </si>
+  <si>
     <t>410</t>
   </si>
   <si>
-    <t>Protection de l'Environnement Général</t>
-  </si>
-  <si>
     <t>41020</t>
   </si>
   <si>
@@ -1489,12 +1489,12 @@
     <t>Aide plurisectorielle</t>
   </si>
   <si>
+    <t>Autres Multisecteurs</t>
+  </si>
+  <si>
     <t>430</t>
   </si>
   <si>
-    <t>Autres Multisecteurs</t>
-  </si>
-  <si>
     <t>43030</t>
   </si>
   <si>
@@ -1555,36 +1555,36 @@
     <t>Aide relative au soutien budgétaire général</t>
   </si>
   <si>
+    <t>Soutien Budgétaire</t>
+  </si>
+  <si>
     <t>510</t>
   </si>
   <si>
-    <t>Soutien Budgétaire</t>
-  </si>
-  <si>
     <t>52010</t>
   </si>
   <si>
     <t>Assistance alimentaire</t>
   </si>
   <si>
+    <t>Aide Alimentaire Dévelopmentale</t>
+  </si>
+  <si>
     <t>520</t>
   </si>
   <si>
-    <t>Aide Alimentaire Dévelopmentale</t>
-  </si>
-  <si>
     <t>53030</t>
   </si>
   <si>
     <t>Subventions à l'importation (biens d'équipement)</t>
   </si>
   <si>
+    <t>Aide sous forme de Produits, Autre</t>
+  </si>
+  <si>
     <t>530</t>
   </si>
   <si>
-    <t>Aide sous forme de Produits, Autre</t>
-  </si>
-  <si>
     <t>53040</t>
   </si>
   <si>
@@ -1597,12 +1597,12 @@
     <t>Actions se rapportant à la dette</t>
   </si>
   <si>
+    <t>Actions se Rapportant a la Dette</t>
+  </si>
+  <si>
     <t>600</t>
   </si>
   <si>
-    <t>Actions se Rapportant a la Dette</t>
-  </si>
-  <si>
     <t>60020</t>
   </si>
   <si>
@@ -1645,12 +1645,12 @@
     <t>Assistance matérielle et services d'urgence</t>
   </si>
   <si>
+    <t>Intervention d'Urgence</t>
+  </si>
+  <si>
     <t>720</t>
   </si>
   <si>
-    <t>Intervention d'Urgence</t>
-  </si>
-  <si>
     <t>72040</t>
   </si>
   <si>
@@ -1669,58 +1669,58 @@
     <t>Reconstruction et réhabilitation immédiate post-urgence</t>
   </si>
   <si>
+    <t>Reconstruction &amp; Réhabilitation</t>
+  </si>
+  <si>
     <t>730</t>
   </si>
   <si>
-    <t>Reconstruction &amp; Réhabilitation</t>
-  </si>
-  <si>
     <t>74020</t>
   </si>
   <si>
     <t>Préparation aux interventions multi-risques</t>
   </si>
   <si>
+    <t>Prévention catastrophes/Préparation à leur survenue</t>
+  </si>
+  <si>
     <t>740</t>
   </si>
   <si>
-    <t>Prévention catastrophes/Préparation à leur survenue</t>
-  </si>
-  <si>
     <t>91010</t>
   </si>
   <si>
     <t>Frais administratifs (non alloués par secteur)</t>
   </si>
   <si>
+    <t>Frais Administratifs des Donneurs</t>
+  </si>
+  <si>
     <t>910</t>
   </si>
   <si>
-    <t>Frais Administratifs des Donneurs</t>
-  </si>
-  <si>
     <t>93010</t>
   </si>
   <si>
     <t>Refugiés/demandeurs d'asile dans les pays donneurs (non alloués)</t>
   </si>
   <si>
+    <t>Refugiés dans les Pays Donneurs</t>
+  </si>
+  <si>
     <t>930</t>
   </si>
   <si>
-    <t>Refugiés dans les Pays Donneurs</t>
-  </si>
-  <si>
     <t>99810</t>
   </si>
   <si>
     <t>Secteur non spécifié</t>
   </si>
   <si>
+    <t>Non Affecté / Non Specifié</t>
+  </si>
+  <si>
     <t>998</t>
-  </si>
-  <si>
-    <t>Non Affecté / Non Specifié</t>
   </si>
   <si>
     <t>99820</t>
@@ -2190,16 +2190,16 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2213,16 +2213,16 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2236,16 +2236,16 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2259,16 +2259,16 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2282,16 +2282,16 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2305,16 +2305,16 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2328,16 +2328,16 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2351,16 +2351,16 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2374,16 +2374,16 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2397,16 +2397,16 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2420,16 +2420,16 @@
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2535,16 +2535,16 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F21" t="s">
         <v>52</v>
       </c>
       <c r="G21" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2558,16 +2558,16 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F22" t="s">
         <v>52</v>
       </c>
       <c r="G22" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2581,16 +2581,16 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F23" t="s">
         <v>52</v>
       </c>
       <c r="G23" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2604,16 +2604,16 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F24" t="s">
         <v>52</v>
       </c>
       <c r="G24" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2627,16 +2627,16 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F25" t="s">
         <v>52</v>
       </c>
       <c r="G25" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2650,16 +2650,16 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F26" t="s">
         <v>52</v>
       </c>
       <c r="G26" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2673,16 +2673,16 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F27" t="s">
         <v>52</v>
       </c>
       <c r="G27" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2696,16 +2696,16 @@
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F28" t="s">
         <v>52</v>
       </c>
       <c r="G28" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2719,16 +2719,16 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F29" t="s">
         <v>52</v>
       </c>
       <c r="G29" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2742,16 +2742,16 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="E30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F30" t="s">
         <v>52</v>
       </c>
       <c r="G30" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2765,16 +2765,16 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="E31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F31" t="s">
         <v>52</v>
       </c>
       <c r="G31" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2788,16 +2788,16 @@
         <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="E32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F32" t="s">
         <v>52</v>
       </c>
       <c r="G32" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2811,16 +2811,16 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="E33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F33" t="s">
         <v>52</v>
       </c>
       <c r="G33" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2834,16 +2834,16 @@
         <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="E34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F34" t="s">
         <v>52</v>
       </c>
       <c r="G34" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2857,16 +2857,16 @@
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="E35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F35" t="s">
         <v>52</v>
       </c>
       <c r="G35" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2886,10 +2886,10 @@
         <v>97</v>
       </c>
       <c r="F36" t="s">
+        <v>96</v>
+      </c>
+      <c r="G36" t="s">
         <v>97</v>
-      </c>
-      <c r="G36" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2909,10 +2909,10 @@
         <v>97</v>
       </c>
       <c r="F37" t="s">
+        <v>96</v>
+      </c>
+      <c r="G37" t="s">
         <v>97</v>
-      </c>
-      <c r="G37" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2932,10 +2932,10 @@
         <v>97</v>
       </c>
       <c r="F38" t="s">
+        <v>96</v>
+      </c>
+      <c r="G38" t="s">
         <v>97</v>
-      </c>
-      <c r="G38" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2955,10 +2955,10 @@
         <v>97</v>
       </c>
       <c r="F39" t="s">
+        <v>96</v>
+      </c>
+      <c r="G39" t="s">
         <v>97</v>
-      </c>
-      <c r="G39" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2978,10 +2978,10 @@
         <v>97</v>
       </c>
       <c r="F40" t="s">
+        <v>96</v>
+      </c>
+      <c r="G40" t="s">
         <v>97</v>
-      </c>
-      <c r="G40" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3001,10 +3001,10 @@
         <v>109</v>
       </c>
       <c r="F41" t="s">
+        <v>108</v>
+      </c>
+      <c r="G41" t="s">
         <v>109</v>
-      </c>
-      <c r="G41" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3024,10 +3024,10 @@
         <v>109</v>
       </c>
       <c r="F42" t="s">
+        <v>108</v>
+      </c>
+      <c r="G42" t="s">
         <v>109</v>
-      </c>
-      <c r="G42" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3047,10 +3047,10 @@
         <v>109</v>
       </c>
       <c r="F43" t="s">
+        <v>108</v>
+      </c>
+      <c r="G43" t="s">
         <v>109</v>
-      </c>
-      <c r="G43" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3070,10 +3070,10 @@
         <v>109</v>
       </c>
       <c r="F44" t="s">
+        <v>108</v>
+      </c>
+      <c r="G44" t="s">
         <v>109</v>
-      </c>
-      <c r="G44" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3093,10 +3093,10 @@
         <v>109</v>
       </c>
       <c r="F45" t="s">
+        <v>108</v>
+      </c>
+      <c r="G45" t="s">
         <v>109</v>
-      </c>
-      <c r="G45" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3116,10 +3116,10 @@
         <v>109</v>
       </c>
       <c r="F46" t="s">
+        <v>108</v>
+      </c>
+      <c r="G46" t="s">
         <v>109</v>
-      </c>
-      <c r="G46" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3139,10 +3139,10 @@
         <v>109</v>
       </c>
       <c r="F47" t="s">
+        <v>108</v>
+      </c>
+      <c r="G47" t="s">
         <v>109</v>
-      </c>
-      <c r="G47" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3162,10 +3162,10 @@
         <v>109</v>
       </c>
       <c r="F48" t="s">
+        <v>108</v>
+      </c>
+      <c r="G48" t="s">
         <v>109</v>
-      </c>
-      <c r="G48" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3185,10 +3185,10 @@
         <v>109</v>
       </c>
       <c r="F49" t="s">
+        <v>108</v>
+      </c>
+      <c r="G49" t="s">
         <v>109</v>
-      </c>
-      <c r="G49" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3208,10 +3208,10 @@
         <v>109</v>
       </c>
       <c r="F50" t="s">
+        <v>108</v>
+      </c>
+      <c r="G50" t="s">
         <v>109</v>
-      </c>
-      <c r="G50" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3231,10 +3231,10 @@
         <v>109</v>
       </c>
       <c r="F51" t="s">
+        <v>108</v>
+      </c>
+      <c r="G51" t="s">
         <v>109</v>
-      </c>
-      <c r="G51" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3616,16 +3616,16 @@
         <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="E68" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F68" t="s">
         <v>134</v>
       </c>
       <c r="G68" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3639,16 +3639,16 @@
         <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="E69" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F69" t="s">
         <v>134</v>
       </c>
       <c r="G69" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3662,16 +3662,16 @@
         <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="E70" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F70" t="s">
         <v>134</v>
       </c>
       <c r="G70" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3685,16 +3685,16 @@
         <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="E71" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F71" t="s">
         <v>134</v>
       </c>
       <c r="G71" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3708,16 +3708,16 @@
         <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="E72" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F72" t="s">
         <v>134</v>
       </c>
       <c r="G72" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3731,16 +3731,16 @@
         <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="E73" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F73" t="s">
         <v>134</v>
       </c>
       <c r="G73" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3760,10 +3760,10 @@
         <v>183</v>
       </c>
       <c r="F74" t="s">
+        <v>182</v>
+      </c>
+      <c r="G74" t="s">
         <v>183</v>
-      </c>
-      <c r="G74" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3783,10 +3783,10 @@
         <v>183</v>
       </c>
       <c r="F75" t="s">
+        <v>182</v>
+      </c>
+      <c r="G75" t="s">
         <v>183</v>
-      </c>
-      <c r="G75" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3806,10 +3806,10 @@
         <v>183</v>
       </c>
       <c r="F76" t="s">
+        <v>182</v>
+      </c>
+      <c r="G76" t="s">
         <v>183</v>
-      </c>
-      <c r="G76" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3829,10 +3829,10 @@
         <v>183</v>
       </c>
       <c r="F77" t="s">
+        <v>182</v>
+      </c>
+      <c r="G77" t="s">
         <v>183</v>
-      </c>
-      <c r="G77" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3852,10 +3852,10 @@
         <v>183</v>
       </c>
       <c r="F78" t="s">
+        <v>182</v>
+      </c>
+      <c r="G78" t="s">
         <v>183</v>
-      </c>
-      <c r="G78" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3875,10 +3875,10 @@
         <v>183</v>
       </c>
       <c r="F79" t="s">
+        <v>182</v>
+      </c>
+      <c r="G79" t="s">
         <v>183</v>
-      </c>
-      <c r="G79" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3898,10 +3898,10 @@
         <v>183</v>
       </c>
       <c r="F80" t="s">
+        <v>182</v>
+      </c>
+      <c r="G80" t="s">
         <v>183</v>
-      </c>
-      <c r="G80" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3921,10 +3921,10 @@
         <v>183</v>
       </c>
       <c r="F81" t="s">
+        <v>182</v>
+      </c>
+      <c r="G81" t="s">
         <v>183</v>
-      </c>
-      <c r="G81" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3944,10 +3944,10 @@
         <v>183</v>
       </c>
       <c r="F82" t="s">
+        <v>182</v>
+      </c>
+      <c r="G82" t="s">
         <v>183</v>
-      </c>
-      <c r="G82" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3967,10 +3967,10 @@
         <v>183</v>
       </c>
       <c r="F83" t="s">
+        <v>182</v>
+      </c>
+      <c r="G83" t="s">
         <v>183</v>
-      </c>
-      <c r="G83" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3990,10 +3990,10 @@
         <v>183</v>
       </c>
       <c r="F84" t="s">
+        <v>182</v>
+      </c>
+      <c r="G84" t="s">
         <v>183</v>
-      </c>
-      <c r="G84" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -4013,10 +4013,10 @@
         <v>207</v>
       </c>
       <c r="F85" t="s">
+        <v>206</v>
+      </c>
+      <c r="G85" t="s">
         <v>207</v>
-      </c>
-      <c r="G85" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -4036,10 +4036,10 @@
         <v>207</v>
       </c>
       <c r="F86" t="s">
+        <v>206</v>
+      </c>
+      <c r="G86" t="s">
         <v>207</v>
-      </c>
-      <c r="G86" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -4059,10 +4059,10 @@
         <v>207</v>
       </c>
       <c r="F87" t="s">
+        <v>206</v>
+      </c>
+      <c r="G87" t="s">
         <v>207</v>
-      </c>
-      <c r="G87" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -4082,10 +4082,10 @@
         <v>207</v>
       </c>
       <c r="F88" t="s">
+        <v>206</v>
+      </c>
+      <c r="G88" t="s">
         <v>207</v>
-      </c>
-      <c r="G88" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -4105,10 +4105,10 @@
         <v>207</v>
       </c>
       <c r="F89" t="s">
+        <v>206</v>
+      </c>
+      <c r="G89" t="s">
         <v>207</v>
-      </c>
-      <c r="G89" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -4128,10 +4128,10 @@
         <v>207</v>
       </c>
       <c r="F90" t="s">
+        <v>206</v>
+      </c>
+      <c r="G90" t="s">
         <v>207</v>
-      </c>
-      <c r="G90" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -4151,10 +4151,10 @@
         <v>207</v>
       </c>
       <c r="F91" t="s">
+        <v>206</v>
+      </c>
+      <c r="G91" t="s">
         <v>207</v>
-      </c>
-      <c r="G91" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -4174,10 +4174,10 @@
         <v>223</v>
       </c>
       <c r="F92" t="s">
+        <v>222</v>
+      </c>
+      <c r="G92" t="s">
         <v>223</v>
-      </c>
-      <c r="G92" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -4197,10 +4197,10 @@
         <v>223</v>
       </c>
       <c r="F93" t="s">
+        <v>222</v>
+      </c>
+      <c r="G93" t="s">
         <v>223</v>
-      </c>
-      <c r="G93" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -4220,10 +4220,10 @@
         <v>223</v>
       </c>
       <c r="F94" t="s">
+        <v>222</v>
+      </c>
+      <c r="G94" t="s">
         <v>223</v>
-      </c>
-      <c r="G94" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -4243,10 +4243,10 @@
         <v>223</v>
       </c>
       <c r="F95" t="s">
+        <v>222</v>
+      </c>
+      <c r="G95" t="s">
         <v>223</v>
-      </c>
-      <c r="G95" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -4352,16 +4352,16 @@
         <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E100" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F100" t="s">
         <v>234</v>
       </c>
       <c r="G100" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4375,16 +4375,16 @@
         <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E101" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F101" t="s">
         <v>234</v>
       </c>
       <c r="G101" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4398,16 +4398,16 @@
         <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E102" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F102" t="s">
         <v>234</v>
       </c>
       <c r="G102" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -4421,16 +4421,16 @@
         <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E103" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F103" t="s">
         <v>234</v>
       </c>
       <c r="G103" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4444,16 +4444,16 @@
         <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E104" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F104" t="s">
         <v>234</v>
       </c>
       <c r="G104" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4467,16 +4467,16 @@
         <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E105" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F105" t="s">
         <v>234</v>
       </c>
       <c r="G105" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4490,16 +4490,16 @@
         <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E106" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F106" t="s">
         <v>234</v>
       </c>
       <c r="G106" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4513,16 +4513,16 @@
         <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E107" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F107" t="s">
         <v>234</v>
       </c>
       <c r="G107" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4536,16 +4536,16 @@
         <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E108" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F108" t="s">
         <v>234</v>
       </c>
       <c r="G108" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4559,16 +4559,16 @@
         <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="E109" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F109" t="s">
         <v>234</v>
       </c>
       <c r="G109" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4582,16 +4582,16 @@
         <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="E110" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F110" t="s">
         <v>234</v>
       </c>
       <c r="G110" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4605,16 +4605,16 @@
         <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="E111" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F111" t="s">
         <v>234</v>
       </c>
       <c r="G111" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4628,16 +4628,16 @@
         <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="E112" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F112" t="s">
         <v>234</v>
       </c>
       <c r="G112" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4651,16 +4651,16 @@
         <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="E113" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F113" t="s">
         <v>234</v>
       </c>
       <c r="G113" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4674,16 +4674,16 @@
         <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="E114" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F114" t="s">
         <v>234</v>
       </c>
       <c r="G114" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4697,16 +4697,16 @@
         <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>232</v>
+        <v>277</v>
       </c>
       <c r="E115" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F115" t="s">
         <v>234</v>
       </c>
       <c r="G115" t="s">
-        <v>278</v>
+        <v>235</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4720,16 +4720,16 @@
         <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="E116" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F116" t="s">
         <v>234</v>
       </c>
       <c r="G116" t="s">
-        <v>282</v>
+        <v>235</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4743,16 +4743,16 @@
         <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>232</v>
+        <v>285</v>
       </c>
       <c r="E117" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F117" t="s">
         <v>234</v>
       </c>
       <c r="G117" t="s">
-        <v>286</v>
+        <v>235</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4766,16 +4766,16 @@
         <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>232</v>
+        <v>285</v>
       </c>
       <c r="E118" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F118" t="s">
         <v>234</v>
       </c>
       <c r="G118" t="s">
-        <v>286</v>
+        <v>235</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4789,16 +4789,16 @@
         <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>232</v>
+        <v>285</v>
       </c>
       <c r="E119" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F119" t="s">
         <v>234</v>
       </c>
       <c r="G119" t="s">
-        <v>286</v>
+        <v>235</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4812,16 +4812,16 @@
         <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>232</v>
+        <v>285</v>
       </c>
       <c r="E120" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F120" t="s">
         <v>234</v>
       </c>
       <c r="G120" t="s">
-        <v>286</v>
+        <v>235</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4835,16 +4835,16 @@
         <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>232</v>
+        <v>285</v>
       </c>
       <c r="E121" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F121" t="s">
         <v>234</v>
       </c>
       <c r="G121" t="s">
-        <v>286</v>
+        <v>235</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4858,16 +4858,16 @@
         <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>232</v>
+        <v>285</v>
       </c>
       <c r="E122" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F122" t="s">
         <v>234</v>
       </c>
       <c r="G122" t="s">
-        <v>286</v>
+        <v>235</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4881,16 +4881,16 @@
         <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>232</v>
+        <v>285</v>
       </c>
       <c r="E123" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F123" t="s">
         <v>234</v>
       </c>
       <c r="G123" t="s">
-        <v>286</v>
+        <v>235</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4910,10 +4910,10 @@
         <v>302</v>
       </c>
       <c r="F124" t="s">
+        <v>301</v>
+      </c>
+      <c r="G124" t="s">
         <v>302</v>
-      </c>
-      <c r="G124" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4933,10 +4933,10 @@
         <v>302</v>
       </c>
       <c r="F125" t="s">
+        <v>301</v>
+      </c>
+      <c r="G125" t="s">
         <v>302</v>
-      </c>
-      <c r="G125" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4956,10 +4956,10 @@
         <v>302</v>
       </c>
       <c r="F126" t="s">
+        <v>301</v>
+      </c>
+      <c r="G126" t="s">
         <v>302</v>
-      </c>
-      <c r="G126" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4979,10 +4979,10 @@
         <v>302</v>
       </c>
       <c r="F127" t="s">
+        <v>301</v>
+      </c>
+      <c r="G127" t="s">
         <v>302</v>
-      </c>
-      <c r="G127" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -5002,10 +5002,10 @@
         <v>302</v>
       </c>
       <c r="F128" t="s">
+        <v>301</v>
+      </c>
+      <c r="G128" t="s">
         <v>302</v>
-      </c>
-      <c r="G128" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -5025,10 +5025,10 @@
         <v>302</v>
       </c>
       <c r="F129" t="s">
+        <v>301</v>
+      </c>
+      <c r="G129" t="s">
         <v>302</v>
-      </c>
-      <c r="G129" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -5048,10 +5048,10 @@
         <v>316</v>
       </c>
       <c r="F130" t="s">
+        <v>315</v>
+      </c>
+      <c r="G130" t="s">
         <v>316</v>
-      </c>
-      <c r="G130" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -5071,10 +5071,10 @@
         <v>316</v>
       </c>
       <c r="F131" t="s">
+        <v>315</v>
+      </c>
+      <c r="G131" t="s">
         <v>316</v>
-      </c>
-      <c r="G131" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -5094,10 +5094,10 @@
         <v>316</v>
       </c>
       <c r="F132" t="s">
+        <v>315</v>
+      </c>
+      <c r="G132" t="s">
         <v>316</v>
-      </c>
-      <c r="G132" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -5117,10 +5117,10 @@
         <v>316</v>
       </c>
       <c r="F133" t="s">
+        <v>315</v>
+      </c>
+      <c r="G133" t="s">
         <v>316</v>
-      </c>
-      <c r="G133" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -5548,16 +5548,16 @@
         <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="E152" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F152" t="s">
         <v>327</v>
       </c>
       <c r="G152" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -5571,16 +5571,16 @@
         <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="E153" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F153" t="s">
         <v>327</v>
       </c>
       <c r="G153" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -5594,16 +5594,16 @@
         <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="E154" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F154" t="s">
         <v>327</v>
       </c>
       <c r="G154" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -5617,16 +5617,16 @@
         <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="E155" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F155" t="s">
         <v>327</v>
       </c>
       <c r="G155" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5640,16 +5640,16 @@
         <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="E156" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F156" t="s">
         <v>327</v>
       </c>
       <c r="G156" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -5663,16 +5663,16 @@
         <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="E157" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F157" t="s">
         <v>327</v>
       </c>
       <c r="G157" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -5686,16 +5686,16 @@
         <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
       <c r="E158" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F158" t="s">
         <v>327</v>
       </c>
       <c r="G158" t="s">
-        <v>380</v>
+        <v>328</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -5709,16 +5709,16 @@
         <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
       <c r="E159" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F159" t="s">
         <v>327</v>
       </c>
       <c r="G159" t="s">
-        <v>380</v>
+        <v>328</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -5732,16 +5732,16 @@
         <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
       <c r="E160" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F160" t="s">
         <v>327</v>
       </c>
       <c r="G160" t="s">
-        <v>380</v>
+        <v>328</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -5755,16 +5755,16 @@
         <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
       <c r="E161" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F161" t="s">
         <v>327</v>
       </c>
       <c r="G161" t="s">
-        <v>380</v>
+        <v>328</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -5778,16 +5778,16 @@
         <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
       <c r="E162" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F162" t="s">
         <v>327</v>
       </c>
       <c r="G162" t="s">
-        <v>380</v>
+        <v>328</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -6238,16 +6238,16 @@
         <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E182" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F182" t="s">
         <v>393</v>
       </c>
       <c r="G182" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -6261,16 +6261,16 @@
         <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E183" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F183" t="s">
         <v>393</v>
       </c>
       <c r="G183" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -6284,16 +6284,16 @@
         <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E184" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F184" t="s">
         <v>393</v>
       </c>
       <c r="G184" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -6307,16 +6307,16 @@
         <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E185" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F185" t="s">
         <v>393</v>
       </c>
       <c r="G185" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -6330,16 +6330,16 @@
         <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E186" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F186" t="s">
         <v>393</v>
       </c>
       <c r="G186" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -6353,16 +6353,16 @@
         <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E187" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F187" t="s">
         <v>393</v>
       </c>
       <c r="G187" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -6376,16 +6376,16 @@
         <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E188" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F188" t="s">
         <v>393</v>
       </c>
       <c r="G188" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -6399,16 +6399,16 @@
         <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E189" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F189" t="s">
         <v>393</v>
       </c>
       <c r="G189" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -6422,16 +6422,16 @@
         <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E190" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F190" t="s">
         <v>393</v>
       </c>
       <c r="G190" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -6445,16 +6445,16 @@
         <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E191" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F191" t="s">
         <v>393</v>
       </c>
       <c r="G191" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -6468,16 +6468,16 @@
         <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>391</v>
+        <v>455</v>
       </c>
       <c r="E192" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F192" t="s">
         <v>393</v>
       </c>
       <c r="G192" t="s">
-        <v>456</v>
+        <v>394</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -6497,10 +6497,10 @@
         <v>460</v>
       </c>
       <c r="F193" t="s">
+        <v>459</v>
+      </c>
+      <c r="G193" t="s">
         <v>460</v>
-      </c>
-      <c r="G193" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -6520,10 +6520,10 @@
         <v>460</v>
       </c>
       <c r="F194" t="s">
+        <v>459</v>
+      </c>
+      <c r="G194" t="s">
         <v>460</v>
-      </c>
-      <c r="G194" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -6543,10 +6543,10 @@
         <v>460</v>
       </c>
       <c r="F195" t="s">
+        <v>459</v>
+      </c>
+      <c r="G195" t="s">
         <v>460</v>
-      </c>
-      <c r="G195" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -6566,10 +6566,10 @@
         <v>460</v>
       </c>
       <c r="F196" t="s">
+        <v>459</v>
+      </c>
+      <c r="G196" t="s">
         <v>460</v>
-      </c>
-      <c r="G196" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -6589,10 +6589,10 @@
         <v>460</v>
       </c>
       <c r="F197" t="s">
+        <v>459</v>
+      </c>
+      <c r="G197" t="s">
         <v>460</v>
-      </c>
-      <c r="G197" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -6612,10 +6612,10 @@
         <v>460</v>
       </c>
       <c r="F198" t="s">
+        <v>459</v>
+      </c>
+      <c r="G198" t="s">
         <v>460</v>
-      </c>
-      <c r="G198" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -6635,10 +6635,10 @@
         <v>474</v>
       </c>
       <c r="F199" t="s">
+        <v>473</v>
+      </c>
+      <c r="G199" t="s">
         <v>474</v>
-      </c>
-      <c r="G199" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -6658,10 +6658,10 @@
         <v>478</v>
       </c>
       <c r="F200" t="s">
+        <v>477</v>
+      </c>
+      <c r="G200" t="s">
         <v>478</v>
-      </c>
-      <c r="G200" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -6681,10 +6681,10 @@
         <v>478</v>
       </c>
       <c r="F201" t="s">
+        <v>477</v>
+      </c>
+      <c r="G201" t="s">
         <v>478</v>
-      </c>
-      <c r="G201" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -6704,10 +6704,10 @@
         <v>478</v>
       </c>
       <c r="F202" t="s">
+        <v>477</v>
+      </c>
+      <c r="G202" t="s">
         <v>478</v>
-      </c>
-      <c r="G202" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -6727,10 +6727,10 @@
         <v>478</v>
       </c>
       <c r="F203" t="s">
+        <v>477</v>
+      </c>
+      <c r="G203" t="s">
         <v>478</v>
-      </c>
-      <c r="G203" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -6750,10 +6750,10 @@
         <v>478</v>
       </c>
       <c r="F204" t="s">
+        <v>477</v>
+      </c>
+      <c r="G204" t="s">
         <v>478</v>
-      </c>
-      <c r="G204" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -6773,10 +6773,10 @@
         <v>478</v>
       </c>
       <c r="F205" t="s">
+        <v>477</v>
+      </c>
+      <c r="G205" t="s">
         <v>478</v>
-      </c>
-      <c r="G205" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -6796,10 +6796,10 @@
         <v>492</v>
       </c>
       <c r="F206" t="s">
+        <v>491</v>
+      </c>
+      <c r="G206" t="s">
         <v>492</v>
-      </c>
-      <c r="G206" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -6819,10 +6819,10 @@
         <v>492</v>
       </c>
       <c r="F207" t="s">
+        <v>491</v>
+      </c>
+      <c r="G207" t="s">
         <v>492</v>
-      </c>
-      <c r="G207" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -6842,10 +6842,10 @@
         <v>492</v>
       </c>
       <c r="F208" t="s">
+        <v>491</v>
+      </c>
+      <c r="G208" t="s">
         <v>492</v>
-      </c>
-      <c r="G208" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -6865,10 +6865,10 @@
         <v>492</v>
       </c>
       <c r="F209" t="s">
+        <v>491</v>
+      </c>
+      <c r="G209" t="s">
         <v>492</v>
-      </c>
-      <c r="G209" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -6888,10 +6888,10 @@
         <v>492</v>
       </c>
       <c r="F210" t="s">
+        <v>491</v>
+      </c>
+      <c r="G210" t="s">
         <v>492</v>
-      </c>
-      <c r="G210" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -6911,10 +6911,10 @@
         <v>492</v>
       </c>
       <c r="F211" t="s">
+        <v>491</v>
+      </c>
+      <c r="G211" t="s">
         <v>492</v>
-      </c>
-      <c r="G211" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -6934,10 +6934,10 @@
         <v>492</v>
       </c>
       <c r="F212" t="s">
+        <v>491</v>
+      </c>
+      <c r="G212" t="s">
         <v>492</v>
-      </c>
-      <c r="G212" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -6957,10 +6957,10 @@
         <v>492</v>
       </c>
       <c r="F213" t="s">
+        <v>491</v>
+      </c>
+      <c r="G213" t="s">
         <v>492</v>
-      </c>
-      <c r="G213" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -6980,10 +6980,10 @@
         <v>492</v>
       </c>
       <c r="F214" t="s">
+        <v>491</v>
+      </c>
+      <c r="G214" t="s">
         <v>492</v>
-      </c>
-      <c r="G214" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -7003,10 +7003,10 @@
         <v>492</v>
       </c>
       <c r="F215" t="s">
+        <v>491</v>
+      </c>
+      <c r="G215" t="s">
         <v>492</v>
-      </c>
-      <c r="G215" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -7026,10 +7026,10 @@
         <v>514</v>
       </c>
       <c r="F216" t="s">
+        <v>513</v>
+      </c>
+      <c r="G216" t="s">
         <v>514</v>
-      </c>
-      <c r="G216" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -7049,10 +7049,10 @@
         <v>518</v>
       </c>
       <c r="F217" t="s">
+        <v>517</v>
+      </c>
+      <c r="G217" t="s">
         <v>518</v>
-      </c>
-      <c r="G217" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -7072,10 +7072,10 @@
         <v>522</v>
       </c>
       <c r="F218" t="s">
+        <v>521</v>
+      </c>
+      <c r="G218" t="s">
         <v>522</v>
-      </c>
-      <c r="G218" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -7095,10 +7095,10 @@
         <v>522</v>
       </c>
       <c r="F219" t="s">
+        <v>521</v>
+      </c>
+      <c r="G219" t="s">
         <v>522</v>
-      </c>
-      <c r="G219" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -7118,10 +7118,10 @@
         <v>528</v>
       </c>
       <c r="F220" t="s">
+        <v>527</v>
+      </c>
+      <c r="G220" t="s">
         <v>528</v>
-      </c>
-      <c r="G220" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -7141,10 +7141,10 @@
         <v>528</v>
       </c>
       <c r="F221" t="s">
+        <v>527</v>
+      </c>
+      <c r="G221" t="s">
         <v>528</v>
-      </c>
-      <c r="G221" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -7164,10 +7164,10 @@
         <v>528</v>
       </c>
       <c r="F222" t="s">
+        <v>527</v>
+      </c>
+      <c r="G222" t="s">
         <v>528</v>
-      </c>
-      <c r="G222" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -7187,10 +7187,10 @@
         <v>528</v>
       </c>
       <c r="F223" t="s">
+        <v>527</v>
+      </c>
+      <c r="G223" t="s">
         <v>528</v>
-      </c>
-      <c r="G223" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -7210,10 +7210,10 @@
         <v>528</v>
       </c>
       <c r="F224" t="s">
+        <v>527</v>
+      </c>
+      <c r="G224" t="s">
         <v>528</v>
-      </c>
-      <c r="G224" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -7233,10 +7233,10 @@
         <v>528</v>
       </c>
       <c r="F225" t="s">
+        <v>527</v>
+      </c>
+      <c r="G225" t="s">
         <v>528</v>
-      </c>
-      <c r="G225" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -7256,10 +7256,10 @@
         <v>528</v>
       </c>
       <c r="F226" t="s">
+        <v>527</v>
+      </c>
+      <c r="G226" t="s">
         <v>528</v>
-      </c>
-      <c r="G226" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -7279,10 +7279,10 @@
         <v>544</v>
       </c>
       <c r="F227" t="s">
+        <v>543</v>
+      </c>
+      <c r="G227" t="s">
         <v>544</v>
-      </c>
-      <c r="G227" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -7302,10 +7302,10 @@
         <v>544</v>
       </c>
       <c r="F228" t="s">
+        <v>543</v>
+      </c>
+      <c r="G228" t="s">
         <v>544</v>
-      </c>
-      <c r="G228" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -7325,10 +7325,10 @@
         <v>544</v>
       </c>
       <c r="F229" t="s">
+        <v>543</v>
+      </c>
+      <c r="G229" t="s">
         <v>544</v>
-      </c>
-      <c r="G229" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -7348,10 +7348,10 @@
         <v>552</v>
       </c>
       <c r="F230" t="s">
+        <v>551</v>
+      </c>
+      <c r="G230" t="s">
         <v>552</v>
-      </c>
-      <c r="G230" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -7371,10 +7371,10 @@
         <v>556</v>
       </c>
       <c r="F231" t="s">
+        <v>555</v>
+      </c>
+      <c r="G231" t="s">
         <v>556</v>
-      </c>
-      <c r="G231" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -7394,10 +7394,10 @@
         <v>560</v>
       </c>
       <c r="F232" t="s">
+        <v>559</v>
+      </c>
+      <c r="G232" t="s">
         <v>560</v>
-      </c>
-      <c r="G232" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -7417,10 +7417,10 @@
         <v>564</v>
       </c>
       <c r="F233" t="s">
+        <v>563</v>
+      </c>
+      <c r="G233" t="s">
         <v>564</v>
-      </c>
-      <c r="G233" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -7440,10 +7440,10 @@
         <v>568</v>
       </c>
       <c r="F234" t="s">
+        <v>567</v>
+      </c>
+      <c r="G234" t="s">
         <v>568</v>
-      </c>
-      <c r="G234" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -7463,10 +7463,10 @@
         <v>568</v>
       </c>
       <c r="F235" t="s">
+        <v>567</v>
+      </c>
+      <c r="G235" t="s">
         <v>568</v>
-      </c>
-      <c r="G235" t="s">
-        <v>567</v>
       </c>
     </row>
   </sheetData>

--- a/api/1/xlsx/fr/SectorGroup.xlsx
+++ b/api/1/xlsx/fr/SectorGroup.xlsx
@@ -25,6 +25,9 @@
     <t>status</t>
   </si>
   <si>
+    <t>codeforiati:group-code</t>
+  </si>
+  <si>
     <t>codeforiati:category-name</t>
   </si>
   <si>
@@ -34,9 +37,6 @@
     <t>codeforiati:group-name</t>
   </si>
   <si>
-    <t>codeforiati:group-code</t>
-  </si>
-  <si>
     <t>11110</t>
   </si>
   <si>
@@ -46,6 +46,9 @@
     <t>active</t>
   </si>
   <si>
+    <t>110</t>
+  </si>
+  <si>
     <t>Education, Niveau non spécifié</t>
   </si>
   <si>
@@ -55,9 +58,6 @@
     <t>Education</t>
   </si>
   <si>
-    <t>110</t>
-  </si>
-  <si>
     <t>11120</t>
   </si>
   <si>
@@ -166,6 +166,9 @@
     <t>Politique de la santé et gestion administrative</t>
   </si>
   <si>
+    <t>120</t>
+  </si>
+  <si>
     <t>Santé, Général</t>
   </si>
   <si>
@@ -175,9 +178,6 @@
     <t>Santé</t>
   </si>
   <si>
-    <t>120</t>
-  </si>
-  <si>
     <t>12181</t>
   </si>
   <si>
@@ -304,12 +304,12 @@
     <t>Politique/programmes en matière de population et gestion administrative</t>
   </si>
   <si>
+    <t>130</t>
+  </si>
+  <si>
     <t>Politique en Matière de Population/Santé&amp;Fertilité</t>
   </si>
   <si>
-    <t>130</t>
-  </si>
-  <si>
     <t>13020</t>
   </si>
   <si>
@@ -340,12 +340,12 @@
     <t>Politique et gestion administrative du secteur de l'eau</t>
   </si>
   <si>
+    <t>140</t>
+  </si>
+  <si>
     <t>Distribution d'Eau et Assainissement</t>
   </si>
   <si>
-    <t>140</t>
-  </si>
-  <si>
     <t>14015</t>
   </si>
   <si>
@@ -412,6 +412,9 @@
     <t>Politiques publiques et gestion administrative</t>
   </si>
   <si>
+    <t>150</t>
+  </si>
+  <si>
     <t>Gouvernement &amp; Société Civile-général</t>
   </si>
   <si>
@@ -421,9 +424,6 @@
     <t>Gouvernement &amp; Société Civile</t>
   </si>
   <si>
-    <t>150</t>
-  </si>
-  <si>
     <t>15111</t>
   </si>
   <si>
@@ -562,12 +562,12 @@
     <t>Protection sociale</t>
   </si>
   <si>
+    <t>160</t>
+  </si>
+  <si>
     <t>Infrastructure et Services Sociaux Divers</t>
   </si>
   <si>
-    <t>160</t>
-  </si>
-  <si>
     <t>16020</t>
   </si>
   <si>
@@ -634,12 +634,12 @@
     <t>Politique des transports et gestion administrative</t>
   </si>
   <si>
+    <t>210</t>
+  </si>
+  <si>
     <t>Transports et Entreposage</t>
   </si>
   <si>
-    <t>210</t>
-  </si>
-  <si>
     <t>21020</t>
   </si>
   <si>
@@ -682,12 +682,12 @@
     <t>Politique des communications et gestion administrative</t>
   </si>
   <si>
+    <t>220</t>
+  </si>
+  <si>
     <t>Communications</t>
   </si>
   <si>
-    <t>220</t>
-  </si>
-  <si>
     <t>22020</t>
   </si>
   <si>
@@ -712,6 +712,9 @@
     <t>Politique énergétique et gestion administrative</t>
   </si>
   <si>
+    <t>230</t>
+  </si>
+  <si>
     <t>Politique de l'énergie</t>
   </si>
   <si>
@@ -721,9 +724,6 @@
     <t>Energie</t>
   </si>
   <si>
-    <t>230</t>
-  </si>
-  <si>
     <t>23181</t>
   </si>
   <si>
@@ -919,12 +919,12 @@
     <t>Politique des finances et gestion administrative</t>
   </si>
   <si>
+    <t>240</t>
+  </si>
+  <si>
     <t>Banques et Services Financiers</t>
   </si>
   <si>
-    <t>240</t>
-  </si>
-  <si>
     <t>24020</t>
   </si>
   <si>
@@ -961,12 +961,12 @@
     <t>Politique commerciale et administration</t>
   </si>
   <si>
+    <t>250</t>
+  </si>
+  <si>
     <t>Entreprises et Autres Services</t>
   </si>
   <si>
-    <t>250</t>
-  </si>
-  <si>
     <t>25020</t>
   </si>
   <si>
@@ -991,6 +991,9 @@
     <t>Politique agricole et gestion administrative</t>
   </si>
   <si>
+    <t>310</t>
+  </si>
+  <si>
     <t>Agriculture</t>
   </si>
   <si>
@@ -1000,9 +1003,6 @@
     <t>Agriculture, Sylviculture, Pêche</t>
   </si>
   <si>
-    <t>310</t>
-  </si>
-  <si>
     <t>31120</t>
   </si>
   <si>
@@ -1189,6 +1189,9 @@
     <t>Politique de l'industrie et gestion administrative</t>
   </si>
   <si>
+    <t>320</t>
+  </si>
+  <si>
     <t>Industries Manufacturières</t>
   </si>
   <si>
@@ -1198,9 +1201,6 @@
     <t>Industries Manufacturières, Extractives, Construct</t>
   </si>
   <si>
-    <t>320</t>
-  </si>
-  <si>
     <t>32120</t>
   </si>
   <si>
@@ -1393,12 +1393,12 @@
     <t>Politique commerciale et gestion administrative</t>
   </si>
   <si>
+    <t>331</t>
+  </si>
+  <si>
     <t>Politique Commerciale et Réglementations</t>
   </si>
   <si>
-    <t>331</t>
-  </si>
-  <si>
     <t>33120</t>
   </si>
   <si>
@@ -1435,24 +1435,24 @@
     <t>Politique du tourisme et gestion administrative</t>
   </si>
   <si>
+    <t>332</t>
+  </si>
+  <si>
     <t>Tourisme</t>
   </si>
   <si>
-    <t>332</t>
-  </si>
-  <si>
     <t>41010</t>
   </si>
   <si>
     <t>Politique de l'environnement et gestion administrative</t>
   </si>
   <si>
+    <t>410</t>
+  </si>
+  <si>
     <t>Protection de l'Environnement Général</t>
   </si>
   <si>
-    <t>410</t>
-  </si>
-  <si>
     <t>41020</t>
   </si>
   <si>
@@ -1489,12 +1489,12 @@
     <t>Aide plurisectorielle</t>
   </si>
   <si>
+    <t>430</t>
+  </si>
+  <si>
     <t>Autres Multisecteurs</t>
   </si>
   <si>
-    <t>430</t>
-  </si>
-  <si>
     <t>43030</t>
   </si>
   <si>
@@ -1555,36 +1555,36 @@
     <t>Aide relative au soutien budgétaire général</t>
   </si>
   <si>
+    <t>510</t>
+  </si>
+  <si>
     <t>Soutien Budgétaire</t>
   </si>
   <si>
-    <t>510</t>
-  </si>
-  <si>
     <t>52010</t>
   </si>
   <si>
     <t>Assistance alimentaire</t>
   </si>
   <si>
+    <t>520</t>
+  </si>
+  <si>
     <t>Aide Alimentaire Dévelopmentale</t>
   </si>
   <si>
-    <t>520</t>
-  </si>
-  <si>
     <t>53030</t>
   </si>
   <si>
     <t>Subventions à l'importation (biens d'équipement)</t>
   </si>
   <si>
+    <t>530</t>
+  </si>
+  <si>
     <t>Aide sous forme de Produits, Autre</t>
   </si>
   <si>
-    <t>530</t>
-  </si>
-  <si>
     <t>53040</t>
   </si>
   <si>
@@ -1597,12 +1597,12 @@
     <t>Actions se rapportant à la dette</t>
   </si>
   <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>Actions se Rapportant a la Dette</t>
   </si>
   <si>
-    <t>600</t>
-  </si>
-  <si>
     <t>60020</t>
   </si>
   <si>
@@ -1645,12 +1645,12 @@
     <t>Assistance matérielle et services d'urgence</t>
   </si>
   <si>
+    <t>720</t>
+  </si>
+  <si>
     <t>Intervention d'Urgence</t>
   </si>
   <si>
-    <t>720</t>
-  </si>
-  <si>
     <t>72040</t>
   </si>
   <si>
@@ -1669,58 +1669,58 @@
     <t>Reconstruction et réhabilitation immédiate post-urgence</t>
   </si>
   <si>
+    <t>730</t>
+  </si>
+  <si>
     <t>Reconstruction &amp; Réhabilitation</t>
   </si>
   <si>
-    <t>730</t>
-  </si>
-  <si>
     <t>74020</t>
   </si>
   <si>
     <t>Préparation aux interventions multi-risques</t>
   </si>
   <si>
+    <t>740</t>
+  </si>
+  <si>
     <t>Prévention catastrophes/Préparation à leur survenue</t>
   </si>
   <si>
-    <t>740</t>
-  </si>
-  <si>
     <t>91010</t>
   </si>
   <si>
     <t>Frais administratifs (non alloués par secteur)</t>
   </si>
   <si>
+    <t>910</t>
+  </si>
+  <si>
     <t>Frais Administratifs des Donneurs</t>
   </si>
   <si>
-    <t>910</t>
-  </si>
-  <si>
     <t>93010</t>
   </si>
   <si>
     <t>Refugiés/demandeurs d'asile dans les pays donneurs (non alloués)</t>
   </si>
   <si>
+    <t>930</t>
+  </si>
+  <si>
     <t>Refugiés dans les Pays Donneurs</t>
   </si>
   <si>
-    <t>930</t>
-  </si>
-  <si>
     <t>99810</t>
   </si>
   <si>
     <t>Secteur non spécifié</t>
   </si>
   <si>
+    <t>998</t>
+  </si>
+  <si>
     <t>Non Affecté / Non Specifié</t>
-  </si>
-  <si>
-    <t>998</t>
   </si>
   <si>
     <t>99820</t>
@@ -2190,13 +2190,13 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
@@ -2213,13 +2213,13 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
@@ -2236,13 +2236,13 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
         <v>22</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>23</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
@@ -2259,13 +2259,13 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
         <v>22</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>23</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
@@ -2282,13 +2282,13 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>23</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
@@ -2305,13 +2305,13 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
         <v>22</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>23</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
@@ -2328,13 +2328,13 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
         <v>22</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
@@ -2351,13 +2351,13 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
         <v>38</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>39</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
@@ -2374,13 +2374,13 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
         <v>38</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>39</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
@@ -2397,13 +2397,13 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
         <v>44</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>45</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
@@ -2420,13 +2420,13 @@
         <v>9</v>
       </c>
       <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
         <v>44</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>45</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
@@ -2535,13 +2535,13 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
         <v>62</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>63</v>
-      </c>
-      <c r="F21" t="s">
-        <v>52</v>
       </c>
       <c r="G21" t="s">
         <v>53</v>
@@ -2558,13 +2558,13 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
         <v>62</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>63</v>
-      </c>
-      <c r="F22" t="s">
-        <v>52</v>
       </c>
       <c r="G22" t="s">
         <v>53</v>
@@ -2581,13 +2581,13 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
         <v>62</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>63</v>
-      </c>
-      <c r="F23" t="s">
-        <v>52</v>
       </c>
       <c r="G23" t="s">
         <v>53</v>
@@ -2604,13 +2604,13 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
         <v>62</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>63</v>
-      </c>
-      <c r="F24" t="s">
-        <v>52</v>
       </c>
       <c r="G24" t="s">
         <v>53</v>
@@ -2627,13 +2627,13 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" t="s">
         <v>62</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>63</v>
-      </c>
-      <c r="F25" t="s">
-        <v>52</v>
       </c>
       <c r="G25" t="s">
         <v>53</v>
@@ -2650,13 +2650,13 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" t="s">
         <v>62</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>63</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="s">
         <v>53</v>
@@ -2673,13 +2673,13 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" t="s">
         <v>62</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>63</v>
-      </c>
-      <c r="F27" t="s">
-        <v>52</v>
       </c>
       <c r="G27" t="s">
         <v>53</v>
@@ -2696,13 +2696,13 @@
         <v>9</v>
       </c>
       <c r="D28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" t="s">
         <v>62</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>63</v>
-      </c>
-      <c r="F28" t="s">
-        <v>52</v>
       </c>
       <c r="G28" t="s">
         <v>53</v>
@@ -2719,13 +2719,13 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" t="s">
         <v>62</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>63</v>
-      </c>
-      <c r="F29" t="s">
-        <v>52</v>
       </c>
       <c r="G29" t="s">
         <v>53</v>
@@ -2742,13 +2742,13 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" t="s">
         <v>82</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>83</v>
-      </c>
-      <c r="F30" t="s">
-        <v>52</v>
       </c>
       <c r="G30" t="s">
         <v>53</v>
@@ -2765,13 +2765,13 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" t="s">
         <v>82</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>83</v>
-      </c>
-      <c r="F31" t="s">
-        <v>52</v>
       </c>
       <c r="G31" t="s">
         <v>53</v>
@@ -2788,13 +2788,13 @@
         <v>9</v>
       </c>
       <c r="D32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" t="s">
         <v>82</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>83</v>
-      </c>
-      <c r="F32" t="s">
-        <v>52</v>
       </c>
       <c r="G32" t="s">
         <v>53</v>
@@ -2811,13 +2811,13 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" t="s">
         <v>82</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>83</v>
-      </c>
-      <c r="F33" t="s">
-        <v>52</v>
       </c>
       <c r="G33" t="s">
         <v>53</v>
@@ -2834,13 +2834,13 @@
         <v>9</v>
       </c>
       <c r="D34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" t="s">
         <v>82</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>83</v>
-      </c>
-      <c r="F34" t="s">
-        <v>52</v>
       </c>
       <c r="G34" t="s">
         <v>53</v>
@@ -2857,13 +2857,13 @@
         <v>9</v>
       </c>
       <c r="D35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" t="s">
         <v>82</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>83</v>
-      </c>
-      <c r="F35" t="s">
-        <v>52</v>
       </c>
       <c r="G35" t="s">
         <v>53</v>
@@ -3616,13 +3616,13 @@
         <v>9</v>
       </c>
       <c r="D68" t="s">
+        <v>132</v>
+      </c>
+      <c r="E68" t="s">
         <v>168</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>169</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="s">
         <v>135</v>
@@ -3639,13 +3639,13 @@
         <v>9</v>
       </c>
       <c r="D69" t="s">
+        <v>132</v>
+      </c>
+      <c r="E69" t="s">
         <v>168</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>169</v>
-      </c>
-      <c r="F69" t="s">
-        <v>134</v>
       </c>
       <c r="G69" t="s">
         <v>135</v>
@@ -3662,13 +3662,13 @@
         <v>9</v>
       </c>
       <c r="D70" t="s">
+        <v>132</v>
+      </c>
+      <c r="E70" t="s">
         <v>168</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>169</v>
-      </c>
-      <c r="F70" t="s">
-        <v>134</v>
       </c>
       <c r="G70" t="s">
         <v>135</v>
@@ -3685,13 +3685,13 @@
         <v>9</v>
       </c>
       <c r="D71" t="s">
+        <v>132</v>
+      </c>
+      <c r="E71" t="s">
         <v>168</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>169</v>
-      </c>
-      <c r="F71" t="s">
-        <v>134</v>
       </c>
       <c r="G71" t="s">
         <v>135</v>
@@ -3708,13 +3708,13 @@
         <v>9</v>
       </c>
       <c r="D72" t="s">
+        <v>132</v>
+      </c>
+      <c r="E72" t="s">
         <v>168</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>169</v>
-      </c>
-      <c r="F72" t="s">
-        <v>134</v>
       </c>
       <c r="G72" t="s">
         <v>135</v>
@@ -3731,13 +3731,13 @@
         <v>9</v>
       </c>
       <c r="D73" t="s">
+        <v>132</v>
+      </c>
+      <c r="E73" t="s">
         <v>168</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>169</v>
-      </c>
-      <c r="F73" t="s">
-        <v>134</v>
       </c>
       <c r="G73" t="s">
         <v>135</v>
@@ -4352,13 +4352,13 @@
         <v>9</v>
       </c>
       <c r="D100" t="s">
+        <v>232</v>
+      </c>
+      <c r="E100" t="s">
         <v>244</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
         <v>245</v>
-      </c>
-      <c r="F100" t="s">
-        <v>234</v>
       </c>
       <c r="G100" t="s">
         <v>235</v>
@@ -4375,13 +4375,13 @@
         <v>9</v>
       </c>
       <c r="D101" t="s">
+        <v>232</v>
+      </c>
+      <c r="E101" t="s">
         <v>244</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
         <v>245</v>
-      </c>
-      <c r="F101" t="s">
-        <v>234</v>
       </c>
       <c r="G101" t="s">
         <v>235</v>
@@ -4398,13 +4398,13 @@
         <v>9</v>
       </c>
       <c r="D102" t="s">
+        <v>232</v>
+      </c>
+      <c r="E102" t="s">
         <v>244</v>
       </c>
-      <c r="E102" t="s">
+      <c r="F102" t="s">
         <v>245</v>
-      </c>
-      <c r="F102" t="s">
-        <v>234</v>
       </c>
       <c r="G102" t="s">
         <v>235</v>
@@ -4421,13 +4421,13 @@
         <v>9</v>
       </c>
       <c r="D103" t="s">
+        <v>232</v>
+      </c>
+      <c r="E103" t="s">
         <v>244</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103" t="s">
         <v>245</v>
-      </c>
-      <c r="F103" t="s">
-        <v>234</v>
       </c>
       <c r="G103" t="s">
         <v>235</v>
@@ -4444,13 +4444,13 @@
         <v>9</v>
       </c>
       <c r="D104" t="s">
+        <v>232</v>
+      </c>
+      <c r="E104" t="s">
         <v>244</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
         <v>245</v>
-      </c>
-      <c r="F104" t="s">
-        <v>234</v>
       </c>
       <c r="G104" t="s">
         <v>235</v>
@@ -4467,13 +4467,13 @@
         <v>9</v>
       </c>
       <c r="D105" t="s">
+        <v>232</v>
+      </c>
+      <c r="E105" t="s">
         <v>244</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
         <v>245</v>
-      </c>
-      <c r="F105" t="s">
-        <v>234</v>
       </c>
       <c r="G105" t="s">
         <v>235</v>
@@ -4490,13 +4490,13 @@
         <v>9</v>
       </c>
       <c r="D106" t="s">
+        <v>232</v>
+      </c>
+      <c r="E106" t="s">
         <v>244</v>
       </c>
-      <c r="E106" t="s">
+      <c r="F106" t="s">
         <v>245</v>
-      </c>
-      <c r="F106" t="s">
-        <v>234</v>
       </c>
       <c r="G106" t="s">
         <v>235</v>
@@ -4513,13 +4513,13 @@
         <v>9</v>
       </c>
       <c r="D107" t="s">
+        <v>232</v>
+      </c>
+      <c r="E107" t="s">
         <v>244</v>
       </c>
-      <c r="E107" t="s">
+      <c r="F107" t="s">
         <v>245</v>
-      </c>
-      <c r="F107" t="s">
-        <v>234</v>
       </c>
       <c r="G107" t="s">
         <v>235</v>
@@ -4536,13 +4536,13 @@
         <v>9</v>
       </c>
       <c r="D108" t="s">
+        <v>232</v>
+      </c>
+      <c r="E108" t="s">
         <v>244</v>
       </c>
-      <c r="E108" t="s">
+      <c r="F108" t="s">
         <v>245</v>
-      </c>
-      <c r="F108" t="s">
-        <v>234</v>
       </c>
       <c r="G108" t="s">
         <v>235</v>
@@ -4559,13 +4559,13 @@
         <v>9</v>
       </c>
       <c r="D109" t="s">
+        <v>232</v>
+      </c>
+      <c r="E109" t="s">
         <v>264</v>
       </c>
-      <c r="E109" t="s">
+      <c r="F109" t="s">
         <v>265</v>
-      </c>
-      <c r="F109" t="s">
-        <v>234</v>
       </c>
       <c r="G109" t="s">
         <v>235</v>
@@ -4582,13 +4582,13 @@
         <v>9</v>
       </c>
       <c r="D110" t="s">
+        <v>232</v>
+      </c>
+      <c r="E110" t="s">
         <v>264</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" t="s">
         <v>265</v>
-      </c>
-      <c r="F110" t="s">
-        <v>234</v>
       </c>
       <c r="G110" t="s">
         <v>235</v>
@@ -4605,13 +4605,13 @@
         <v>9</v>
       </c>
       <c r="D111" t="s">
+        <v>232</v>
+      </c>
+      <c r="E111" t="s">
         <v>264</v>
       </c>
-      <c r="E111" t="s">
+      <c r="F111" t="s">
         <v>265</v>
-      </c>
-      <c r="F111" t="s">
-        <v>234</v>
       </c>
       <c r="G111" t="s">
         <v>235</v>
@@ -4628,13 +4628,13 @@
         <v>9</v>
       </c>
       <c r="D112" t="s">
+        <v>232</v>
+      </c>
+      <c r="E112" t="s">
         <v>264</v>
       </c>
-      <c r="E112" t="s">
+      <c r="F112" t="s">
         <v>265</v>
-      </c>
-      <c r="F112" t="s">
-        <v>234</v>
       </c>
       <c r="G112" t="s">
         <v>235</v>
@@ -4651,13 +4651,13 @@
         <v>9</v>
       </c>
       <c r="D113" t="s">
+        <v>232</v>
+      </c>
+      <c r="E113" t="s">
         <v>264</v>
       </c>
-      <c r="E113" t="s">
+      <c r="F113" t="s">
         <v>265</v>
-      </c>
-      <c r="F113" t="s">
-        <v>234</v>
       </c>
       <c r="G113" t="s">
         <v>235</v>
@@ -4674,13 +4674,13 @@
         <v>9</v>
       </c>
       <c r="D114" t="s">
+        <v>232</v>
+      </c>
+      <c r="E114" t="s">
         <v>264</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
         <v>265</v>
-      </c>
-      <c r="F114" t="s">
-        <v>234</v>
       </c>
       <c r="G114" t="s">
         <v>235</v>
@@ -4697,13 +4697,13 @@
         <v>9</v>
       </c>
       <c r="D115" t="s">
+        <v>232</v>
+      </c>
+      <c r="E115" t="s">
         <v>277</v>
       </c>
-      <c r="E115" t="s">
+      <c r="F115" t="s">
         <v>278</v>
-      </c>
-      <c r="F115" t="s">
-        <v>234</v>
       </c>
       <c r="G115" t="s">
         <v>235</v>
@@ -4720,13 +4720,13 @@
         <v>9</v>
       </c>
       <c r="D116" t="s">
+        <v>232</v>
+      </c>
+      <c r="E116" t="s">
         <v>281</v>
       </c>
-      <c r="E116" t="s">
+      <c r="F116" t="s">
         <v>282</v>
-      </c>
-      <c r="F116" t="s">
-        <v>234</v>
       </c>
       <c r="G116" t="s">
         <v>235</v>
@@ -4743,13 +4743,13 @@
         <v>9</v>
       </c>
       <c r="D117" t="s">
+        <v>232</v>
+      </c>
+      <c r="E117" t="s">
         <v>285</v>
       </c>
-      <c r="E117" t="s">
+      <c r="F117" t="s">
         <v>286</v>
-      </c>
-      <c r="F117" t="s">
-        <v>234</v>
       </c>
       <c r="G117" t="s">
         <v>235</v>
@@ -4766,13 +4766,13 @@
         <v>9</v>
       </c>
       <c r="D118" t="s">
+        <v>232</v>
+      </c>
+      <c r="E118" t="s">
         <v>285</v>
       </c>
-      <c r="E118" t="s">
+      <c r="F118" t="s">
         <v>286</v>
-      </c>
-      <c r="F118" t="s">
-        <v>234</v>
       </c>
       <c r="G118" t="s">
         <v>235</v>
@@ -4789,13 +4789,13 @@
         <v>9</v>
       </c>
       <c r="D119" t="s">
+        <v>232</v>
+      </c>
+      <c r="E119" t="s">
         <v>285</v>
       </c>
-      <c r="E119" t="s">
+      <c r="F119" t="s">
         <v>286</v>
-      </c>
-      <c r="F119" t="s">
-        <v>234</v>
       </c>
       <c r="G119" t="s">
         <v>235</v>
@@ -4812,13 +4812,13 @@
         <v>9</v>
       </c>
       <c r="D120" t="s">
+        <v>232</v>
+      </c>
+      <c r="E120" t="s">
         <v>285</v>
       </c>
-      <c r="E120" t="s">
+      <c r="F120" t="s">
         <v>286</v>
-      </c>
-      <c r="F120" t="s">
-        <v>234</v>
       </c>
       <c r="G120" t="s">
         <v>235</v>
@@ -4835,13 +4835,13 @@
         <v>9</v>
       </c>
       <c r="D121" t="s">
+        <v>232</v>
+      </c>
+      <c r="E121" t="s">
         <v>285</v>
       </c>
-      <c r="E121" t="s">
+      <c r="F121" t="s">
         <v>286</v>
-      </c>
-      <c r="F121" t="s">
-        <v>234</v>
       </c>
       <c r="G121" t="s">
         <v>235</v>
@@ -4858,13 +4858,13 @@
         <v>9</v>
       </c>
       <c r="D122" t="s">
+        <v>232</v>
+      </c>
+      <c r="E122" t="s">
         <v>285</v>
       </c>
-      <c r="E122" t="s">
+      <c r="F122" t="s">
         <v>286</v>
-      </c>
-      <c r="F122" t="s">
-        <v>234</v>
       </c>
       <c r="G122" t="s">
         <v>235</v>
@@ -4881,13 +4881,13 @@
         <v>9</v>
       </c>
       <c r="D123" t="s">
+        <v>232</v>
+      </c>
+      <c r="E123" t="s">
         <v>285</v>
       </c>
-      <c r="E123" t="s">
+      <c r="F123" t="s">
         <v>286</v>
-      </c>
-      <c r="F123" t="s">
-        <v>234</v>
       </c>
       <c r="G123" t="s">
         <v>235</v>
@@ -5548,13 +5548,13 @@
         <v>9</v>
       </c>
       <c r="D152" t="s">
+        <v>325</v>
+      </c>
+      <c r="E152" t="s">
         <v>365</v>
       </c>
-      <c r="E152" t="s">
+      <c r="F152" t="s">
         <v>366</v>
-      </c>
-      <c r="F152" t="s">
-        <v>327</v>
       </c>
       <c r="G152" t="s">
         <v>328</v>
@@ -5571,13 +5571,13 @@
         <v>9</v>
       </c>
       <c r="D153" t="s">
+        <v>325</v>
+      </c>
+      <c r="E153" t="s">
         <v>365</v>
       </c>
-      <c r="E153" t="s">
+      <c r="F153" t="s">
         <v>366</v>
-      </c>
-      <c r="F153" t="s">
-        <v>327</v>
       </c>
       <c r="G153" t="s">
         <v>328</v>
@@ -5594,13 +5594,13 @@
         <v>9</v>
       </c>
       <c r="D154" t="s">
+        <v>325</v>
+      </c>
+      <c r="E154" t="s">
         <v>365</v>
       </c>
-      <c r="E154" t="s">
+      <c r="F154" t="s">
         <v>366</v>
-      </c>
-      <c r="F154" t="s">
-        <v>327</v>
       </c>
       <c r="G154" t="s">
         <v>328</v>
@@ -5617,13 +5617,13 @@
         <v>9</v>
       </c>
       <c r="D155" t="s">
+        <v>325</v>
+      </c>
+      <c r="E155" t="s">
         <v>365</v>
       </c>
-      <c r="E155" t="s">
+      <c r="F155" t="s">
         <v>366</v>
-      </c>
-      <c r="F155" t="s">
-        <v>327</v>
       </c>
       <c r="G155" t="s">
         <v>328</v>
@@ -5640,13 +5640,13 @@
         <v>9</v>
       </c>
       <c r="D156" t="s">
+        <v>325</v>
+      </c>
+      <c r="E156" t="s">
         <v>365</v>
       </c>
-      <c r="E156" t="s">
+      <c r="F156" t="s">
         <v>366</v>
-      </c>
-      <c r="F156" t="s">
-        <v>327</v>
       </c>
       <c r="G156" t="s">
         <v>328</v>
@@ -5663,13 +5663,13 @@
         <v>9</v>
       </c>
       <c r="D157" t="s">
+        <v>325</v>
+      </c>
+      <c r="E157" t="s">
         <v>365</v>
       </c>
-      <c r="E157" t="s">
+      <c r="F157" t="s">
         <v>366</v>
-      </c>
-      <c r="F157" t="s">
-        <v>327</v>
       </c>
       <c r="G157" t="s">
         <v>328</v>
@@ -5686,13 +5686,13 @@
         <v>9</v>
       </c>
       <c r="D158" t="s">
+        <v>325</v>
+      </c>
+      <c r="E158" t="s">
         <v>379</v>
       </c>
-      <c r="E158" t="s">
+      <c r="F158" t="s">
         <v>380</v>
-      </c>
-      <c r="F158" t="s">
-        <v>327</v>
       </c>
       <c r="G158" t="s">
         <v>328</v>
@@ -5709,13 +5709,13 @@
         <v>9</v>
       </c>
       <c r="D159" t="s">
+        <v>325</v>
+      </c>
+      <c r="E159" t="s">
         <v>379</v>
       </c>
-      <c r="E159" t="s">
+      <c r="F159" t="s">
         <v>380</v>
-      </c>
-      <c r="F159" t="s">
-        <v>327</v>
       </c>
       <c r="G159" t="s">
         <v>328</v>
@@ -5732,13 +5732,13 @@
         <v>9</v>
       </c>
       <c r="D160" t="s">
+        <v>325</v>
+      </c>
+      <c r="E160" t="s">
         <v>379</v>
       </c>
-      <c r="E160" t="s">
+      <c r="F160" t="s">
         <v>380</v>
-      </c>
-      <c r="F160" t="s">
-        <v>327</v>
       </c>
       <c r="G160" t="s">
         <v>328</v>
@@ -5755,13 +5755,13 @@
         <v>9</v>
       </c>
       <c r="D161" t="s">
+        <v>325</v>
+      </c>
+      <c r="E161" t="s">
         <v>379</v>
       </c>
-      <c r="E161" t="s">
+      <c r="F161" t="s">
         <v>380</v>
-      </c>
-      <c r="F161" t="s">
-        <v>327</v>
       </c>
       <c r="G161" t="s">
         <v>328</v>
@@ -5778,13 +5778,13 @@
         <v>9</v>
       </c>
       <c r="D162" t="s">
+        <v>325</v>
+      </c>
+      <c r="E162" t="s">
         <v>379</v>
       </c>
-      <c r="E162" t="s">
+      <c r="F162" t="s">
         <v>380</v>
-      </c>
-      <c r="F162" t="s">
-        <v>327</v>
       </c>
       <c r="G162" t="s">
         <v>328</v>
@@ -6238,13 +6238,13 @@
         <v>9</v>
       </c>
       <c r="D182" t="s">
+        <v>391</v>
+      </c>
+      <c r="E182" t="s">
         <v>433</v>
       </c>
-      <c r="E182" t="s">
+      <c r="F182" t="s">
         <v>434</v>
-      </c>
-      <c r="F182" t="s">
-        <v>393</v>
       </c>
       <c r="G182" t="s">
         <v>394</v>
@@ -6261,13 +6261,13 @@
         <v>9</v>
       </c>
       <c r="D183" t="s">
+        <v>391</v>
+      </c>
+      <c r="E183" t="s">
         <v>433</v>
       </c>
-      <c r="E183" t="s">
+      <c r="F183" t="s">
         <v>434</v>
-      </c>
-      <c r="F183" t="s">
-        <v>393</v>
       </c>
       <c r="G183" t="s">
         <v>394</v>
@@ -6284,13 +6284,13 @@
         <v>9</v>
       </c>
       <c r="D184" t="s">
+        <v>391</v>
+      </c>
+      <c r="E184" t="s">
         <v>433</v>
       </c>
-      <c r="E184" t="s">
+      <c r="F184" t="s">
         <v>434</v>
-      </c>
-      <c r="F184" t="s">
-        <v>393</v>
       </c>
       <c r="G184" t="s">
         <v>394</v>
@@ -6307,13 +6307,13 @@
         <v>9</v>
       </c>
       <c r="D185" t="s">
+        <v>391</v>
+      </c>
+      <c r="E185" t="s">
         <v>433</v>
       </c>
-      <c r="E185" t="s">
+      <c r="F185" t="s">
         <v>434</v>
-      </c>
-      <c r="F185" t="s">
-        <v>393</v>
       </c>
       <c r="G185" t="s">
         <v>394</v>
@@ -6330,13 +6330,13 @@
         <v>9</v>
       </c>
       <c r="D186" t="s">
+        <v>391</v>
+      </c>
+      <c r="E186" t="s">
         <v>433</v>
       </c>
-      <c r="E186" t="s">
+      <c r="F186" t="s">
         <v>434</v>
-      </c>
-      <c r="F186" t="s">
-        <v>393</v>
       </c>
       <c r="G186" t="s">
         <v>394</v>
@@ -6353,13 +6353,13 @@
         <v>9</v>
       </c>
       <c r="D187" t="s">
+        <v>391</v>
+      </c>
+      <c r="E187" t="s">
         <v>433</v>
       </c>
-      <c r="E187" t="s">
+      <c r="F187" t="s">
         <v>434</v>
-      </c>
-      <c r="F187" t="s">
-        <v>393</v>
       </c>
       <c r="G187" t="s">
         <v>394</v>
@@ -6376,13 +6376,13 @@
         <v>9</v>
       </c>
       <c r="D188" t="s">
+        <v>391</v>
+      </c>
+      <c r="E188" t="s">
         <v>433</v>
       </c>
-      <c r="E188" t="s">
+      <c r="F188" t="s">
         <v>434</v>
-      </c>
-      <c r="F188" t="s">
-        <v>393</v>
       </c>
       <c r="G188" t="s">
         <v>394</v>
@@ -6399,13 +6399,13 @@
         <v>9</v>
       </c>
       <c r="D189" t="s">
+        <v>391</v>
+      </c>
+      <c r="E189" t="s">
         <v>433</v>
       </c>
-      <c r="E189" t="s">
+      <c r="F189" t="s">
         <v>434</v>
-      </c>
-      <c r="F189" t="s">
-        <v>393</v>
       </c>
       <c r="G189" t="s">
         <v>394</v>
@@ -6422,13 +6422,13 @@
         <v>9</v>
       </c>
       <c r="D190" t="s">
+        <v>391</v>
+      </c>
+      <c r="E190" t="s">
         <v>433</v>
       </c>
-      <c r="E190" t="s">
+      <c r="F190" t="s">
         <v>434</v>
-      </c>
-      <c r="F190" t="s">
-        <v>393</v>
       </c>
       <c r="G190" t="s">
         <v>394</v>
@@ -6445,13 +6445,13 @@
         <v>9</v>
       </c>
       <c r="D191" t="s">
+        <v>391</v>
+      </c>
+      <c r="E191" t="s">
         <v>433</v>
       </c>
-      <c r="E191" t="s">
+      <c r="F191" t="s">
         <v>434</v>
-      </c>
-      <c r="F191" t="s">
-        <v>393</v>
       </c>
       <c r="G191" t="s">
         <v>394</v>
@@ -6468,13 +6468,13 @@
         <v>9</v>
       </c>
       <c r="D192" t="s">
+        <v>391</v>
+      </c>
+      <c r="E192" t="s">
         <v>455</v>
       </c>
-      <c r="E192" t="s">
+      <c r="F192" t="s">
         <v>456</v>
-      </c>
-      <c r="F192" t="s">
-        <v>393</v>
       </c>
       <c r="G192" t="s">
         <v>394</v>

--- a/api/1/xlsx/fr/SectorGroup.xlsx
+++ b/api/1/xlsx/fr/SectorGroup.xlsx
@@ -25,18 +25,18 @@
     <t>status</t>
   </si>
   <si>
+    <t>codeforiati:category-name</t>
+  </si>
+  <si>
+    <t>codeforiati:group-name</t>
+  </si>
+  <si>
+    <t>codeforiati:category-code</t>
+  </si>
+  <si>
     <t>codeforiati:group-code</t>
   </si>
   <si>
-    <t>codeforiati:category-name</t>
-  </si>
-  <si>
-    <t>codeforiati:category-code</t>
-  </si>
-  <si>
-    <t>codeforiati:group-name</t>
-  </si>
-  <si>
     <t>11110</t>
   </si>
   <si>
@@ -46,18 +46,18 @@
     <t>active</t>
   </si>
   <si>
+    <t>Education, Niveau non spécifié</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
     <t>110</t>
   </si>
   <si>
-    <t>Education, Niveau non spécifié</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
     <t>11120</t>
   </si>
   <si>
@@ -166,18 +166,18 @@
     <t>Politique de la santé et gestion administrative</t>
   </si>
   <si>
+    <t>Santé, Général</t>
+  </si>
+  <si>
+    <t>Santé</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
     <t>120</t>
   </si>
   <si>
-    <t>Santé, Général</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>Santé</t>
-  </si>
-  <si>
     <t>12181</t>
   </si>
   <si>
@@ -304,12 +304,12 @@
     <t>Politique/programmes en matière de population et gestion administrative</t>
   </si>
   <si>
+    <t>Politique en Matière de Population/Santé&amp;Fertilité</t>
+  </si>
+  <si>
     <t>130</t>
   </si>
   <si>
-    <t>Politique en Matière de Population/Santé&amp;Fertilité</t>
-  </si>
-  <si>
     <t>13020</t>
   </si>
   <si>
@@ -340,12 +340,12 @@
     <t>Politique et gestion administrative du secteur de l'eau</t>
   </si>
   <si>
+    <t>Distribution d'Eau et Assainissement</t>
+  </si>
+  <si>
     <t>140</t>
   </si>
   <si>
-    <t>Distribution d'Eau et Assainissement</t>
-  </si>
-  <si>
     <t>14015</t>
   </si>
   <si>
@@ -412,18 +412,18 @@
     <t>Politiques publiques et gestion administrative</t>
   </si>
   <si>
+    <t>Gouvernement &amp; Société Civile-général</t>
+  </si>
+  <si>
+    <t>Gouvernement &amp; Société Civile</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
     <t>150</t>
   </si>
   <si>
-    <t>Gouvernement &amp; Société Civile-général</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>Gouvernement &amp; Société Civile</t>
-  </si>
-  <si>
     <t>15111</t>
   </si>
   <si>
@@ -562,12 +562,12 @@
     <t>Protection sociale</t>
   </si>
   <si>
+    <t>Infrastructure et Services Sociaux Divers</t>
+  </si>
+  <si>
     <t>160</t>
   </si>
   <si>
-    <t>Infrastructure et Services Sociaux Divers</t>
-  </si>
-  <si>
     <t>16020</t>
   </si>
   <si>
@@ -634,12 +634,12 @@
     <t>Politique des transports et gestion administrative</t>
   </si>
   <si>
+    <t>Transports et Entreposage</t>
+  </si>
+  <si>
     <t>210</t>
   </si>
   <si>
-    <t>Transports et Entreposage</t>
-  </si>
-  <si>
     <t>21020</t>
   </si>
   <si>
@@ -682,12 +682,12 @@
     <t>Politique des communications et gestion administrative</t>
   </si>
   <si>
+    <t>Communications</t>
+  </si>
+  <si>
     <t>220</t>
   </si>
   <si>
-    <t>Communications</t>
-  </si>
-  <si>
     <t>22020</t>
   </si>
   <si>
@@ -712,18 +712,18 @@
     <t>Politique énergétique et gestion administrative</t>
   </si>
   <si>
+    <t>Politique de l'énergie</t>
+  </si>
+  <si>
+    <t>Energie</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
     <t>230</t>
   </si>
   <si>
-    <t>Politique de l'énergie</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>Energie</t>
-  </si>
-  <si>
     <t>23181</t>
   </si>
   <si>
@@ -919,12 +919,12 @@
     <t>Politique des finances et gestion administrative</t>
   </si>
   <si>
+    <t>Banques et Services Financiers</t>
+  </si>
+  <si>
     <t>240</t>
   </si>
   <si>
-    <t>Banques et Services Financiers</t>
-  </si>
-  <si>
     <t>24020</t>
   </si>
   <si>
@@ -961,12 +961,12 @@
     <t>Politique commerciale et administration</t>
   </si>
   <si>
+    <t>Entreprises et Autres Services</t>
+  </si>
+  <si>
     <t>250</t>
   </si>
   <si>
-    <t>Entreprises et Autres Services</t>
-  </si>
-  <si>
     <t>25020</t>
   </si>
   <si>
@@ -991,18 +991,18 @@
     <t>Politique agricole et gestion administrative</t>
   </si>
   <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
+    <t>Agriculture, Sylviculture, Pêche</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
     <t>310</t>
   </si>
   <si>
-    <t>Agriculture</t>
-  </si>
-  <si>
-    <t>311</t>
-  </si>
-  <si>
-    <t>Agriculture, Sylviculture, Pêche</t>
-  </si>
-  <si>
     <t>31120</t>
   </si>
   <si>
@@ -1189,18 +1189,18 @@
     <t>Politique de l'industrie et gestion administrative</t>
   </si>
   <si>
+    <t>Industries Manufacturières</t>
+  </si>
+  <si>
+    <t>Industries Manufacturières, Extractives, Construct</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
     <t>320</t>
   </si>
   <si>
-    <t>Industries Manufacturières</t>
-  </si>
-  <si>
-    <t>321</t>
-  </si>
-  <si>
-    <t>Industries Manufacturières, Extractives, Construct</t>
-  </si>
-  <si>
     <t>32120</t>
   </si>
   <si>
@@ -1393,12 +1393,12 @@
     <t>Politique commerciale et gestion administrative</t>
   </si>
   <si>
+    <t>Politique Commerciale et Réglementations</t>
+  </si>
+  <si>
     <t>331</t>
   </si>
   <si>
-    <t>Politique Commerciale et Réglementations</t>
-  </si>
-  <si>
     <t>33120</t>
   </si>
   <si>
@@ -1435,24 +1435,24 @@
     <t>Politique du tourisme et gestion administrative</t>
   </si>
   <si>
+    <t>Tourisme</t>
+  </si>
+  <si>
     <t>332</t>
   </si>
   <si>
-    <t>Tourisme</t>
-  </si>
-  <si>
     <t>41010</t>
   </si>
   <si>
     <t>Politique de l'environnement et gestion administrative</t>
   </si>
   <si>
+    <t>Protection de l'Environnement Général</t>
+  </si>
+  <si>
     <t>410</t>
   </si>
   <si>
-    <t>Protection de l'Environnement Général</t>
-  </si>
-  <si>
     <t>41020</t>
   </si>
   <si>
@@ -1489,12 +1489,12 @@
     <t>Aide plurisectorielle</t>
   </si>
   <si>
+    <t>Autres Multisecteurs</t>
+  </si>
+  <si>
     <t>430</t>
   </si>
   <si>
-    <t>Autres Multisecteurs</t>
-  </si>
-  <si>
     <t>43030</t>
   </si>
   <si>
@@ -1555,36 +1555,36 @@
     <t>Aide relative au soutien budgétaire général</t>
   </si>
   <si>
+    <t>Soutien Budgétaire</t>
+  </si>
+  <si>
     <t>510</t>
   </si>
   <si>
-    <t>Soutien Budgétaire</t>
-  </si>
-  <si>
     <t>52010</t>
   </si>
   <si>
     <t>Assistance alimentaire</t>
   </si>
   <si>
+    <t>Aide Alimentaire Dévelopmentale</t>
+  </si>
+  <si>
     <t>520</t>
   </si>
   <si>
-    <t>Aide Alimentaire Dévelopmentale</t>
-  </si>
-  <si>
     <t>53030</t>
   </si>
   <si>
     <t>Subventions à l'importation (biens d'équipement)</t>
   </si>
   <si>
+    <t>Aide sous forme de Produits, Autre</t>
+  </si>
+  <si>
     <t>530</t>
   </si>
   <si>
-    <t>Aide sous forme de Produits, Autre</t>
-  </si>
-  <si>
     <t>53040</t>
   </si>
   <si>
@@ -1597,12 +1597,12 @@
     <t>Actions se rapportant à la dette</t>
   </si>
   <si>
+    <t>Actions se Rapportant a la Dette</t>
+  </si>
+  <si>
     <t>600</t>
   </si>
   <si>
-    <t>Actions se Rapportant a la Dette</t>
-  </si>
-  <si>
     <t>60020</t>
   </si>
   <si>
@@ -1645,12 +1645,12 @@
     <t>Assistance matérielle et services d'urgence</t>
   </si>
   <si>
+    <t>Intervention d'Urgence</t>
+  </si>
+  <si>
     <t>720</t>
   </si>
   <si>
-    <t>Intervention d'Urgence</t>
-  </si>
-  <si>
     <t>72040</t>
   </si>
   <si>
@@ -1669,58 +1669,58 @@
     <t>Reconstruction et réhabilitation immédiate post-urgence</t>
   </si>
   <si>
+    <t>Reconstruction &amp; Réhabilitation</t>
+  </si>
+  <si>
     <t>730</t>
   </si>
   <si>
-    <t>Reconstruction &amp; Réhabilitation</t>
-  </si>
-  <si>
     <t>74020</t>
   </si>
   <si>
     <t>Préparation aux interventions multi-risques</t>
   </si>
   <si>
+    <t>Prévention catastrophes/Préparation à leur survenue</t>
+  </si>
+  <si>
     <t>740</t>
   </si>
   <si>
-    <t>Prévention catastrophes/Préparation à leur survenue</t>
-  </si>
-  <si>
     <t>91010</t>
   </si>
   <si>
     <t>Frais administratifs (non alloués par secteur)</t>
   </si>
   <si>
+    <t>Frais Administratifs des Donneurs</t>
+  </si>
+  <si>
     <t>910</t>
   </si>
   <si>
-    <t>Frais Administratifs des Donneurs</t>
-  </si>
-  <si>
     <t>93010</t>
   </si>
   <si>
     <t>Refugiés/demandeurs d'asile dans les pays donneurs (non alloués)</t>
   </si>
   <si>
+    <t>Refugiés dans les Pays Donneurs</t>
+  </si>
+  <si>
     <t>930</t>
   </si>
   <si>
-    <t>Refugiés dans les Pays Donneurs</t>
-  </si>
-  <si>
     <t>99810</t>
   </si>
   <si>
     <t>Secteur non spécifié</t>
   </si>
   <si>
+    <t>Non Affecté / Non Specifié</t>
+  </si>
+  <si>
     <t>998</t>
-  </si>
-  <si>
-    <t>Non Affecté / Non Specifié</t>
   </si>
   <si>
     <t>99820</t>
@@ -2190,10 +2190,10 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
         <v>23</v>
@@ -2213,10 +2213,10 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
         <v>23</v>
@@ -2236,10 +2236,10 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
         <v>23</v>
@@ -2259,10 +2259,10 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
         <v>23</v>
@@ -2282,10 +2282,10 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
@@ -2305,10 +2305,10 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
         <v>23</v>
@@ -2328,10 +2328,10 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
         <v>23</v>
@@ -2351,10 +2351,10 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
         <v>39</v>
@@ -2374,10 +2374,10 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
@@ -2397,10 +2397,10 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
         <v>45</v>
@@ -2420,10 +2420,10 @@
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
         <v>45</v>
@@ -2535,10 +2535,10 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F21" t="s">
         <v>63</v>
@@ -2558,10 +2558,10 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s">
         <v>63</v>
@@ -2581,10 +2581,10 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F23" t="s">
         <v>63</v>
@@ -2604,10 +2604,10 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F24" t="s">
         <v>63</v>
@@ -2627,10 +2627,10 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F25" t="s">
         <v>63</v>
@@ -2650,10 +2650,10 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E26" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F26" t="s">
         <v>63</v>
@@ -2673,10 +2673,10 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E27" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s">
         <v>63</v>
@@ -2696,10 +2696,10 @@
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E28" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s">
         <v>63</v>
@@ -2719,10 +2719,10 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E29" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F29" t="s">
         <v>63</v>
@@ -2742,10 +2742,10 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="E30" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="F30" t="s">
         <v>83</v>
@@ -2765,10 +2765,10 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="E31" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="F31" t="s">
         <v>83</v>
@@ -2788,10 +2788,10 @@
         <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="E32" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="F32" t="s">
         <v>83</v>
@@ -2811,10 +2811,10 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="E33" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="F33" t="s">
         <v>83</v>
@@ -2834,10 +2834,10 @@
         <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="E34" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="F34" t="s">
         <v>83</v>
@@ -2857,10 +2857,10 @@
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="E35" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="F35" t="s">
         <v>83</v>
@@ -2883,10 +2883,10 @@
         <v>96</v>
       </c>
       <c r="E36" t="s">
+        <v>96</v>
+      </c>
+      <c r="F36" t="s">
         <v>97</v>
-      </c>
-      <c r="F36" t="s">
-        <v>96</v>
       </c>
       <c r="G36" t="s">
         <v>97</v>
@@ -2906,10 +2906,10 @@
         <v>96</v>
       </c>
       <c r="E37" t="s">
+        <v>96</v>
+      </c>
+      <c r="F37" t="s">
         <v>97</v>
-      </c>
-      <c r="F37" t="s">
-        <v>96</v>
       </c>
       <c r="G37" t="s">
         <v>97</v>
@@ -2929,10 +2929,10 @@
         <v>96</v>
       </c>
       <c r="E38" t="s">
+        <v>96</v>
+      </c>
+      <c r="F38" t="s">
         <v>97</v>
-      </c>
-      <c r="F38" t="s">
-        <v>96</v>
       </c>
       <c r="G38" t="s">
         <v>97</v>
@@ -2952,10 +2952,10 @@
         <v>96</v>
       </c>
       <c r="E39" t="s">
+        <v>96</v>
+      </c>
+      <c r="F39" t="s">
         <v>97</v>
-      </c>
-      <c r="F39" t="s">
-        <v>96</v>
       </c>
       <c r="G39" t="s">
         <v>97</v>
@@ -2975,10 +2975,10 @@
         <v>96</v>
       </c>
       <c r="E40" t="s">
+        <v>96</v>
+      </c>
+      <c r="F40" t="s">
         <v>97</v>
-      </c>
-      <c r="F40" t="s">
-        <v>96</v>
       </c>
       <c r="G40" t="s">
         <v>97</v>
@@ -2998,10 +2998,10 @@
         <v>108</v>
       </c>
       <c r="E41" t="s">
+        <v>108</v>
+      </c>
+      <c r="F41" t="s">
         <v>109</v>
-      </c>
-      <c r="F41" t="s">
-        <v>108</v>
       </c>
       <c r="G41" t="s">
         <v>109</v>
@@ -3021,10 +3021,10 @@
         <v>108</v>
       </c>
       <c r="E42" t="s">
+        <v>108</v>
+      </c>
+      <c r="F42" t="s">
         <v>109</v>
-      </c>
-      <c r="F42" t="s">
-        <v>108</v>
       </c>
       <c r="G42" t="s">
         <v>109</v>
@@ -3044,10 +3044,10 @@
         <v>108</v>
       </c>
       <c r="E43" t="s">
+        <v>108</v>
+      </c>
+      <c r="F43" t="s">
         <v>109</v>
-      </c>
-      <c r="F43" t="s">
-        <v>108</v>
       </c>
       <c r="G43" t="s">
         <v>109</v>
@@ -3067,10 +3067,10 @@
         <v>108</v>
       </c>
       <c r="E44" t="s">
+        <v>108</v>
+      </c>
+      <c r="F44" t="s">
         <v>109</v>
-      </c>
-      <c r="F44" t="s">
-        <v>108</v>
       </c>
       <c r="G44" t="s">
         <v>109</v>
@@ -3090,10 +3090,10 @@
         <v>108</v>
       </c>
       <c r="E45" t="s">
+        <v>108</v>
+      </c>
+      <c r="F45" t="s">
         <v>109</v>
-      </c>
-      <c r="F45" t="s">
-        <v>108</v>
       </c>
       <c r="G45" t="s">
         <v>109</v>
@@ -3113,10 +3113,10 @@
         <v>108</v>
       </c>
       <c r="E46" t="s">
+        <v>108</v>
+      </c>
+      <c r="F46" t="s">
         <v>109</v>
-      </c>
-      <c r="F46" t="s">
-        <v>108</v>
       </c>
       <c r="G46" t="s">
         <v>109</v>
@@ -3136,10 +3136,10 @@
         <v>108</v>
       </c>
       <c r="E47" t="s">
+        <v>108</v>
+      </c>
+      <c r="F47" t="s">
         <v>109</v>
-      </c>
-      <c r="F47" t="s">
-        <v>108</v>
       </c>
       <c r="G47" t="s">
         <v>109</v>
@@ -3159,10 +3159,10 @@
         <v>108</v>
       </c>
       <c r="E48" t="s">
+        <v>108</v>
+      </c>
+      <c r="F48" t="s">
         <v>109</v>
-      </c>
-      <c r="F48" t="s">
-        <v>108</v>
       </c>
       <c r="G48" t="s">
         <v>109</v>
@@ -3182,10 +3182,10 @@
         <v>108</v>
       </c>
       <c r="E49" t="s">
+        <v>108</v>
+      </c>
+      <c r="F49" t="s">
         <v>109</v>
-      </c>
-      <c r="F49" t="s">
-        <v>108</v>
       </c>
       <c r="G49" t="s">
         <v>109</v>
@@ -3205,10 +3205,10 @@
         <v>108</v>
       </c>
       <c r="E50" t="s">
+        <v>108</v>
+      </c>
+      <c r="F50" t="s">
         <v>109</v>
-      </c>
-      <c r="F50" t="s">
-        <v>108</v>
       </c>
       <c r="G50" t="s">
         <v>109</v>
@@ -3228,10 +3228,10 @@
         <v>108</v>
       </c>
       <c r="E51" t="s">
+        <v>108</v>
+      </c>
+      <c r="F51" t="s">
         <v>109</v>
-      </c>
-      <c r="F51" t="s">
-        <v>108</v>
       </c>
       <c r="G51" t="s">
         <v>109</v>
@@ -3616,10 +3616,10 @@
         <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="E68" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="F68" t="s">
         <v>169</v>
@@ -3639,10 +3639,10 @@
         <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="E69" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="F69" t="s">
         <v>169</v>
@@ -3662,10 +3662,10 @@
         <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="E70" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="F70" t="s">
         <v>169</v>
@@ -3685,10 +3685,10 @@
         <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="E71" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="F71" t="s">
         <v>169</v>
@@ -3708,10 +3708,10 @@
         <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="E72" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="F72" t="s">
         <v>169</v>
@@ -3731,10 +3731,10 @@
         <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="E73" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="F73" t="s">
         <v>169</v>
@@ -3757,10 +3757,10 @@
         <v>182</v>
       </c>
       <c r="E74" t="s">
+        <v>182</v>
+      </c>
+      <c r="F74" t="s">
         <v>183</v>
-      </c>
-      <c r="F74" t="s">
-        <v>182</v>
       </c>
       <c r="G74" t="s">
         <v>183</v>
@@ -3780,10 +3780,10 @@
         <v>182</v>
       </c>
       <c r="E75" t="s">
+        <v>182</v>
+      </c>
+      <c r="F75" t="s">
         <v>183</v>
-      </c>
-      <c r="F75" t="s">
-        <v>182</v>
       </c>
       <c r="G75" t="s">
         <v>183</v>
@@ -3803,10 +3803,10 @@
         <v>182</v>
       </c>
       <c r="E76" t="s">
+        <v>182</v>
+      </c>
+      <c r="F76" t="s">
         <v>183</v>
-      </c>
-      <c r="F76" t="s">
-        <v>182</v>
       </c>
       <c r="G76" t="s">
         <v>183</v>
@@ -3826,10 +3826,10 @@
         <v>182</v>
       </c>
       <c r="E77" t="s">
+        <v>182</v>
+      </c>
+      <c r="F77" t="s">
         <v>183</v>
-      </c>
-      <c r="F77" t="s">
-        <v>182</v>
       </c>
       <c r="G77" t="s">
         <v>183</v>
@@ -3849,10 +3849,10 @@
         <v>182</v>
       </c>
       <c r="E78" t="s">
+        <v>182</v>
+      </c>
+      <c r="F78" t="s">
         <v>183</v>
-      </c>
-      <c r="F78" t="s">
-        <v>182</v>
       </c>
       <c r="G78" t="s">
         <v>183</v>
@@ -3872,10 +3872,10 @@
         <v>182</v>
       </c>
       <c r="E79" t="s">
+        <v>182</v>
+      </c>
+      <c r="F79" t="s">
         <v>183</v>
-      </c>
-      <c r="F79" t="s">
-        <v>182</v>
       </c>
       <c r="G79" t="s">
         <v>183</v>
@@ -3895,10 +3895,10 @@
         <v>182</v>
       </c>
       <c r="E80" t="s">
+        <v>182</v>
+      </c>
+      <c r="F80" t="s">
         <v>183</v>
-      </c>
-      <c r="F80" t="s">
-        <v>182</v>
       </c>
       <c r="G80" t="s">
         <v>183</v>
@@ -3918,10 +3918,10 @@
         <v>182</v>
       </c>
       <c r="E81" t="s">
+        <v>182</v>
+      </c>
+      <c r="F81" t="s">
         <v>183</v>
-      </c>
-      <c r="F81" t="s">
-        <v>182</v>
       </c>
       <c r="G81" t="s">
         <v>183</v>
@@ -3941,10 +3941,10 @@
         <v>182</v>
       </c>
       <c r="E82" t="s">
+        <v>182</v>
+      </c>
+      <c r="F82" t="s">
         <v>183</v>
-      </c>
-      <c r="F82" t="s">
-        <v>182</v>
       </c>
       <c r="G82" t="s">
         <v>183</v>
@@ -3964,10 +3964,10 @@
         <v>182</v>
       </c>
       <c r="E83" t="s">
+        <v>182</v>
+      </c>
+      <c r="F83" t="s">
         <v>183</v>
-      </c>
-      <c r="F83" t="s">
-        <v>182</v>
       </c>
       <c r="G83" t="s">
         <v>183</v>
@@ -3987,10 +3987,10 @@
         <v>182</v>
       </c>
       <c r="E84" t="s">
+        <v>182</v>
+      </c>
+      <c r="F84" t="s">
         <v>183</v>
-      </c>
-      <c r="F84" t="s">
-        <v>182</v>
       </c>
       <c r="G84" t="s">
         <v>183</v>
@@ -4010,10 +4010,10 @@
         <v>206</v>
       </c>
       <c r="E85" t="s">
+        <v>206</v>
+      </c>
+      <c r="F85" t="s">
         <v>207</v>
-      </c>
-      <c r="F85" t="s">
-        <v>206</v>
       </c>
       <c r="G85" t="s">
         <v>207</v>
@@ -4033,10 +4033,10 @@
         <v>206</v>
       </c>
       <c r="E86" t="s">
+        <v>206</v>
+      </c>
+      <c r="F86" t="s">
         <v>207</v>
-      </c>
-      <c r="F86" t="s">
-        <v>206</v>
       </c>
       <c r="G86" t="s">
         <v>207</v>
@@ -4056,10 +4056,10 @@
         <v>206</v>
       </c>
       <c r="E87" t="s">
+        <v>206</v>
+      </c>
+      <c r="F87" t="s">
         <v>207</v>
-      </c>
-      <c r="F87" t="s">
-        <v>206</v>
       </c>
       <c r="G87" t="s">
         <v>207</v>
@@ -4079,10 +4079,10 @@
         <v>206</v>
       </c>
       <c r="E88" t="s">
+        <v>206</v>
+      </c>
+      <c r="F88" t="s">
         <v>207</v>
-      </c>
-      <c r="F88" t="s">
-        <v>206</v>
       </c>
       <c r="G88" t="s">
         <v>207</v>
@@ -4102,10 +4102,10 @@
         <v>206</v>
       </c>
       <c r="E89" t="s">
+        <v>206</v>
+      </c>
+      <c r="F89" t="s">
         <v>207</v>
-      </c>
-      <c r="F89" t="s">
-        <v>206</v>
       </c>
       <c r="G89" t="s">
         <v>207</v>
@@ -4125,10 +4125,10 @@
         <v>206</v>
       </c>
       <c r="E90" t="s">
+        <v>206</v>
+      </c>
+      <c r="F90" t="s">
         <v>207</v>
-      </c>
-      <c r="F90" t="s">
-        <v>206</v>
       </c>
       <c r="G90" t="s">
         <v>207</v>
@@ -4148,10 +4148,10 @@
         <v>206</v>
       </c>
       <c r="E91" t="s">
+        <v>206</v>
+      </c>
+      <c r="F91" t="s">
         <v>207</v>
-      </c>
-      <c r="F91" t="s">
-        <v>206</v>
       </c>
       <c r="G91" t="s">
         <v>207</v>
@@ -4171,10 +4171,10 @@
         <v>222</v>
       </c>
       <c r="E92" t="s">
+        <v>222</v>
+      </c>
+      <c r="F92" t="s">
         <v>223</v>
-      </c>
-      <c r="F92" t="s">
-        <v>222</v>
       </c>
       <c r="G92" t="s">
         <v>223</v>
@@ -4194,10 +4194,10 @@
         <v>222</v>
       </c>
       <c r="E93" t="s">
+        <v>222</v>
+      </c>
+      <c r="F93" t="s">
         <v>223</v>
-      </c>
-      <c r="F93" t="s">
-        <v>222</v>
       </c>
       <c r="G93" t="s">
         <v>223</v>
@@ -4217,10 +4217,10 @@
         <v>222</v>
       </c>
       <c r="E94" t="s">
+        <v>222</v>
+      </c>
+      <c r="F94" t="s">
         <v>223</v>
-      </c>
-      <c r="F94" t="s">
-        <v>222</v>
       </c>
       <c r="G94" t="s">
         <v>223</v>
@@ -4240,10 +4240,10 @@
         <v>222</v>
       </c>
       <c r="E95" t="s">
+        <v>222</v>
+      </c>
+      <c r="F95" t="s">
         <v>223</v>
-      </c>
-      <c r="F95" t="s">
-        <v>222</v>
       </c>
       <c r="G95" t="s">
         <v>223</v>
@@ -4352,10 +4352,10 @@
         <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E100" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F100" t="s">
         <v>245</v>
@@ -4375,10 +4375,10 @@
         <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E101" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F101" t="s">
         <v>245</v>
@@ -4398,10 +4398,10 @@
         <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E102" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F102" t="s">
         <v>245</v>
@@ -4421,10 +4421,10 @@
         <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E103" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F103" t="s">
         <v>245</v>
@@ -4444,10 +4444,10 @@
         <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E104" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F104" t="s">
         <v>245</v>
@@ -4467,10 +4467,10 @@
         <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E105" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F105" t="s">
         <v>245</v>
@@ -4490,10 +4490,10 @@
         <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E106" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F106" t="s">
         <v>245</v>
@@ -4513,10 +4513,10 @@
         <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E107" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F107" t="s">
         <v>245</v>
@@ -4536,10 +4536,10 @@
         <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E108" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F108" t="s">
         <v>245</v>
@@ -4559,10 +4559,10 @@
         <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="E109" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="F109" t="s">
         <v>265</v>
@@ -4582,10 +4582,10 @@
         <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="E110" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="F110" t="s">
         <v>265</v>
@@ -4605,10 +4605,10 @@
         <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="E111" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="F111" t="s">
         <v>265</v>
@@ -4628,10 +4628,10 @@
         <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="E112" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="F112" t="s">
         <v>265</v>
@@ -4651,10 +4651,10 @@
         <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="E113" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="F113" t="s">
         <v>265</v>
@@ -4674,10 +4674,10 @@
         <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="E114" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="F114" t="s">
         <v>265</v>
@@ -4697,10 +4697,10 @@
         <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>232</v>
+        <v>277</v>
       </c>
       <c r="E115" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="F115" t="s">
         <v>278</v>
@@ -4720,10 +4720,10 @@
         <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="E116" t="s">
-        <v>281</v>
+        <v>233</v>
       </c>
       <c r="F116" t="s">
         <v>282</v>
@@ -4743,10 +4743,10 @@
         <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>232</v>
+        <v>285</v>
       </c>
       <c r="E117" t="s">
-        <v>285</v>
+        <v>233</v>
       </c>
       <c r="F117" t="s">
         <v>286</v>
@@ -4766,10 +4766,10 @@
         <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>232</v>
+        <v>285</v>
       </c>
       <c r="E118" t="s">
-        <v>285</v>
+        <v>233</v>
       </c>
       <c r="F118" t="s">
         <v>286</v>
@@ -4789,10 +4789,10 @@
         <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>232</v>
+        <v>285</v>
       </c>
       <c r="E119" t="s">
-        <v>285</v>
+        <v>233</v>
       </c>
       <c r="F119" t="s">
         <v>286</v>
@@ -4812,10 +4812,10 @@
         <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>232</v>
+        <v>285</v>
       </c>
       <c r="E120" t="s">
-        <v>285</v>
+        <v>233</v>
       </c>
       <c r="F120" t="s">
         <v>286</v>
@@ -4835,10 +4835,10 @@
         <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>232</v>
+        <v>285</v>
       </c>
       <c r="E121" t="s">
-        <v>285</v>
+        <v>233</v>
       </c>
       <c r="F121" t="s">
         <v>286</v>
@@ -4858,10 +4858,10 @@
         <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>232</v>
+        <v>285</v>
       </c>
       <c r="E122" t="s">
-        <v>285</v>
+        <v>233</v>
       </c>
       <c r="F122" t="s">
         <v>286</v>
@@ -4881,10 +4881,10 @@
         <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>232</v>
+        <v>285</v>
       </c>
       <c r="E123" t="s">
-        <v>285</v>
+        <v>233</v>
       </c>
       <c r="F123" t="s">
         <v>286</v>
@@ -4907,10 +4907,10 @@
         <v>301</v>
       </c>
       <c r="E124" t="s">
+        <v>301</v>
+      </c>
+      <c r="F124" t="s">
         <v>302</v>
-      </c>
-      <c r="F124" t="s">
-        <v>301</v>
       </c>
       <c r="G124" t="s">
         <v>302</v>
@@ -4930,10 +4930,10 @@
         <v>301</v>
       </c>
       <c r="E125" t="s">
+        <v>301</v>
+      </c>
+      <c r="F125" t="s">
         <v>302</v>
-      </c>
-      <c r="F125" t="s">
-        <v>301</v>
       </c>
       <c r="G125" t="s">
         <v>302</v>
@@ -4953,10 +4953,10 @@
         <v>301</v>
       </c>
       <c r="E126" t="s">
+        <v>301</v>
+      </c>
+      <c r="F126" t="s">
         <v>302</v>
-      </c>
-      <c r="F126" t="s">
-        <v>301</v>
       </c>
       <c r="G126" t="s">
         <v>302</v>
@@ -4976,10 +4976,10 @@
         <v>301</v>
       </c>
       <c r="E127" t="s">
+        <v>301</v>
+      </c>
+      <c r="F127" t="s">
         <v>302</v>
-      </c>
-      <c r="F127" t="s">
-        <v>301</v>
       </c>
       <c r="G127" t="s">
         <v>302</v>
@@ -4999,10 +4999,10 @@
         <v>301</v>
       </c>
       <c r="E128" t="s">
+        <v>301</v>
+      </c>
+      <c r="F128" t="s">
         <v>302</v>
-      </c>
-      <c r="F128" t="s">
-        <v>301</v>
       </c>
       <c r="G128" t="s">
         <v>302</v>
@@ -5022,10 +5022,10 @@
         <v>301</v>
       </c>
       <c r="E129" t="s">
+        <v>301</v>
+      </c>
+      <c r="F129" t="s">
         <v>302</v>
-      </c>
-      <c r="F129" t="s">
-        <v>301</v>
       </c>
       <c r="G129" t="s">
         <v>302</v>
@@ -5045,10 +5045,10 @@
         <v>315</v>
       </c>
       <c r="E130" t="s">
+        <v>315</v>
+      </c>
+      <c r="F130" t="s">
         <v>316</v>
-      </c>
-      <c r="F130" t="s">
-        <v>315</v>
       </c>
       <c r="G130" t="s">
         <v>316</v>
@@ -5068,10 +5068,10 @@
         <v>315</v>
       </c>
       <c r="E131" t="s">
+        <v>315</v>
+      </c>
+      <c r="F131" t="s">
         <v>316</v>
-      </c>
-      <c r="F131" t="s">
-        <v>315</v>
       </c>
       <c r="G131" t="s">
         <v>316</v>
@@ -5091,10 +5091,10 @@
         <v>315</v>
       </c>
       <c r="E132" t="s">
+        <v>315</v>
+      </c>
+      <c r="F132" t="s">
         <v>316</v>
-      </c>
-      <c r="F132" t="s">
-        <v>315</v>
       </c>
       <c r="G132" t="s">
         <v>316</v>
@@ -5114,10 +5114,10 @@
         <v>315</v>
       </c>
       <c r="E133" t="s">
+        <v>315</v>
+      </c>
+      <c r="F133" t="s">
         <v>316</v>
-      </c>
-      <c r="F133" t="s">
-        <v>315</v>
       </c>
       <c r="G133" t="s">
         <v>316</v>
@@ -5548,10 +5548,10 @@
         <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="E152" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="F152" t="s">
         <v>366</v>
@@ -5571,10 +5571,10 @@
         <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="E153" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="F153" t="s">
         <v>366</v>
@@ -5594,10 +5594,10 @@
         <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="E154" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="F154" t="s">
         <v>366</v>
@@ -5617,10 +5617,10 @@
         <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="E155" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="F155" t="s">
         <v>366</v>
@@ -5640,10 +5640,10 @@
         <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="E156" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="F156" t="s">
         <v>366</v>
@@ -5663,10 +5663,10 @@
         <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="E157" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="F157" t="s">
         <v>366</v>
@@ -5686,10 +5686,10 @@
         <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
       <c r="E158" t="s">
-        <v>379</v>
+        <v>326</v>
       </c>
       <c r="F158" t="s">
         <v>380</v>
@@ -5709,10 +5709,10 @@
         <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
       <c r="E159" t="s">
-        <v>379</v>
+        <v>326</v>
       </c>
       <c r="F159" t="s">
         <v>380</v>
@@ -5732,10 +5732,10 @@
         <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
       <c r="E160" t="s">
-        <v>379</v>
+        <v>326</v>
       </c>
       <c r="F160" t="s">
         <v>380</v>
@@ -5755,10 +5755,10 @@
         <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
       <c r="E161" t="s">
-        <v>379</v>
+        <v>326</v>
       </c>
       <c r="F161" t="s">
         <v>380</v>
@@ -5778,10 +5778,10 @@
         <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
       <c r="E162" t="s">
-        <v>379</v>
+        <v>326</v>
       </c>
       <c r="F162" t="s">
         <v>380</v>
@@ -6238,10 +6238,10 @@
         <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E182" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="F182" t="s">
         <v>434</v>
@@ -6261,10 +6261,10 @@
         <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E183" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="F183" t="s">
         <v>434</v>
@@ -6284,10 +6284,10 @@
         <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E184" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="F184" t="s">
         <v>434</v>
@@ -6307,10 +6307,10 @@
         <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E185" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="F185" t="s">
         <v>434</v>
@@ -6330,10 +6330,10 @@
         <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E186" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="F186" t="s">
         <v>434</v>
@@ -6353,10 +6353,10 @@
         <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E187" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="F187" t="s">
         <v>434</v>
@@ -6376,10 +6376,10 @@
         <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E188" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="F188" t="s">
         <v>434</v>
@@ -6399,10 +6399,10 @@
         <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E189" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="F189" t="s">
         <v>434</v>
@@ -6422,10 +6422,10 @@
         <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E190" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="F190" t="s">
         <v>434</v>
@@ -6445,10 +6445,10 @@
         <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E191" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="F191" t="s">
         <v>434</v>
@@ -6468,10 +6468,10 @@
         <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>391</v>
+        <v>455</v>
       </c>
       <c r="E192" t="s">
-        <v>455</v>
+        <v>392</v>
       </c>
       <c r="F192" t="s">
         <v>456</v>
@@ -6494,10 +6494,10 @@
         <v>459</v>
       </c>
       <c r="E193" t="s">
+        <v>459</v>
+      </c>
+      <c r="F193" t="s">
         <v>460</v>
-      </c>
-      <c r="F193" t="s">
-        <v>459</v>
       </c>
       <c r="G193" t="s">
         <v>460</v>
@@ -6517,10 +6517,10 @@
         <v>459</v>
       </c>
       <c r="E194" t="s">
+        <v>459</v>
+      </c>
+      <c r="F194" t="s">
         <v>460</v>
-      </c>
-      <c r="F194" t="s">
-        <v>459</v>
       </c>
       <c r="G194" t="s">
         <v>460</v>
@@ -6540,10 +6540,10 @@
         <v>459</v>
       </c>
       <c r="E195" t="s">
+        <v>459</v>
+      </c>
+      <c r="F195" t="s">
         <v>460</v>
-      </c>
-      <c r="F195" t="s">
-        <v>459</v>
       </c>
       <c r="G195" t="s">
         <v>460</v>
@@ -6563,10 +6563,10 @@
         <v>459</v>
       </c>
       <c r="E196" t="s">
+        <v>459</v>
+      </c>
+      <c r="F196" t="s">
         <v>460</v>
-      </c>
-      <c r="F196" t="s">
-        <v>459</v>
       </c>
       <c r="G196" t="s">
         <v>460</v>
@@ -6586,10 +6586,10 @@
         <v>459</v>
       </c>
       <c r="E197" t="s">
+        <v>459</v>
+      </c>
+      <c r="F197" t="s">
         <v>460</v>
-      </c>
-      <c r="F197" t="s">
-        <v>459</v>
       </c>
       <c r="G197" t="s">
         <v>460</v>
@@ -6609,10 +6609,10 @@
         <v>459</v>
       </c>
       <c r="E198" t="s">
+        <v>459</v>
+      </c>
+      <c r="F198" t="s">
         <v>460</v>
-      </c>
-      <c r="F198" t="s">
-        <v>459</v>
       </c>
       <c r="G198" t="s">
         <v>460</v>
@@ -6632,10 +6632,10 @@
         <v>473</v>
       </c>
       <c r="E199" t="s">
+        <v>473</v>
+      </c>
+      <c r="F199" t="s">
         <v>474</v>
-      </c>
-      <c r="F199" t="s">
-        <v>473</v>
       </c>
       <c r="G199" t="s">
         <v>474</v>
@@ -6655,10 +6655,10 @@
         <v>477</v>
       </c>
       <c r="E200" t="s">
+        <v>477</v>
+      </c>
+      <c r="F200" t="s">
         <v>478</v>
-      </c>
-      <c r="F200" t="s">
-        <v>477</v>
       </c>
       <c r="G200" t="s">
         <v>478</v>
@@ -6678,10 +6678,10 @@
         <v>477</v>
       </c>
       <c r="E201" t="s">
+        <v>477</v>
+      </c>
+      <c r="F201" t="s">
         <v>478</v>
-      </c>
-      <c r="F201" t="s">
-        <v>477</v>
       </c>
       <c r="G201" t="s">
         <v>478</v>
@@ -6701,10 +6701,10 @@
         <v>477</v>
       </c>
       <c r="E202" t="s">
+        <v>477</v>
+      </c>
+      <c r="F202" t="s">
         <v>478</v>
-      </c>
-      <c r="F202" t="s">
-        <v>477</v>
       </c>
       <c r="G202" t="s">
         <v>478</v>
@@ -6724,10 +6724,10 @@
         <v>477</v>
       </c>
       <c r="E203" t="s">
+        <v>477</v>
+      </c>
+      <c r="F203" t="s">
         <v>478</v>
-      </c>
-      <c r="F203" t="s">
-        <v>477</v>
       </c>
       <c r="G203" t="s">
         <v>478</v>
@@ -6747,10 +6747,10 @@
         <v>477</v>
       </c>
       <c r="E204" t="s">
+        <v>477</v>
+      </c>
+      <c r="F204" t="s">
         <v>478</v>
-      </c>
-      <c r="F204" t="s">
-        <v>477</v>
       </c>
       <c r="G204" t="s">
         <v>478</v>
@@ -6770,10 +6770,10 @@
         <v>477</v>
       </c>
       <c r="E205" t="s">
+        <v>477</v>
+      </c>
+      <c r="F205" t="s">
         <v>478</v>
-      </c>
-      <c r="F205" t="s">
-        <v>477</v>
       </c>
       <c r="G205" t="s">
         <v>478</v>
@@ -6793,10 +6793,10 @@
         <v>491</v>
       </c>
       <c r="E206" t="s">
+        <v>491</v>
+      </c>
+      <c r="F206" t="s">
         <v>492</v>
-      </c>
-      <c r="F206" t="s">
-        <v>491</v>
       </c>
       <c r="G206" t="s">
         <v>492</v>
@@ -6816,10 +6816,10 @@
         <v>491</v>
       </c>
       <c r="E207" t="s">
+        <v>491</v>
+      </c>
+      <c r="F207" t="s">
         <v>492</v>
-      </c>
-      <c r="F207" t="s">
-        <v>491</v>
       </c>
       <c r="G207" t="s">
         <v>492</v>
@@ -6839,10 +6839,10 @@
         <v>491</v>
       </c>
       <c r="E208" t="s">
+        <v>491</v>
+      </c>
+      <c r="F208" t="s">
         <v>492</v>
-      </c>
-      <c r="F208" t="s">
-        <v>491</v>
       </c>
       <c r="G208" t="s">
         <v>492</v>
@@ -6862,10 +6862,10 @@
         <v>491</v>
       </c>
       <c r="E209" t="s">
+        <v>491</v>
+      </c>
+      <c r="F209" t="s">
         <v>492</v>
-      </c>
-      <c r="F209" t="s">
-        <v>491</v>
       </c>
       <c r="G209" t="s">
         <v>492</v>
@@ -6885,10 +6885,10 @@
         <v>491</v>
       </c>
       <c r="E210" t="s">
+        <v>491</v>
+      </c>
+      <c r="F210" t="s">
         <v>492</v>
-      </c>
-      <c r="F210" t="s">
-        <v>491</v>
       </c>
       <c r="G210" t="s">
         <v>492</v>
@@ -6908,10 +6908,10 @@
         <v>491</v>
       </c>
       <c r="E211" t="s">
+        <v>491</v>
+      </c>
+      <c r="F211" t="s">
         <v>492</v>
-      </c>
-      <c r="F211" t="s">
-        <v>491</v>
       </c>
       <c r="G211" t="s">
         <v>492</v>
@@ -6931,10 +6931,10 @@
         <v>491</v>
       </c>
       <c r="E212" t="s">
+        <v>491</v>
+      </c>
+      <c r="F212" t="s">
         <v>492</v>
-      </c>
-      <c r="F212" t="s">
-        <v>491</v>
       </c>
       <c r="G212" t="s">
         <v>492</v>
@@ -6954,10 +6954,10 @@
         <v>491</v>
       </c>
       <c r="E213" t="s">
+        <v>491</v>
+      </c>
+      <c r="F213" t="s">
         <v>492</v>
-      </c>
-      <c r="F213" t="s">
-        <v>491</v>
       </c>
       <c r="G213" t="s">
         <v>492</v>
@@ -6977,10 +6977,10 @@
         <v>491</v>
       </c>
       <c r="E214" t="s">
+        <v>491</v>
+      </c>
+      <c r="F214" t="s">
         <v>492</v>
-      </c>
-      <c r="F214" t="s">
-        <v>491</v>
       </c>
       <c r="G214" t="s">
         <v>492</v>
@@ -7000,10 +7000,10 @@
         <v>491</v>
       </c>
       <c r="E215" t="s">
+        <v>491</v>
+      </c>
+      <c r="F215" t="s">
         <v>492</v>
-      </c>
-      <c r="F215" t="s">
-        <v>491</v>
       </c>
       <c r="G215" t="s">
         <v>492</v>
@@ -7023,10 +7023,10 @@
         <v>513</v>
       </c>
       <c r="E216" t="s">
+        <v>513</v>
+      </c>
+      <c r="F216" t="s">
         <v>514</v>
-      </c>
-      <c r="F216" t="s">
-        <v>513</v>
       </c>
       <c r="G216" t="s">
         <v>514</v>
@@ -7046,10 +7046,10 @@
         <v>517</v>
       </c>
       <c r="E217" t="s">
+        <v>517</v>
+      </c>
+      <c r="F217" t="s">
         <v>518</v>
-      </c>
-      <c r="F217" t="s">
-        <v>517</v>
       </c>
       <c r="G217" t="s">
         <v>518</v>
@@ -7069,10 +7069,10 @@
         <v>521</v>
       </c>
       <c r="E218" t="s">
+        <v>521</v>
+      </c>
+      <c r="F218" t="s">
         <v>522</v>
-      </c>
-      <c r="F218" t="s">
-        <v>521</v>
       </c>
       <c r="G218" t="s">
         <v>522</v>
@@ -7092,10 +7092,10 @@
         <v>521</v>
       </c>
       <c r="E219" t="s">
+        <v>521</v>
+      </c>
+      <c r="F219" t="s">
         <v>522</v>
-      </c>
-      <c r="F219" t="s">
-        <v>521</v>
       </c>
       <c r="G219" t="s">
         <v>522</v>
@@ -7115,10 +7115,10 @@
         <v>527</v>
       </c>
       <c r="E220" t="s">
+        <v>527</v>
+      </c>
+      <c r="F220" t="s">
         <v>528</v>
-      </c>
-      <c r="F220" t="s">
-        <v>527</v>
       </c>
       <c r="G220" t="s">
         <v>528</v>
@@ -7138,10 +7138,10 @@
         <v>527</v>
       </c>
       <c r="E221" t="s">
+        <v>527</v>
+      </c>
+      <c r="F221" t="s">
         <v>528</v>
-      </c>
-      <c r="F221" t="s">
-        <v>527</v>
       </c>
       <c r="G221" t="s">
         <v>528</v>
@@ -7161,10 +7161,10 @@
         <v>527</v>
       </c>
       <c r="E222" t="s">
+        <v>527</v>
+      </c>
+      <c r="F222" t="s">
         <v>528</v>
-      </c>
-      <c r="F222" t="s">
-        <v>527</v>
       </c>
       <c r="G222" t="s">
         <v>528</v>
@@ -7184,10 +7184,10 @@
         <v>527</v>
       </c>
       <c r="E223" t="s">
+        <v>527</v>
+      </c>
+      <c r="F223" t="s">
         <v>528</v>
-      </c>
-      <c r="F223" t="s">
-        <v>527</v>
       </c>
       <c r="G223" t="s">
         <v>528</v>
@@ -7207,10 +7207,10 @@
         <v>527</v>
       </c>
       <c r="E224" t="s">
+        <v>527</v>
+      </c>
+      <c r="F224" t="s">
         <v>528</v>
-      </c>
-      <c r="F224" t="s">
-        <v>527</v>
       </c>
       <c r="G224" t="s">
         <v>528</v>
@@ -7230,10 +7230,10 @@
         <v>527</v>
       </c>
       <c r="E225" t="s">
+        <v>527</v>
+      </c>
+      <c r="F225" t="s">
         <v>528</v>
-      </c>
-      <c r="F225" t="s">
-        <v>527</v>
       </c>
       <c r="G225" t="s">
         <v>528</v>
@@ -7253,10 +7253,10 @@
         <v>527</v>
       </c>
       <c r="E226" t="s">
+        <v>527</v>
+      </c>
+      <c r="F226" t="s">
         <v>528</v>
-      </c>
-      <c r="F226" t="s">
-        <v>527</v>
       </c>
       <c r="G226" t="s">
         <v>528</v>
@@ -7276,10 +7276,10 @@
         <v>543</v>
       </c>
       <c r="E227" t="s">
+        <v>543</v>
+      </c>
+      <c r="F227" t="s">
         <v>544</v>
-      </c>
-      <c r="F227" t="s">
-        <v>543</v>
       </c>
       <c r="G227" t="s">
         <v>544</v>
@@ -7299,10 +7299,10 @@
         <v>543</v>
       </c>
       <c r="E228" t="s">
+        <v>543</v>
+      </c>
+      <c r="F228" t="s">
         <v>544</v>
-      </c>
-      <c r="F228" t="s">
-        <v>543</v>
       </c>
       <c r="G228" t="s">
         <v>544</v>
@@ -7322,10 +7322,10 @@
         <v>543</v>
       </c>
       <c r="E229" t="s">
+        <v>543</v>
+      </c>
+      <c r="F229" t="s">
         <v>544</v>
-      </c>
-      <c r="F229" t="s">
-        <v>543</v>
       </c>
       <c r="G229" t="s">
         <v>544</v>
@@ -7345,10 +7345,10 @@
         <v>551</v>
       </c>
       <c r="E230" t="s">
+        <v>551</v>
+      </c>
+      <c r="F230" t="s">
         <v>552</v>
-      </c>
-      <c r="F230" t="s">
-        <v>551</v>
       </c>
       <c r="G230" t="s">
         <v>552</v>
@@ -7368,10 +7368,10 @@
         <v>555</v>
       </c>
       <c r="E231" t="s">
+        <v>555</v>
+      </c>
+      <c r="F231" t="s">
         <v>556</v>
-      </c>
-      <c r="F231" t="s">
-        <v>555</v>
       </c>
       <c r="G231" t="s">
         <v>556</v>
@@ -7391,10 +7391,10 @@
         <v>559</v>
       </c>
       <c r="E232" t="s">
+        <v>559</v>
+      </c>
+      <c r="F232" t="s">
         <v>560</v>
-      </c>
-      <c r="F232" t="s">
-        <v>559</v>
       </c>
       <c r="G232" t="s">
         <v>560</v>
@@ -7414,10 +7414,10 @@
         <v>563</v>
       </c>
       <c r="E233" t="s">
+        <v>563</v>
+      </c>
+      <c r="F233" t="s">
         <v>564</v>
-      </c>
-      <c r="F233" t="s">
-        <v>563</v>
       </c>
       <c r="G233" t="s">
         <v>564</v>
@@ -7437,10 +7437,10 @@
         <v>567</v>
       </c>
       <c r="E234" t="s">
+        <v>567</v>
+      </c>
+      <c r="F234" t="s">
         <v>568</v>
-      </c>
-      <c r="F234" t="s">
-        <v>567</v>
       </c>
       <c r="G234" t="s">
         <v>568</v>
@@ -7460,10 +7460,10 @@
         <v>567</v>
       </c>
       <c r="E235" t="s">
+        <v>567</v>
+      </c>
+      <c r="F235" t="s">
         <v>568</v>
-      </c>
-      <c r="F235" t="s">
-        <v>567</v>
       </c>
       <c r="G235" t="s">
         <v>568</v>

--- a/api/1/xlsx/fr/SectorGroup.xlsx
+++ b/api/1/xlsx/fr/SectorGroup.xlsx
@@ -25,18 +25,18 @@
     <t>status</t>
   </si>
   <si>
+    <t>codeforiati:group-code</t>
+  </si>
+  <si>
+    <t>codeforiati:group-name</t>
+  </si>
+  <si>
+    <t>codeforiati:category-code</t>
+  </si>
+  <si>
     <t>codeforiati:category-name</t>
   </si>
   <si>
-    <t>codeforiati:group-name</t>
-  </si>
-  <si>
-    <t>codeforiati:category-code</t>
-  </si>
-  <si>
-    <t>codeforiati:group-code</t>
-  </si>
-  <si>
     <t>11110</t>
   </si>
   <si>
@@ -46,18 +46,18 @@
     <t>active</t>
   </si>
   <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
     <t>Education, Niveau non spécifié</t>
   </si>
   <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
     <t>11120</t>
   </si>
   <si>
@@ -82,12 +82,12 @@
     <t>Enseignement primaire</t>
   </si>
   <si>
+    <t>112</t>
+  </si>
+  <si>
     <t>Education de Base</t>
   </si>
   <si>
-    <t>112</t>
-  </si>
-  <si>
     <t>11230</t>
   </si>
   <si>
@@ -130,12 +130,12 @@
     <t>Enseignement secondaire supérieur (modifié et comprend les données de 11322)</t>
   </si>
   <si>
+    <t>113</t>
+  </si>
+  <si>
     <t>Education Secondaire</t>
   </si>
   <si>
-    <t>113</t>
-  </si>
-  <si>
     <t>11330</t>
   </si>
   <si>
@@ -148,12 +148,12 @@
     <t>Enseignement supérieur</t>
   </si>
   <si>
+    <t>114</t>
+  </si>
+  <si>
     <t>Education Post Secondaire</t>
   </si>
   <si>
-    <t>114</t>
-  </si>
-  <si>
     <t>11430</t>
   </si>
   <si>
@@ -166,18 +166,18 @@
     <t>Politique de la santé et gestion administrative</t>
   </si>
   <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>Santé</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
     <t>Santé, Général</t>
   </si>
   <si>
-    <t>Santé</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
     <t>12181</t>
   </si>
   <si>
@@ -202,12 +202,12 @@
     <t>Soins et services de santé de base</t>
   </si>
   <si>
+    <t>122</t>
+  </si>
+  <si>
     <t>Santé de Base</t>
   </si>
   <si>
-    <t>122</t>
-  </si>
-  <si>
     <t>12230</t>
   </si>
   <si>
@@ -262,12 +262,12 @@
     <t>Lutte contre les MNT, général</t>
   </si>
   <si>
+    <t>123</t>
+  </si>
+  <si>
     <t>Maladies non-transmissibles (MNT)</t>
   </si>
   <si>
-    <t>123</t>
-  </si>
-  <si>
     <t>12320</t>
   </si>
   <si>
@@ -304,12 +304,12 @@
     <t>Politique/programmes en matière de population et gestion administrative</t>
   </si>
   <si>
+    <t>130</t>
+  </si>
+  <si>
     <t>Politique en Matière de Population/Santé&amp;Fertilité</t>
   </si>
   <si>
-    <t>130</t>
-  </si>
-  <si>
     <t>13020</t>
   </si>
   <si>
@@ -340,12 +340,12 @@
     <t>Politique et gestion administrative du secteur de l'eau</t>
   </si>
   <si>
+    <t>140</t>
+  </si>
+  <si>
     <t>Distribution d'Eau et Assainissement</t>
   </si>
   <si>
-    <t>140</t>
-  </si>
-  <si>
     <t>14015</t>
   </si>
   <si>
@@ -412,18 +412,18 @@
     <t>Politiques publiques et gestion administrative</t>
   </si>
   <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>Gouvernement &amp; Société Civile</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
     <t>Gouvernement &amp; Société Civile-général</t>
   </si>
   <si>
-    <t>Gouvernement &amp; Société Civile</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
     <t>15111</t>
   </si>
   <si>
@@ -520,12 +520,12 @@
     <t>Gestion et réforme des systèmes de sécurité</t>
   </si>
   <si>
+    <t>152</t>
+  </si>
+  <si>
     <t>Conflits, Paix et Sécurité</t>
   </si>
   <si>
-    <t>152</t>
-  </si>
-  <si>
     <t>15220</t>
   </si>
   <si>
@@ -562,12 +562,12 @@
     <t>Protection sociale</t>
   </si>
   <si>
+    <t>160</t>
+  </si>
+  <si>
     <t>Infrastructure et Services Sociaux Divers</t>
   </si>
   <si>
-    <t>160</t>
-  </si>
-  <si>
     <t>16020</t>
   </si>
   <si>
@@ -634,12 +634,12 @@
     <t>Politique des transports et gestion administrative</t>
   </si>
   <si>
+    <t>210</t>
+  </si>
+  <si>
     <t>Transports et Entreposage</t>
   </si>
   <si>
-    <t>210</t>
-  </si>
-  <si>
     <t>21020</t>
   </si>
   <si>
@@ -682,12 +682,12 @@
     <t>Politique des communications et gestion administrative</t>
   </si>
   <si>
+    <t>220</t>
+  </si>
+  <si>
     <t>Communications</t>
   </si>
   <si>
-    <t>220</t>
-  </si>
-  <si>
     <t>22020</t>
   </si>
   <si>
@@ -712,18 +712,18 @@
     <t>Politique énergétique et gestion administrative</t>
   </si>
   <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>Energie</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
     <t>Politique de l'énergie</t>
   </si>
   <si>
-    <t>Energie</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
     <t>23181</t>
   </si>
   <si>
@@ -748,12 +748,12 @@
     <t>Production d'énergie, sources renouvelables - multiples technologies</t>
   </si>
   <si>
+    <t>232</t>
+  </si>
+  <si>
     <t>Production d'électricité, sources renouvelables</t>
   </si>
   <si>
-    <t>232</t>
-  </si>
-  <si>
     <t>23220</t>
   </si>
   <si>
@@ -808,12 +808,12 @@
     <t>Production d'énergie, sources non renouvelables - non spécifié</t>
   </si>
   <si>
+    <t>233</t>
+  </si>
+  <si>
     <t>Production d'électricité, sources non renouvelables</t>
   </si>
   <si>
-    <t>233</t>
-  </si>
-  <si>
     <t>23320</t>
   </si>
   <si>
@@ -859,24 +859,24 @@
     <t>Centrales nucléaires et sûreté nucléaire</t>
   </si>
   <si>
+    <t>235</t>
+  </si>
+  <si>
     <t>Centrales nucléaires</t>
   </si>
   <si>
-    <t>235</t>
-  </si>
-  <si>
     <t>23610</t>
   </si>
   <si>
     <t>Production de chaleur seule</t>
   </si>
   <si>
+    <t>236</t>
+  </si>
+  <si>
     <t>Distribution de l'énergie</t>
   </si>
   <si>
-    <t>236</t>
-  </si>
-  <si>
     <t>23620</t>
   </si>
   <si>
@@ -919,12 +919,12 @@
     <t>Politique des finances et gestion administrative</t>
   </si>
   <si>
+    <t>240</t>
+  </si>
+  <si>
     <t>Banques et Services Financiers</t>
   </si>
   <si>
-    <t>240</t>
-  </si>
-  <si>
     <t>24020</t>
   </si>
   <si>
@@ -961,12 +961,12 @@
     <t>Politique commerciale et administration</t>
   </si>
   <si>
+    <t>250</t>
+  </si>
+  <si>
     <t>Entreprises et Autres Services</t>
   </si>
   <si>
-    <t>250</t>
-  </si>
-  <si>
     <t>25020</t>
   </si>
   <si>
@@ -991,18 +991,18 @@
     <t>Politique agricole et gestion administrative</t>
   </si>
   <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>Agriculture, Sylviculture, Pêche</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
     <t>Agriculture</t>
   </si>
   <si>
-    <t>Agriculture, Sylviculture, Pêche</t>
-  </si>
-  <si>
-    <t>311</t>
-  </si>
-  <si>
-    <t>310</t>
-  </si>
-  <si>
     <t>31120</t>
   </si>
   <si>
@@ -1111,12 +1111,12 @@
     <t>Politique de la sylviculture et gestion administrative</t>
   </si>
   <si>
+    <t>312</t>
+  </si>
+  <si>
     <t>Sylviculture</t>
   </si>
   <si>
-    <t>312</t>
-  </si>
-  <si>
     <t>31220</t>
   </si>
   <si>
@@ -1153,12 +1153,12 @@
     <t>Politique de la pêche et gestion administrative</t>
   </si>
   <si>
+    <t>313</t>
+  </si>
+  <si>
     <t>Pêche</t>
   </si>
   <si>
-    <t>313</t>
-  </si>
-  <si>
     <t>31320</t>
   </si>
   <si>
@@ -1189,18 +1189,18 @@
     <t>Politique de l'industrie et gestion administrative</t>
   </si>
   <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>Industries Manufacturières, Extractives, Construct</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
     <t>Industries Manufacturières</t>
   </si>
   <si>
-    <t>Industries Manufacturières, Extractives, Construct</t>
-  </si>
-  <si>
-    <t>321</t>
-  </si>
-  <si>
-    <t>320</t>
-  </si>
-  <si>
     <t>32120</t>
   </si>
   <si>
@@ -1315,12 +1315,12 @@
     <t>Politique de l'industrie extractive et gestion administrative</t>
   </si>
   <si>
+    <t>322</t>
+  </si>
+  <si>
     <t>Industries Extractives</t>
   </si>
   <si>
-    <t>322</t>
-  </si>
-  <si>
     <t>32220</t>
   </si>
   <si>
@@ -1381,24 +1381,24 @@
     <t>Politique de la construction et gestion administrative</t>
   </si>
   <si>
+    <t>323</t>
+  </si>
+  <si>
     <t>Construction</t>
   </si>
   <si>
-    <t>323</t>
-  </si>
-  <si>
     <t>33110</t>
   </si>
   <si>
     <t>Politique commerciale et gestion administrative</t>
   </si>
   <si>
+    <t>331</t>
+  </si>
+  <si>
     <t>Politique Commerciale et Réglementations</t>
   </si>
   <si>
-    <t>331</t>
-  </si>
-  <si>
     <t>33120</t>
   </si>
   <si>
@@ -1435,24 +1435,24 @@
     <t>Politique du tourisme et gestion administrative</t>
   </si>
   <si>
+    <t>332</t>
+  </si>
+  <si>
     <t>Tourisme</t>
   </si>
   <si>
-    <t>332</t>
-  </si>
-  <si>
     <t>41010</t>
   </si>
   <si>
     <t>Politique de l'environnement et gestion administrative</t>
   </si>
   <si>
+    <t>410</t>
+  </si>
+  <si>
     <t>Protection de l'Environnement Général</t>
   </si>
   <si>
-    <t>410</t>
-  </si>
-  <si>
     <t>41020</t>
   </si>
   <si>
@@ -1489,12 +1489,12 @@
     <t>Aide plurisectorielle</t>
   </si>
   <si>
+    <t>430</t>
+  </si>
+  <si>
     <t>Autres Multisecteurs</t>
   </si>
   <si>
-    <t>430</t>
-  </si>
-  <si>
     <t>43030</t>
   </si>
   <si>
@@ -1555,36 +1555,36 @@
     <t>Aide relative au soutien budgétaire général</t>
   </si>
   <si>
+    <t>510</t>
+  </si>
+  <si>
     <t>Soutien Budgétaire</t>
   </si>
   <si>
-    <t>510</t>
-  </si>
-  <si>
     <t>52010</t>
   </si>
   <si>
     <t>Assistance alimentaire</t>
   </si>
   <si>
+    <t>520</t>
+  </si>
+  <si>
     <t>Aide Alimentaire Dévelopmentale</t>
   </si>
   <si>
-    <t>520</t>
-  </si>
-  <si>
     <t>53030</t>
   </si>
   <si>
     <t>Subventions à l'importation (biens d'équipement)</t>
   </si>
   <si>
+    <t>530</t>
+  </si>
+  <si>
     <t>Aide sous forme de Produits, Autre</t>
   </si>
   <si>
-    <t>530</t>
-  </si>
-  <si>
     <t>53040</t>
   </si>
   <si>
@@ -1597,12 +1597,12 @@
     <t>Actions se rapportant à la dette</t>
   </si>
   <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>Actions se Rapportant a la Dette</t>
   </si>
   <si>
-    <t>600</t>
-  </si>
-  <si>
     <t>60020</t>
   </si>
   <si>
@@ -1645,12 +1645,12 @@
     <t>Assistance matérielle et services d'urgence</t>
   </si>
   <si>
+    <t>720</t>
+  </si>
+  <si>
     <t>Intervention d'Urgence</t>
   </si>
   <si>
-    <t>720</t>
-  </si>
-  <si>
     <t>72040</t>
   </si>
   <si>
@@ -1669,58 +1669,58 @@
     <t>Reconstruction et réhabilitation immédiate post-urgence</t>
   </si>
   <si>
+    <t>730</t>
+  </si>
+  <si>
     <t>Reconstruction &amp; Réhabilitation</t>
   </si>
   <si>
-    <t>730</t>
-  </si>
-  <si>
     <t>74020</t>
   </si>
   <si>
     <t>Préparation aux interventions multi-risques</t>
   </si>
   <si>
+    <t>740</t>
+  </si>
+  <si>
     <t>Prévention catastrophes/Préparation à leur survenue</t>
   </si>
   <si>
-    <t>740</t>
-  </si>
-  <si>
     <t>91010</t>
   </si>
   <si>
     <t>Frais administratifs (non alloués par secteur)</t>
   </si>
   <si>
+    <t>910</t>
+  </si>
+  <si>
     <t>Frais Administratifs des Donneurs</t>
   </si>
   <si>
-    <t>910</t>
-  </si>
-  <si>
     <t>93010</t>
   </si>
   <si>
     <t>Refugiés/demandeurs d'asile dans les pays donneurs (non alloués)</t>
   </si>
   <si>
+    <t>930</t>
+  </si>
+  <si>
     <t>Refugiés dans les Pays Donneurs</t>
   </si>
   <si>
-    <t>930</t>
-  </si>
-  <si>
     <t>99810</t>
   </si>
   <si>
     <t>Secteur non spécifié</t>
   </si>
   <si>
+    <t>998</t>
+  </si>
+  <si>
     <t>Non Affecté / Non Specifié</t>
-  </si>
-  <si>
-    <t>998</t>
   </si>
   <si>
     <t>99820</t>
@@ -2190,16 +2190,16 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
       <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
         <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2213,16 +2213,16 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
       </c>
       <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
         <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2236,16 +2236,16 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
       </c>
       <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
         <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2259,16 +2259,16 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
       </c>
       <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
         <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2282,16 +2282,16 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
       </c>
       <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
         <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2305,16 +2305,16 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
       </c>
       <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
         <v>23</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2328,16 +2328,16 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
       </c>
       <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
         <v>23</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2351,16 +2351,16 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
       </c>
       <c r="F13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" t="s">
         <v>39</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2374,16 +2374,16 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
       </c>
       <c r="F14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" t="s">
         <v>39</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2397,16 +2397,16 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
       </c>
       <c r="F15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" t="s">
         <v>45</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2420,16 +2420,16 @@
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
       </c>
       <c r="F16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" t="s">
         <v>45</v>
-      </c>
-      <c r="G16" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2535,16 +2535,16 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
         <v>51</v>
       </c>
       <c r="F21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" t="s">
         <v>63</v>
-      </c>
-      <c r="G21" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2558,16 +2558,16 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E22" t="s">
         <v>51</v>
       </c>
       <c r="F22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" t="s">
         <v>63</v>
-      </c>
-      <c r="G22" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2581,16 +2581,16 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E23" t="s">
         <v>51</v>
       </c>
       <c r="F23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" t="s">
         <v>63</v>
-      </c>
-      <c r="G23" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2604,16 +2604,16 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E24" t="s">
         <v>51</v>
       </c>
       <c r="F24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" t="s">
         <v>63</v>
-      </c>
-      <c r="G24" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2627,16 +2627,16 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E25" t="s">
         <v>51</v>
       </c>
       <c r="F25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" t="s">
         <v>63</v>
-      </c>
-      <c r="G25" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2650,16 +2650,16 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E26" t="s">
         <v>51</v>
       </c>
       <c r="F26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" t="s">
         <v>63</v>
-      </c>
-      <c r="G26" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2673,16 +2673,16 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E27" t="s">
         <v>51</v>
       </c>
       <c r="F27" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" t="s">
         <v>63</v>
-      </c>
-      <c r="G27" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2696,16 +2696,16 @@
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E28" t="s">
         <v>51</v>
       </c>
       <c r="F28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" t="s">
         <v>63</v>
-      </c>
-      <c r="G28" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2719,16 +2719,16 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E29" t="s">
         <v>51</v>
       </c>
       <c r="F29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" t="s">
         <v>63</v>
-      </c>
-      <c r="G29" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2742,16 +2742,16 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="E30" t="s">
         <v>51</v>
       </c>
       <c r="F30" t="s">
+        <v>82</v>
+      </c>
+      <c r="G30" t="s">
         <v>83</v>
-      </c>
-      <c r="G30" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2765,16 +2765,16 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="E31" t="s">
         <v>51</v>
       </c>
       <c r="F31" t="s">
+        <v>82</v>
+      </c>
+      <c r="G31" t="s">
         <v>83</v>
-      </c>
-      <c r="G31" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2788,16 +2788,16 @@
         <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="E32" t="s">
         <v>51</v>
       </c>
       <c r="F32" t="s">
+        <v>82</v>
+      </c>
+      <c r="G32" t="s">
         <v>83</v>
-      </c>
-      <c r="G32" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2811,16 +2811,16 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="E33" t="s">
         <v>51</v>
       </c>
       <c r="F33" t="s">
+        <v>82</v>
+      </c>
+      <c r="G33" t="s">
         <v>83</v>
-      </c>
-      <c r="G33" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2834,16 +2834,16 @@
         <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="E34" t="s">
         <v>51</v>
       </c>
       <c r="F34" t="s">
+        <v>82</v>
+      </c>
+      <c r="G34" t="s">
         <v>83</v>
-      </c>
-      <c r="G34" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2857,16 +2857,16 @@
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="E35" t="s">
         <v>51</v>
       </c>
       <c r="F35" t="s">
+        <v>82</v>
+      </c>
+      <c r="G35" t="s">
         <v>83</v>
-      </c>
-      <c r="G35" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2883,10 +2883,10 @@
         <v>96</v>
       </c>
       <c r="E36" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" t="s">
         <v>96</v>
-      </c>
-      <c r="F36" t="s">
-        <v>97</v>
       </c>
       <c r="G36" t="s">
         <v>97</v>
@@ -2906,10 +2906,10 @@
         <v>96</v>
       </c>
       <c r="E37" t="s">
+        <v>97</v>
+      </c>
+      <c r="F37" t="s">
         <v>96</v>
-      </c>
-      <c r="F37" t="s">
-        <v>97</v>
       </c>
       <c r="G37" t="s">
         <v>97</v>
@@ -2929,10 +2929,10 @@
         <v>96</v>
       </c>
       <c r="E38" t="s">
+        <v>97</v>
+      </c>
+      <c r="F38" t="s">
         <v>96</v>
-      </c>
-      <c r="F38" t="s">
-        <v>97</v>
       </c>
       <c r="G38" t="s">
         <v>97</v>
@@ -2952,10 +2952,10 @@
         <v>96</v>
       </c>
       <c r="E39" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39" t="s">
         <v>96</v>
-      </c>
-      <c r="F39" t="s">
-        <v>97</v>
       </c>
       <c r="G39" t="s">
         <v>97</v>
@@ -2975,10 +2975,10 @@
         <v>96</v>
       </c>
       <c r="E40" t="s">
+        <v>97</v>
+      </c>
+      <c r="F40" t="s">
         <v>96</v>
-      </c>
-      <c r="F40" t="s">
-        <v>97</v>
       </c>
       <c r="G40" t="s">
         <v>97</v>
@@ -2998,10 +2998,10 @@
         <v>108</v>
       </c>
       <c r="E41" t="s">
+        <v>109</v>
+      </c>
+      <c r="F41" t="s">
         <v>108</v>
-      </c>
-      <c r="F41" t="s">
-        <v>109</v>
       </c>
       <c r="G41" t="s">
         <v>109</v>
@@ -3021,10 +3021,10 @@
         <v>108</v>
       </c>
       <c r="E42" t="s">
+        <v>109</v>
+      </c>
+      <c r="F42" t="s">
         <v>108</v>
-      </c>
-      <c r="F42" t="s">
-        <v>109</v>
       </c>
       <c r="G42" t="s">
         <v>109</v>
@@ -3044,10 +3044,10 @@
         <v>108</v>
       </c>
       <c r="E43" t="s">
+        <v>109</v>
+      </c>
+      <c r="F43" t="s">
         <v>108</v>
-      </c>
-      <c r="F43" t="s">
-        <v>109</v>
       </c>
       <c r="G43" t="s">
         <v>109</v>
@@ -3067,10 +3067,10 @@
         <v>108</v>
       </c>
       <c r="E44" t="s">
+        <v>109</v>
+      </c>
+      <c r="F44" t="s">
         <v>108</v>
-      </c>
-      <c r="F44" t="s">
-        <v>109</v>
       </c>
       <c r="G44" t="s">
         <v>109</v>
@@ -3090,10 +3090,10 @@
         <v>108</v>
       </c>
       <c r="E45" t="s">
+        <v>109</v>
+      </c>
+      <c r="F45" t="s">
         <v>108</v>
-      </c>
-      <c r="F45" t="s">
-        <v>109</v>
       </c>
       <c r="G45" t="s">
         <v>109</v>
@@ -3113,10 +3113,10 @@
         <v>108</v>
       </c>
       <c r="E46" t="s">
+        <v>109</v>
+      </c>
+      <c r="F46" t="s">
         <v>108</v>
-      </c>
-      <c r="F46" t="s">
-        <v>109</v>
       </c>
       <c r="G46" t="s">
         <v>109</v>
@@ -3136,10 +3136,10 @@
         <v>108</v>
       </c>
       <c r="E47" t="s">
+        <v>109</v>
+      </c>
+      <c r="F47" t="s">
         <v>108</v>
-      </c>
-      <c r="F47" t="s">
-        <v>109</v>
       </c>
       <c r="G47" t="s">
         <v>109</v>
@@ -3159,10 +3159,10 @@
         <v>108</v>
       </c>
       <c r="E48" t="s">
+        <v>109</v>
+      </c>
+      <c r="F48" t="s">
         <v>108</v>
-      </c>
-      <c r="F48" t="s">
-        <v>109</v>
       </c>
       <c r="G48" t="s">
         <v>109</v>
@@ -3182,10 +3182,10 @@
         <v>108</v>
       </c>
       <c r="E49" t="s">
+        <v>109</v>
+      </c>
+      <c r="F49" t="s">
         <v>108</v>
-      </c>
-      <c r="F49" t="s">
-        <v>109</v>
       </c>
       <c r="G49" t="s">
         <v>109</v>
@@ -3205,10 +3205,10 @@
         <v>108</v>
       </c>
       <c r="E50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F50" t="s">
         <v>108</v>
-      </c>
-      <c r="F50" t="s">
-        <v>109</v>
       </c>
       <c r="G50" t="s">
         <v>109</v>
@@ -3228,10 +3228,10 @@
         <v>108</v>
       </c>
       <c r="E51" t="s">
+        <v>109</v>
+      </c>
+      <c r="F51" t="s">
         <v>108</v>
-      </c>
-      <c r="F51" t="s">
-        <v>109</v>
       </c>
       <c r="G51" t="s">
         <v>109</v>
@@ -3616,16 +3616,16 @@
         <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="E68" t="s">
         <v>133</v>
       </c>
       <c r="F68" t="s">
+        <v>168</v>
+      </c>
+      <c r="G68" t="s">
         <v>169</v>
-      </c>
-      <c r="G68" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3639,16 +3639,16 @@
         <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="E69" t="s">
         <v>133</v>
       </c>
       <c r="F69" t="s">
+        <v>168</v>
+      </c>
+      <c r="G69" t="s">
         <v>169</v>
-      </c>
-      <c r="G69" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3662,16 +3662,16 @@
         <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="E70" t="s">
         <v>133</v>
       </c>
       <c r="F70" t="s">
+        <v>168</v>
+      </c>
+      <c r="G70" t="s">
         <v>169</v>
-      </c>
-      <c r="G70" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3685,16 +3685,16 @@
         <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="E71" t="s">
         <v>133</v>
       </c>
       <c r="F71" t="s">
+        <v>168</v>
+      </c>
+      <c r="G71" t="s">
         <v>169</v>
-      </c>
-      <c r="G71" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3708,16 +3708,16 @@
         <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="E72" t="s">
         <v>133</v>
       </c>
       <c r="F72" t="s">
+        <v>168</v>
+      </c>
+      <c r="G72" t="s">
         <v>169</v>
-      </c>
-      <c r="G72" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3731,16 +3731,16 @@
         <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="E73" t="s">
         <v>133</v>
       </c>
       <c r="F73" t="s">
+        <v>168</v>
+      </c>
+      <c r="G73" t="s">
         <v>169</v>
-      </c>
-      <c r="G73" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3757,10 +3757,10 @@
         <v>182</v>
       </c>
       <c r="E74" t="s">
+        <v>183</v>
+      </c>
+      <c r="F74" t="s">
         <v>182</v>
-      </c>
-      <c r="F74" t="s">
-        <v>183</v>
       </c>
       <c r="G74" t="s">
         <v>183</v>
@@ -3780,10 +3780,10 @@
         <v>182</v>
       </c>
       <c r="E75" t="s">
+        <v>183</v>
+      </c>
+      <c r="F75" t="s">
         <v>182</v>
-      </c>
-      <c r="F75" t="s">
-        <v>183</v>
       </c>
       <c r="G75" t="s">
         <v>183</v>
@@ -3803,10 +3803,10 @@
         <v>182</v>
       </c>
       <c r="E76" t="s">
+        <v>183</v>
+      </c>
+      <c r="F76" t="s">
         <v>182</v>
-      </c>
-      <c r="F76" t="s">
-        <v>183</v>
       </c>
       <c r="G76" t="s">
         <v>183</v>
@@ -3826,10 +3826,10 @@
         <v>182</v>
       </c>
       <c r="E77" t="s">
+        <v>183</v>
+      </c>
+      <c r="F77" t="s">
         <v>182</v>
-      </c>
-      <c r="F77" t="s">
-        <v>183</v>
       </c>
       <c r="G77" t="s">
         <v>183</v>
@@ -3849,10 +3849,10 @@
         <v>182</v>
       </c>
       <c r="E78" t="s">
+        <v>183</v>
+      </c>
+      <c r="F78" t="s">
         <v>182</v>
-      </c>
-      <c r="F78" t="s">
-        <v>183</v>
       </c>
       <c r="G78" t="s">
         <v>183</v>
@@ -3872,10 +3872,10 @@
         <v>182</v>
       </c>
       <c r="E79" t="s">
+        <v>183</v>
+      </c>
+      <c r="F79" t="s">
         <v>182</v>
-      </c>
-      <c r="F79" t="s">
-        <v>183</v>
       </c>
       <c r="G79" t="s">
         <v>183</v>
@@ -3895,10 +3895,10 @@
         <v>182</v>
       </c>
       <c r="E80" t="s">
+        <v>183</v>
+      </c>
+      <c r="F80" t="s">
         <v>182</v>
-      </c>
-      <c r="F80" t="s">
-        <v>183</v>
       </c>
       <c r="G80" t="s">
         <v>183</v>
@@ -3918,10 +3918,10 @@
         <v>182</v>
       </c>
       <c r="E81" t="s">
+        <v>183</v>
+      </c>
+      <c r="F81" t="s">
         <v>182</v>
-      </c>
-      <c r="F81" t="s">
-        <v>183</v>
       </c>
       <c r="G81" t="s">
         <v>183</v>
@@ -3941,10 +3941,10 @@
         <v>182</v>
       </c>
       <c r="E82" t="s">
+        <v>183</v>
+      </c>
+      <c r="F82" t="s">
         <v>182</v>
-      </c>
-      <c r="F82" t="s">
-        <v>183</v>
       </c>
       <c r="G82" t="s">
         <v>183</v>
@@ -3964,10 +3964,10 @@
         <v>182</v>
       </c>
       <c r="E83" t="s">
+        <v>183</v>
+      </c>
+      <c r="F83" t="s">
         <v>182</v>
-      </c>
-      <c r="F83" t="s">
-        <v>183</v>
       </c>
       <c r="G83" t="s">
         <v>183</v>
@@ -3987,10 +3987,10 @@
         <v>182</v>
       </c>
       <c r="E84" t="s">
+        <v>183</v>
+      </c>
+      <c r="F84" t="s">
         <v>182</v>
-      </c>
-      <c r="F84" t="s">
-        <v>183</v>
       </c>
       <c r="G84" t="s">
         <v>183</v>
@@ -4010,10 +4010,10 @@
         <v>206</v>
       </c>
       <c r="E85" t="s">
+        <v>207</v>
+      </c>
+      <c r="F85" t="s">
         <v>206</v>
-      </c>
-      <c r="F85" t="s">
-        <v>207</v>
       </c>
       <c r="G85" t="s">
         <v>207</v>
@@ -4033,10 +4033,10 @@
         <v>206</v>
       </c>
       <c r="E86" t="s">
+        <v>207</v>
+      </c>
+      <c r="F86" t="s">
         <v>206</v>
-      </c>
-      <c r="F86" t="s">
-        <v>207</v>
       </c>
       <c r="G86" t="s">
         <v>207</v>
@@ -4056,10 +4056,10 @@
         <v>206</v>
       </c>
       <c r="E87" t="s">
+        <v>207</v>
+      </c>
+      <c r="F87" t="s">
         <v>206</v>
-      </c>
-      <c r="F87" t="s">
-        <v>207</v>
       </c>
       <c r="G87" t="s">
         <v>207</v>
@@ -4079,10 +4079,10 @@
         <v>206</v>
       </c>
       <c r="E88" t="s">
+        <v>207</v>
+      </c>
+      <c r="F88" t="s">
         <v>206</v>
-      </c>
-      <c r="F88" t="s">
-        <v>207</v>
       </c>
       <c r="G88" t="s">
         <v>207</v>
@@ -4102,10 +4102,10 @@
         <v>206</v>
       </c>
       <c r="E89" t="s">
+        <v>207</v>
+      </c>
+      <c r="F89" t="s">
         <v>206</v>
-      </c>
-      <c r="F89" t="s">
-        <v>207</v>
       </c>
       <c r="G89" t="s">
         <v>207</v>
@@ -4125,10 +4125,10 @@
         <v>206</v>
       </c>
       <c r="E90" t="s">
+        <v>207</v>
+      </c>
+      <c r="F90" t="s">
         <v>206</v>
-      </c>
-      <c r="F90" t="s">
-        <v>207</v>
       </c>
       <c r="G90" t="s">
         <v>207</v>
@@ -4148,10 +4148,10 @@
         <v>206</v>
       </c>
       <c r="E91" t="s">
+        <v>207</v>
+      </c>
+      <c r="F91" t="s">
         <v>206</v>
-      </c>
-      <c r="F91" t="s">
-        <v>207</v>
       </c>
       <c r="G91" t="s">
         <v>207</v>
@@ -4171,10 +4171,10 @@
         <v>222</v>
       </c>
       <c r="E92" t="s">
+        <v>223</v>
+      </c>
+      <c r="F92" t="s">
         <v>222</v>
-      </c>
-      <c r="F92" t="s">
-        <v>223</v>
       </c>
       <c r="G92" t="s">
         <v>223</v>
@@ -4194,10 +4194,10 @@
         <v>222</v>
       </c>
       <c r="E93" t="s">
+        <v>223</v>
+      </c>
+      <c r="F93" t="s">
         <v>222</v>
-      </c>
-      <c r="F93" t="s">
-        <v>223</v>
       </c>
       <c r="G93" t="s">
         <v>223</v>
@@ -4217,10 +4217,10 @@
         <v>222</v>
       </c>
       <c r="E94" t="s">
+        <v>223</v>
+      </c>
+      <c r="F94" t="s">
         <v>222</v>
-      </c>
-      <c r="F94" t="s">
-        <v>223</v>
       </c>
       <c r="G94" t="s">
         <v>223</v>
@@ -4240,10 +4240,10 @@
         <v>222</v>
       </c>
       <c r="E95" t="s">
+        <v>223</v>
+      </c>
+      <c r="F95" t="s">
         <v>222</v>
-      </c>
-      <c r="F95" t="s">
-        <v>223</v>
       </c>
       <c r="G95" t="s">
         <v>223</v>
@@ -4352,16 +4352,16 @@
         <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="E100" t="s">
         <v>233</v>
       </c>
       <c r="F100" t="s">
+        <v>244</v>
+      </c>
+      <c r="G100" t="s">
         <v>245</v>
-      </c>
-      <c r="G100" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4375,16 +4375,16 @@
         <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="E101" t="s">
         <v>233</v>
       </c>
       <c r="F101" t="s">
+        <v>244</v>
+      </c>
+      <c r="G101" t="s">
         <v>245</v>
-      </c>
-      <c r="G101" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4398,16 +4398,16 @@
         <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="E102" t="s">
         <v>233</v>
       </c>
       <c r="F102" t="s">
+        <v>244</v>
+      </c>
+      <c r="G102" t="s">
         <v>245</v>
-      </c>
-      <c r="G102" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -4421,16 +4421,16 @@
         <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="E103" t="s">
         <v>233</v>
       </c>
       <c r="F103" t="s">
+        <v>244</v>
+      </c>
+      <c r="G103" t="s">
         <v>245</v>
-      </c>
-      <c r="G103" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4444,16 +4444,16 @@
         <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="E104" t="s">
         <v>233</v>
       </c>
       <c r="F104" t="s">
+        <v>244</v>
+      </c>
+      <c r="G104" t="s">
         <v>245</v>
-      </c>
-      <c r="G104" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4467,16 +4467,16 @@
         <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="E105" t="s">
         <v>233</v>
       </c>
       <c r="F105" t="s">
+        <v>244</v>
+      </c>
+      <c r="G105" t="s">
         <v>245</v>
-      </c>
-      <c r="G105" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4490,16 +4490,16 @@
         <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="E106" t="s">
         <v>233</v>
       </c>
       <c r="F106" t="s">
+        <v>244</v>
+      </c>
+      <c r="G106" t="s">
         <v>245</v>
-      </c>
-      <c r="G106" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4513,16 +4513,16 @@
         <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="E107" t="s">
         <v>233</v>
       </c>
       <c r="F107" t="s">
+        <v>244</v>
+      </c>
+      <c r="G107" t="s">
         <v>245</v>
-      </c>
-      <c r="G107" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4536,16 +4536,16 @@
         <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="E108" t="s">
         <v>233</v>
       </c>
       <c r="F108" t="s">
+        <v>244</v>
+      </c>
+      <c r="G108" t="s">
         <v>245</v>
-      </c>
-      <c r="G108" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4559,16 +4559,16 @@
         <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="E109" t="s">
         <v>233</v>
       </c>
       <c r="F109" t="s">
+        <v>264</v>
+      </c>
+      <c r="G109" t="s">
         <v>265</v>
-      </c>
-      <c r="G109" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4582,16 +4582,16 @@
         <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="E110" t="s">
         <v>233</v>
       </c>
       <c r="F110" t="s">
+        <v>264</v>
+      </c>
+      <c r="G110" t="s">
         <v>265</v>
-      </c>
-      <c r="G110" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4605,16 +4605,16 @@
         <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="E111" t="s">
         <v>233</v>
       </c>
       <c r="F111" t="s">
+        <v>264</v>
+      </c>
+      <c r="G111" t="s">
         <v>265</v>
-      </c>
-      <c r="G111" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4628,16 +4628,16 @@
         <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="E112" t="s">
         <v>233</v>
       </c>
       <c r="F112" t="s">
+        <v>264</v>
+      </c>
+      <c r="G112" t="s">
         <v>265</v>
-      </c>
-      <c r="G112" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4651,16 +4651,16 @@
         <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="E113" t="s">
         <v>233</v>
       </c>
       <c r="F113" t="s">
+        <v>264</v>
+      </c>
+      <c r="G113" t="s">
         <v>265</v>
-      </c>
-      <c r="G113" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4674,16 +4674,16 @@
         <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="E114" t="s">
         <v>233</v>
       </c>
       <c r="F114" t="s">
+        <v>264</v>
+      </c>
+      <c r="G114" t="s">
         <v>265</v>
-      </c>
-      <c r="G114" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4697,7 +4697,7 @@
         <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>277</v>
+        <v>232</v>
       </c>
       <c r="E115" t="s">
         <v>233</v>
@@ -4706,7 +4706,7 @@
         <v>278</v>
       </c>
       <c r="G115" t="s">
-        <v>235</v>
+        <v>277</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4720,16 +4720,16 @@
         <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="E116" t="s">
         <v>233</v>
       </c>
       <c r="F116" t="s">
+        <v>281</v>
+      </c>
+      <c r="G116" t="s">
         <v>282</v>
-      </c>
-      <c r="G116" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4743,16 +4743,16 @@
         <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="E117" t="s">
         <v>233</v>
       </c>
       <c r="F117" t="s">
+        <v>285</v>
+      </c>
+      <c r="G117" t="s">
         <v>286</v>
-      </c>
-      <c r="G117" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4766,16 +4766,16 @@
         <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="E118" t="s">
         <v>233</v>
       </c>
       <c r="F118" t="s">
+        <v>285</v>
+      </c>
+      <c r="G118" t="s">
         <v>286</v>
-      </c>
-      <c r="G118" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4789,16 +4789,16 @@
         <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="E119" t="s">
         <v>233</v>
       </c>
       <c r="F119" t="s">
+        <v>285</v>
+      </c>
+      <c r="G119" t="s">
         <v>286</v>
-      </c>
-      <c r="G119" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4812,16 +4812,16 @@
         <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="E120" t="s">
         <v>233</v>
       </c>
       <c r="F120" t="s">
+        <v>285</v>
+      </c>
+      <c r="G120" t="s">
         <v>286</v>
-      </c>
-      <c r="G120" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4835,16 +4835,16 @@
         <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="E121" t="s">
         <v>233</v>
       </c>
       <c r="F121" t="s">
+        <v>285</v>
+      </c>
+      <c r="G121" t="s">
         <v>286</v>
-      </c>
-      <c r="G121" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4858,16 +4858,16 @@
         <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="E122" t="s">
         <v>233</v>
       </c>
       <c r="F122" t="s">
+        <v>285</v>
+      </c>
+      <c r="G122" t="s">
         <v>286</v>
-      </c>
-      <c r="G122" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4881,16 +4881,16 @@
         <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="E123" t="s">
         <v>233</v>
       </c>
       <c r="F123" t="s">
+        <v>285</v>
+      </c>
+      <c r="G123" t="s">
         <v>286</v>
-      </c>
-      <c r="G123" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4907,10 +4907,10 @@
         <v>301</v>
       </c>
       <c r="E124" t="s">
+        <v>302</v>
+      </c>
+      <c r="F124" t="s">
         <v>301</v>
-      </c>
-      <c r="F124" t="s">
-        <v>302</v>
       </c>
       <c r="G124" t="s">
         <v>302</v>
@@ -4930,10 +4930,10 @@
         <v>301</v>
       </c>
       <c r="E125" t="s">
+        <v>302</v>
+      </c>
+      <c r="F125" t="s">
         <v>301</v>
-      </c>
-      <c r="F125" t="s">
-        <v>302</v>
       </c>
       <c r="G125" t="s">
         <v>302</v>
@@ -4953,10 +4953,10 @@
         <v>301</v>
       </c>
       <c r="E126" t="s">
+        <v>302</v>
+      </c>
+      <c r="F126" t="s">
         <v>301</v>
-      </c>
-      <c r="F126" t="s">
-        <v>302</v>
       </c>
       <c r="G126" t="s">
         <v>302</v>
@@ -4976,10 +4976,10 @@
         <v>301</v>
       </c>
       <c r="E127" t="s">
+        <v>302</v>
+      </c>
+      <c r="F127" t="s">
         <v>301</v>
-      </c>
-      <c r="F127" t="s">
-        <v>302</v>
       </c>
       <c r="G127" t="s">
         <v>302</v>
@@ -4999,10 +4999,10 @@
         <v>301</v>
       </c>
       <c r="E128" t="s">
+        <v>302</v>
+      </c>
+      <c r="F128" t="s">
         <v>301</v>
-      </c>
-      <c r="F128" t="s">
-        <v>302</v>
       </c>
       <c r="G128" t="s">
         <v>302</v>
@@ -5022,10 +5022,10 @@
         <v>301</v>
       </c>
       <c r="E129" t="s">
+        <v>302</v>
+      </c>
+      <c r="F129" t="s">
         <v>301</v>
-      </c>
-      <c r="F129" t="s">
-        <v>302</v>
       </c>
       <c r="G129" t="s">
         <v>302</v>
@@ -5045,10 +5045,10 @@
         <v>315</v>
       </c>
       <c r="E130" t="s">
+        <v>316</v>
+      </c>
+      <c r="F130" t="s">
         <v>315</v>
-      </c>
-      <c r="F130" t="s">
-        <v>316</v>
       </c>
       <c r="G130" t="s">
         <v>316</v>
@@ -5068,10 +5068,10 @@
         <v>315</v>
       </c>
       <c r="E131" t="s">
+        <v>316</v>
+      </c>
+      <c r="F131" t="s">
         <v>315</v>
-      </c>
-      <c r="F131" t="s">
-        <v>316</v>
       </c>
       <c r="G131" t="s">
         <v>316</v>
@@ -5091,10 +5091,10 @@
         <v>315</v>
       </c>
       <c r="E132" t="s">
+        <v>316</v>
+      </c>
+      <c r="F132" t="s">
         <v>315</v>
-      </c>
-      <c r="F132" t="s">
-        <v>316</v>
       </c>
       <c r="G132" t="s">
         <v>316</v>
@@ -5114,10 +5114,10 @@
         <v>315</v>
       </c>
       <c r="E133" t="s">
+        <v>316</v>
+      </c>
+      <c r="F133" t="s">
         <v>315</v>
-      </c>
-      <c r="F133" t="s">
-        <v>316</v>
       </c>
       <c r="G133" t="s">
         <v>316</v>
@@ -5548,16 +5548,16 @@
         <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>365</v>
+        <v>325</v>
       </c>
       <c r="E152" t="s">
         <v>326</v>
       </c>
       <c r="F152" t="s">
+        <v>365</v>
+      </c>
+      <c r="G152" t="s">
         <v>366</v>
-      </c>
-      <c r="G152" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -5571,16 +5571,16 @@
         <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>365</v>
+        <v>325</v>
       </c>
       <c r="E153" t="s">
         <v>326</v>
       </c>
       <c r="F153" t="s">
+        <v>365</v>
+      </c>
+      <c r="G153" t="s">
         <v>366</v>
-      </c>
-      <c r="G153" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -5594,16 +5594,16 @@
         <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>365</v>
+        <v>325</v>
       </c>
       <c r="E154" t="s">
         <v>326</v>
       </c>
       <c r="F154" t="s">
+        <v>365</v>
+      </c>
+      <c r="G154" t="s">
         <v>366</v>
-      </c>
-      <c r="G154" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -5617,16 +5617,16 @@
         <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>365</v>
+        <v>325</v>
       </c>
       <c r="E155" t="s">
         <v>326</v>
       </c>
       <c r="F155" t="s">
+        <v>365</v>
+      </c>
+      <c r="G155" t="s">
         <v>366</v>
-      </c>
-      <c r="G155" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5640,16 +5640,16 @@
         <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>365</v>
+        <v>325</v>
       </c>
       <c r="E156" t="s">
         <v>326</v>
       </c>
       <c r="F156" t="s">
+        <v>365</v>
+      </c>
+      <c r="G156" t="s">
         <v>366</v>
-      </c>
-      <c r="G156" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -5663,16 +5663,16 @@
         <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>365</v>
+        <v>325</v>
       </c>
       <c r="E157" t="s">
         <v>326</v>
       </c>
       <c r="F157" t="s">
+        <v>365</v>
+      </c>
+      <c r="G157" t="s">
         <v>366</v>
-      </c>
-      <c r="G157" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -5686,16 +5686,16 @@
         <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>379</v>
+        <v>325</v>
       </c>
       <c r="E158" t="s">
         <v>326</v>
       </c>
       <c r="F158" t="s">
+        <v>379</v>
+      </c>
+      <c r="G158" t="s">
         <v>380</v>
-      </c>
-      <c r="G158" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -5709,16 +5709,16 @@
         <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>379</v>
+        <v>325</v>
       </c>
       <c r="E159" t="s">
         <v>326</v>
       </c>
       <c r="F159" t="s">
+        <v>379</v>
+      </c>
+      <c r="G159" t="s">
         <v>380</v>
-      </c>
-      <c r="G159" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -5732,16 +5732,16 @@
         <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>379</v>
+        <v>325</v>
       </c>
       <c r="E160" t="s">
         <v>326</v>
       </c>
       <c r="F160" t="s">
+        <v>379</v>
+      </c>
+      <c r="G160" t="s">
         <v>380</v>
-      </c>
-      <c r="G160" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -5755,16 +5755,16 @@
         <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>379</v>
+        <v>325</v>
       </c>
       <c r="E161" t="s">
         <v>326</v>
       </c>
       <c r="F161" t="s">
+        <v>379</v>
+      </c>
+      <c r="G161" t="s">
         <v>380</v>
-      </c>
-      <c r="G161" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -5778,16 +5778,16 @@
         <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>379</v>
+        <v>325</v>
       </c>
       <c r="E162" t="s">
         <v>326</v>
       </c>
       <c r="F162" t="s">
+        <v>379</v>
+      </c>
+      <c r="G162" t="s">
         <v>380</v>
-      </c>
-      <c r="G162" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -6238,16 +6238,16 @@
         <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>433</v>
+        <v>391</v>
       </c>
       <c r="E182" t="s">
         <v>392</v>
       </c>
       <c r="F182" t="s">
+        <v>433</v>
+      </c>
+      <c r="G182" t="s">
         <v>434</v>
-      </c>
-      <c r="G182" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -6261,16 +6261,16 @@
         <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>433</v>
+        <v>391</v>
       </c>
       <c r="E183" t="s">
         <v>392</v>
       </c>
       <c r="F183" t="s">
+        <v>433</v>
+      </c>
+      <c r="G183" t="s">
         <v>434</v>
-      </c>
-      <c r="G183" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -6284,16 +6284,16 @@
         <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>433</v>
+        <v>391</v>
       </c>
       <c r="E184" t="s">
         <v>392</v>
       </c>
       <c r="F184" t="s">
+        <v>433</v>
+      </c>
+      <c r="G184" t="s">
         <v>434</v>
-      </c>
-      <c r="G184" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -6307,16 +6307,16 @@
         <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>433</v>
+        <v>391</v>
       </c>
       <c r="E185" t="s">
         <v>392</v>
       </c>
       <c r="F185" t="s">
+        <v>433</v>
+      </c>
+      <c r="G185" t="s">
         <v>434</v>
-      </c>
-      <c r="G185" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -6330,16 +6330,16 @@
         <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>433</v>
+        <v>391</v>
       </c>
       <c r="E186" t="s">
         <v>392</v>
       </c>
       <c r="F186" t="s">
+        <v>433</v>
+      </c>
+      <c r="G186" t="s">
         <v>434</v>
-      </c>
-      <c r="G186" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -6353,16 +6353,16 @@
         <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>433</v>
+        <v>391</v>
       </c>
       <c r="E187" t="s">
         <v>392</v>
       </c>
       <c r="F187" t="s">
+        <v>433</v>
+      </c>
+      <c r="G187" t="s">
         <v>434</v>
-      </c>
-      <c r="G187" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -6376,16 +6376,16 @@
         <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>433</v>
+        <v>391</v>
       </c>
       <c r="E188" t="s">
         <v>392</v>
       </c>
       <c r="F188" t="s">
+        <v>433</v>
+      </c>
+      <c r="G188" t="s">
         <v>434</v>
-      </c>
-      <c r="G188" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -6399,16 +6399,16 @@
         <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>433</v>
+        <v>391</v>
       </c>
       <c r="E189" t="s">
         <v>392</v>
       </c>
       <c r="F189" t="s">
+        <v>433</v>
+      </c>
+      <c r="G189" t="s">
         <v>434</v>
-      </c>
-      <c r="G189" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -6422,16 +6422,16 @@
         <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>433</v>
+        <v>391</v>
       </c>
       <c r="E190" t="s">
         <v>392</v>
       </c>
       <c r="F190" t="s">
+        <v>433</v>
+      </c>
+      <c r="G190" t="s">
         <v>434</v>
-      </c>
-      <c r="G190" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -6445,16 +6445,16 @@
         <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>433</v>
+        <v>391</v>
       </c>
       <c r="E191" t="s">
         <v>392</v>
       </c>
       <c r="F191" t="s">
+        <v>433</v>
+      </c>
+      <c r="G191" t="s">
         <v>434</v>
-      </c>
-      <c r="G191" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -6468,16 +6468,16 @@
         <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>455</v>
+        <v>391</v>
       </c>
       <c r="E192" t="s">
         <v>392</v>
       </c>
       <c r="F192" t="s">
+        <v>455</v>
+      </c>
+      <c r="G192" t="s">
         <v>456</v>
-      </c>
-      <c r="G192" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -6494,10 +6494,10 @@
         <v>459</v>
       </c>
       <c r="E193" t="s">
+        <v>460</v>
+      </c>
+      <c r="F193" t="s">
         <v>459</v>
-      </c>
-      <c r="F193" t="s">
-        <v>460</v>
       </c>
       <c r="G193" t="s">
         <v>460</v>
@@ -6517,10 +6517,10 @@
         <v>459</v>
       </c>
       <c r="E194" t="s">
+        <v>460</v>
+      </c>
+      <c r="F194" t="s">
         <v>459</v>
-      </c>
-      <c r="F194" t="s">
-        <v>460</v>
       </c>
       <c r="G194" t="s">
         <v>460</v>
@@ -6540,10 +6540,10 @@
         <v>459</v>
       </c>
       <c r="E195" t="s">
+        <v>460</v>
+      </c>
+      <c r="F195" t="s">
         <v>459</v>
-      </c>
-      <c r="F195" t="s">
-        <v>460</v>
       </c>
       <c r="G195" t="s">
         <v>460</v>
@@ -6563,10 +6563,10 @@
         <v>459</v>
       </c>
       <c r="E196" t="s">
+        <v>460</v>
+      </c>
+      <c r="F196" t="s">
         <v>459</v>
-      </c>
-      <c r="F196" t="s">
-        <v>460</v>
       </c>
       <c r="G196" t="s">
         <v>460</v>
@@ -6586,10 +6586,10 @@
         <v>459</v>
       </c>
       <c r="E197" t="s">
+        <v>460</v>
+      </c>
+      <c r="F197" t="s">
         <v>459</v>
-      </c>
-      <c r="F197" t="s">
-        <v>460</v>
       </c>
       <c r="G197" t="s">
         <v>460</v>
@@ -6609,10 +6609,10 @@
         <v>459</v>
       </c>
       <c r="E198" t="s">
+        <v>460</v>
+      </c>
+      <c r="F198" t="s">
         <v>459</v>
-      </c>
-      <c r="F198" t="s">
-        <v>460</v>
       </c>
       <c r="G198" t="s">
         <v>460</v>
@@ -6632,10 +6632,10 @@
         <v>473</v>
       </c>
       <c r="E199" t="s">
+        <v>474</v>
+      </c>
+      <c r="F199" t="s">
         <v>473</v>
-      </c>
-      <c r="F199" t="s">
-        <v>474</v>
       </c>
       <c r="G199" t="s">
         <v>474</v>
@@ -6655,10 +6655,10 @@
         <v>477</v>
       </c>
       <c r="E200" t="s">
+        <v>478</v>
+      </c>
+      <c r="F200" t="s">
         <v>477</v>
-      </c>
-      <c r="F200" t="s">
-        <v>478</v>
       </c>
       <c r="G200" t="s">
         <v>478</v>
@@ -6678,10 +6678,10 @@
         <v>477</v>
       </c>
       <c r="E201" t="s">
+        <v>478</v>
+      </c>
+      <c r="F201" t="s">
         <v>477</v>
-      </c>
-      <c r="F201" t="s">
-        <v>478</v>
       </c>
       <c r="G201" t="s">
         <v>478</v>
@@ -6701,10 +6701,10 @@
         <v>477</v>
       </c>
       <c r="E202" t="s">
+        <v>478</v>
+      </c>
+      <c r="F202" t="s">
         <v>477</v>
-      </c>
-      <c r="F202" t="s">
-        <v>478</v>
       </c>
       <c r="G202" t="s">
         <v>478</v>
@@ -6724,10 +6724,10 @@
         <v>477</v>
       </c>
       <c r="E203" t="s">
+        <v>478</v>
+      </c>
+      <c r="F203" t="s">
         <v>477</v>
-      </c>
-      <c r="F203" t="s">
-        <v>478</v>
       </c>
       <c r="G203" t="s">
         <v>478</v>
@@ -6747,10 +6747,10 @@
         <v>477</v>
       </c>
       <c r="E204" t="s">
+        <v>478</v>
+      </c>
+      <c r="F204" t="s">
         <v>477</v>
-      </c>
-      <c r="F204" t="s">
-        <v>478</v>
       </c>
       <c r="G204" t="s">
         <v>478</v>
@@ -6770,10 +6770,10 @@
         <v>477</v>
       </c>
       <c r="E205" t="s">
+        <v>478</v>
+      </c>
+      <c r="F205" t="s">
         <v>477</v>
-      </c>
-      <c r="F205" t="s">
-        <v>478</v>
       </c>
       <c r="G205" t="s">
         <v>478</v>
@@ -6793,10 +6793,10 @@
         <v>491</v>
       </c>
       <c r="E206" t="s">
+        <v>492</v>
+      </c>
+      <c r="F206" t="s">
         <v>491</v>
-      </c>
-      <c r="F206" t="s">
-        <v>492</v>
       </c>
       <c r="G206" t="s">
         <v>492</v>
@@ -6816,10 +6816,10 @@
         <v>491</v>
       </c>
       <c r="E207" t="s">
+        <v>492</v>
+      </c>
+      <c r="F207" t="s">
         <v>491</v>
-      </c>
-      <c r="F207" t="s">
-        <v>492</v>
       </c>
       <c r="G207" t="s">
         <v>492</v>
@@ -6839,10 +6839,10 @@
         <v>491</v>
       </c>
       <c r="E208" t="s">
+        <v>492</v>
+      </c>
+      <c r="F208" t="s">
         <v>491</v>
-      </c>
-      <c r="F208" t="s">
-        <v>492</v>
       </c>
       <c r="G208" t="s">
         <v>492</v>
@@ -6862,10 +6862,10 @@
         <v>491</v>
       </c>
       <c r="E209" t="s">
+        <v>492</v>
+      </c>
+      <c r="F209" t="s">
         <v>491</v>
-      </c>
-      <c r="F209" t="s">
-        <v>492</v>
       </c>
       <c r="G209" t="s">
         <v>492</v>
@@ -6885,10 +6885,10 @@
         <v>491</v>
       </c>
       <c r="E210" t="s">
+        <v>492</v>
+      </c>
+      <c r="F210" t="s">
         <v>491</v>
-      </c>
-      <c r="F210" t="s">
-        <v>492</v>
       </c>
       <c r="G210" t="s">
         <v>492</v>
@@ -6908,10 +6908,10 @@
         <v>491</v>
       </c>
       <c r="E211" t="s">
+        <v>492</v>
+      </c>
+      <c r="F211" t="s">
         <v>491</v>
-      </c>
-      <c r="F211" t="s">
-        <v>492</v>
       </c>
       <c r="G211" t="s">
         <v>492</v>
@@ -6931,10 +6931,10 @@
         <v>491</v>
       </c>
       <c r="E212" t="s">
+        <v>492</v>
+      </c>
+      <c r="F212" t="s">
         <v>491</v>
-      </c>
-      <c r="F212" t="s">
-        <v>492</v>
       </c>
       <c r="G212" t="s">
         <v>492</v>
@@ -6954,10 +6954,10 @@
         <v>491</v>
       </c>
       <c r="E213" t="s">
+        <v>492</v>
+      </c>
+      <c r="F213" t="s">
         <v>491</v>
-      </c>
-      <c r="F213" t="s">
-        <v>492</v>
       </c>
       <c r="G213" t="s">
         <v>492</v>
@@ -6977,10 +6977,10 @@
         <v>491</v>
       </c>
       <c r="E214" t="s">
+        <v>492</v>
+      </c>
+      <c r="F214" t="s">
         <v>491</v>
-      </c>
-      <c r="F214" t="s">
-        <v>492</v>
       </c>
       <c r="G214" t="s">
         <v>492</v>
@@ -7000,10 +7000,10 @@
         <v>491</v>
       </c>
       <c r="E215" t="s">
+        <v>492</v>
+      </c>
+      <c r="F215" t="s">
         <v>491</v>
-      </c>
-      <c r="F215" t="s">
-        <v>492</v>
       </c>
       <c r="G215" t="s">
         <v>492</v>
@@ -7023,10 +7023,10 @@
         <v>513</v>
       </c>
       <c r="E216" t="s">
+        <v>514</v>
+      </c>
+      <c r="F216" t="s">
         <v>513</v>
-      </c>
-      <c r="F216" t="s">
-        <v>514</v>
       </c>
       <c r="G216" t="s">
         <v>514</v>
@@ -7046,10 +7046,10 @@
         <v>517</v>
       </c>
       <c r="E217" t="s">
+        <v>518</v>
+      </c>
+      <c r="F217" t="s">
         <v>517</v>
-      </c>
-      <c r="F217" t="s">
-        <v>518</v>
       </c>
       <c r="G217" t="s">
         <v>518</v>
@@ -7069,10 +7069,10 @@
         <v>521</v>
       </c>
       <c r="E218" t="s">
+        <v>522</v>
+      </c>
+      <c r="F218" t="s">
         <v>521</v>
-      </c>
-      <c r="F218" t="s">
-        <v>522</v>
       </c>
       <c r="G218" t="s">
         <v>522</v>
@@ -7092,10 +7092,10 @@
         <v>521</v>
       </c>
       <c r="E219" t="s">
+        <v>522</v>
+      </c>
+      <c r="F219" t="s">
         <v>521</v>
-      </c>
-      <c r="F219" t="s">
-        <v>522</v>
       </c>
       <c r="G219" t="s">
         <v>522</v>
@@ -7115,10 +7115,10 @@
         <v>527</v>
       </c>
       <c r="E220" t="s">
+        <v>528</v>
+      </c>
+      <c r="F220" t="s">
         <v>527</v>
-      </c>
-      <c r="F220" t="s">
-        <v>528</v>
       </c>
       <c r="G220" t="s">
         <v>528</v>
@@ -7138,10 +7138,10 @@
         <v>527</v>
       </c>
       <c r="E221" t="s">
+        <v>528</v>
+      </c>
+      <c r="F221" t="s">
         <v>527</v>
-      </c>
-      <c r="F221" t="s">
-        <v>528</v>
       </c>
       <c r="G221" t="s">
         <v>528</v>
@@ -7161,10 +7161,10 @@
         <v>527</v>
       </c>
       <c r="E222" t="s">
+        <v>528</v>
+      </c>
+      <c r="F222" t="s">
         <v>527</v>
-      </c>
-      <c r="F222" t="s">
-        <v>528</v>
       </c>
       <c r="G222" t="s">
         <v>528</v>
@@ -7184,10 +7184,10 @@
         <v>527</v>
       </c>
       <c r="E223" t="s">
+        <v>528</v>
+      </c>
+      <c r="F223" t="s">
         <v>527</v>
-      </c>
-      <c r="F223" t="s">
-        <v>528</v>
       </c>
       <c r="G223" t="s">
         <v>528</v>
@@ -7207,10 +7207,10 @@
         <v>527</v>
       </c>
       <c r="E224" t="s">
+        <v>528</v>
+      </c>
+      <c r="F224" t="s">
         <v>527</v>
-      </c>
-      <c r="F224" t="s">
-        <v>528</v>
       </c>
       <c r="G224" t="s">
         <v>528</v>
@@ -7230,10 +7230,10 @@
         <v>527</v>
       </c>
       <c r="E225" t="s">
+        <v>528</v>
+      </c>
+      <c r="F225" t="s">
         <v>527</v>
-      </c>
-      <c r="F225" t="s">
-        <v>528</v>
       </c>
       <c r="G225" t="s">
         <v>528</v>
@@ -7253,10 +7253,10 @@
         <v>527</v>
       </c>
       <c r="E226" t="s">
+        <v>528</v>
+      </c>
+      <c r="F226" t="s">
         <v>527</v>
-      </c>
-      <c r="F226" t="s">
-        <v>528</v>
       </c>
       <c r="G226" t="s">
         <v>528</v>
@@ -7276,10 +7276,10 @@
         <v>543</v>
       </c>
       <c r="E227" t="s">
+        <v>544</v>
+      </c>
+      <c r="F227" t="s">
         <v>543</v>
-      </c>
-      <c r="F227" t="s">
-        <v>544</v>
       </c>
       <c r="G227" t="s">
         <v>544</v>
@@ -7299,10 +7299,10 @@
         <v>543</v>
       </c>
       <c r="E228" t="s">
+        <v>544</v>
+      </c>
+      <c r="F228" t="s">
         <v>543</v>
-      </c>
-      <c r="F228" t="s">
-        <v>544</v>
       </c>
       <c r="G228" t="s">
         <v>544</v>
@@ -7322,10 +7322,10 @@
         <v>543</v>
       </c>
       <c r="E229" t="s">
+        <v>544</v>
+      </c>
+      <c r="F229" t="s">
         <v>543</v>
-      </c>
-      <c r="F229" t="s">
-        <v>544</v>
       </c>
       <c r="G229" t="s">
         <v>544</v>
@@ -7345,10 +7345,10 @@
         <v>551</v>
       </c>
       <c r="E230" t="s">
+        <v>552</v>
+      </c>
+      <c r="F230" t="s">
         <v>551</v>
-      </c>
-      <c r="F230" t="s">
-        <v>552</v>
       </c>
       <c r="G230" t="s">
         <v>552</v>
@@ -7368,10 +7368,10 @@
         <v>555</v>
       </c>
       <c r="E231" t="s">
+        <v>556</v>
+      </c>
+      <c r="F231" t="s">
         <v>555</v>
-      </c>
-      <c r="F231" t="s">
-        <v>556</v>
       </c>
       <c r="G231" t="s">
         <v>556</v>
@@ -7391,10 +7391,10 @@
         <v>559</v>
       </c>
       <c r="E232" t="s">
+        <v>560</v>
+      </c>
+      <c r="F232" t="s">
         <v>559</v>
-      </c>
-      <c r="F232" t="s">
-        <v>560</v>
       </c>
       <c r="G232" t="s">
         <v>560</v>
@@ -7414,10 +7414,10 @@
         <v>563</v>
       </c>
       <c r="E233" t="s">
+        <v>564</v>
+      </c>
+      <c r="F233" t="s">
         <v>563</v>
-      </c>
-      <c r="F233" t="s">
-        <v>564</v>
       </c>
       <c r="G233" t="s">
         <v>564</v>
@@ -7437,10 +7437,10 @@
         <v>567</v>
       </c>
       <c r="E234" t="s">
+        <v>568</v>
+      </c>
+      <c r="F234" t="s">
         <v>567</v>
-      </c>
-      <c r="F234" t="s">
-        <v>568</v>
       </c>
       <c r="G234" t="s">
         <v>568</v>
@@ -7460,10 +7460,10 @@
         <v>567</v>
       </c>
       <c r="E235" t="s">
+        <v>568</v>
+      </c>
+      <c r="F235" t="s">
         <v>567</v>
-      </c>
-      <c r="F235" t="s">
-        <v>568</v>
       </c>
       <c r="G235" t="s">
         <v>568</v>

--- a/api/1/xlsx/fr/SectorGroup.xlsx
+++ b/api/1/xlsx/fr/SectorGroup.xlsx
@@ -31,12 +31,12 @@
     <t>codeforiati:group-name</t>
   </si>
   <si>
+    <t>codeforiati:category-name</t>
+  </si>
+  <si>
     <t>codeforiati:category-code</t>
   </si>
   <si>
-    <t>codeforiati:category-name</t>
-  </si>
-  <si>
     <t>11110</t>
   </si>
   <si>
@@ -52,12 +52,12 @@
     <t>Education</t>
   </si>
   <si>
+    <t>Education, Niveau non spécifié</t>
+  </si>
+  <si>
     <t>111</t>
   </si>
   <si>
-    <t>Education, Niveau non spécifié</t>
-  </si>
-  <si>
     <t>11120</t>
   </si>
   <si>
@@ -82,12 +82,12 @@
     <t>Enseignement primaire</t>
   </si>
   <si>
+    <t>Education de Base</t>
+  </si>
+  <si>
     <t>112</t>
   </si>
   <si>
-    <t>Education de Base</t>
-  </si>
-  <si>
     <t>11230</t>
   </si>
   <si>
@@ -130,12 +130,12 @@
     <t>Enseignement secondaire supérieur (modifié et comprend les données de 11322)</t>
   </si>
   <si>
+    <t>Education Secondaire</t>
+  </si>
+  <si>
     <t>113</t>
   </si>
   <si>
-    <t>Education Secondaire</t>
-  </si>
-  <si>
     <t>11330</t>
   </si>
   <si>
@@ -148,12 +148,12 @@
     <t>Enseignement supérieur</t>
   </si>
   <si>
+    <t>Education Post Secondaire</t>
+  </si>
+  <si>
     <t>114</t>
   </si>
   <si>
-    <t>Education Post Secondaire</t>
-  </si>
-  <si>
     <t>11430</t>
   </si>
   <si>
@@ -172,12 +172,12 @@
     <t>Santé</t>
   </si>
   <si>
+    <t>Santé, Général</t>
+  </si>
+  <si>
     <t>121</t>
   </si>
   <si>
-    <t>Santé, Général</t>
-  </si>
-  <si>
     <t>12181</t>
   </si>
   <si>
@@ -202,12 +202,12 @@
     <t>Soins et services de santé de base</t>
   </si>
   <si>
+    <t>Santé de Base</t>
+  </si>
+  <si>
     <t>122</t>
   </si>
   <si>
-    <t>Santé de Base</t>
-  </si>
-  <si>
     <t>12230</t>
   </si>
   <si>
@@ -262,12 +262,12 @@
     <t>Lutte contre les MNT, général</t>
   </si>
   <si>
+    <t>Maladies non-transmissibles (MNT)</t>
+  </si>
+  <si>
     <t>123</t>
   </si>
   <si>
-    <t>Maladies non-transmissibles (MNT)</t>
-  </si>
-  <si>
     <t>12320</t>
   </si>
   <si>
@@ -418,12 +418,12 @@
     <t>Gouvernement &amp; Société Civile</t>
   </si>
   <si>
+    <t>Gouvernement &amp; Société Civile-général</t>
+  </si>
+  <si>
     <t>151</t>
   </si>
   <si>
-    <t>Gouvernement &amp; Société Civile-général</t>
-  </si>
-  <si>
     <t>15111</t>
   </si>
   <si>
@@ -520,12 +520,12 @@
     <t>Gestion et réforme des systèmes de sécurité</t>
   </si>
   <si>
+    <t>Conflits, Paix et Sécurité</t>
+  </si>
+  <si>
     <t>152</t>
   </si>
   <si>
-    <t>Conflits, Paix et Sécurité</t>
-  </si>
-  <si>
     <t>15220</t>
   </si>
   <si>
@@ -718,12 +718,12 @@
     <t>Energie</t>
   </si>
   <si>
+    <t>Politique de l'énergie</t>
+  </si>
+  <si>
     <t>231</t>
   </si>
   <si>
-    <t>Politique de l'énergie</t>
-  </si>
-  <si>
     <t>23181</t>
   </si>
   <si>
@@ -748,12 +748,12 @@
     <t>Production d'énergie, sources renouvelables - multiples technologies</t>
   </si>
   <si>
+    <t>Production d'électricité, sources renouvelables</t>
+  </si>
+  <si>
     <t>232</t>
   </si>
   <si>
-    <t>Production d'électricité, sources renouvelables</t>
-  </si>
-  <si>
     <t>23220</t>
   </si>
   <si>
@@ -808,12 +808,12 @@
     <t>Production d'énergie, sources non renouvelables - non spécifié</t>
   </si>
   <si>
+    <t>Production d'électricité, sources non renouvelables</t>
+  </si>
+  <si>
     <t>233</t>
   </si>
   <si>
-    <t>Production d'électricité, sources non renouvelables</t>
-  </si>
-  <si>
     <t>23320</t>
   </si>
   <si>
@@ -859,24 +859,24 @@
     <t>Centrales nucléaires et sûreté nucléaire</t>
   </si>
   <si>
+    <t>Centrales nucléaires</t>
+  </si>
+  <si>
     <t>235</t>
   </si>
   <si>
-    <t>Centrales nucléaires</t>
-  </si>
-  <si>
     <t>23610</t>
   </si>
   <si>
     <t>Production de chaleur seule</t>
   </si>
   <si>
+    <t>Distribution de l'énergie</t>
+  </si>
+  <si>
     <t>236</t>
   </si>
   <si>
-    <t>Distribution de l'énergie</t>
-  </si>
-  <si>
     <t>23620</t>
   </si>
   <si>
@@ -997,12 +997,12 @@
     <t>Agriculture, Sylviculture, Pêche</t>
   </si>
   <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
     <t>311</t>
   </si>
   <si>
-    <t>Agriculture</t>
-  </si>
-  <si>
     <t>31120</t>
   </si>
   <si>
@@ -1111,12 +1111,12 @@
     <t>Politique de la sylviculture et gestion administrative</t>
   </si>
   <si>
+    <t>Sylviculture</t>
+  </si>
+  <si>
     <t>312</t>
   </si>
   <si>
-    <t>Sylviculture</t>
-  </si>
-  <si>
     <t>31220</t>
   </si>
   <si>
@@ -1153,12 +1153,12 @@
     <t>Politique de la pêche et gestion administrative</t>
   </si>
   <si>
+    <t>Pêche</t>
+  </si>
+  <si>
     <t>313</t>
   </si>
   <si>
-    <t>Pêche</t>
-  </si>
-  <si>
     <t>31320</t>
   </si>
   <si>
@@ -1195,12 +1195,12 @@
     <t>Industries Manufacturières, Extractives, Construct</t>
   </si>
   <si>
+    <t>Industries Manufacturières</t>
+  </si>
+  <si>
     <t>321</t>
   </si>
   <si>
-    <t>Industries Manufacturières</t>
-  </si>
-  <si>
     <t>32120</t>
   </si>
   <si>
@@ -1315,12 +1315,12 @@
     <t>Politique de l'industrie extractive et gestion administrative</t>
   </si>
   <si>
+    <t>Industries Extractives</t>
+  </si>
+  <si>
     <t>322</t>
   </si>
   <si>
-    <t>Industries Extractives</t>
-  </si>
-  <si>
     <t>32220</t>
   </si>
   <si>
@@ -1381,10 +1381,10 @@
     <t>Politique de la construction et gestion administrative</t>
   </si>
   <si>
+    <t>Construction</t>
+  </si>
+  <si>
     <t>323</t>
-  </si>
-  <si>
-    <t>Construction</t>
   </si>
   <si>
     <t>33110</t>
@@ -2886,10 +2886,10 @@
         <v>97</v>
       </c>
       <c r="F36" t="s">
+        <v>97</v>
+      </c>
+      <c r="G36" t="s">
         <v>96</v>
-      </c>
-      <c r="G36" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2909,10 +2909,10 @@
         <v>97</v>
       </c>
       <c r="F37" t="s">
+        <v>97</v>
+      </c>
+      <c r="G37" t="s">
         <v>96</v>
-      </c>
-      <c r="G37" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2932,10 +2932,10 @@
         <v>97</v>
       </c>
       <c r="F38" t="s">
+        <v>97</v>
+      </c>
+      <c r="G38" t="s">
         <v>96</v>
-      </c>
-      <c r="G38" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2955,10 +2955,10 @@
         <v>97</v>
       </c>
       <c r="F39" t="s">
+        <v>97</v>
+      </c>
+      <c r="G39" t="s">
         <v>96</v>
-      </c>
-      <c r="G39" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2978,10 +2978,10 @@
         <v>97</v>
       </c>
       <c r="F40" t="s">
+        <v>97</v>
+      </c>
+      <c r="G40" t="s">
         <v>96</v>
-      </c>
-      <c r="G40" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3001,10 +3001,10 @@
         <v>109</v>
       </c>
       <c r="F41" t="s">
+        <v>109</v>
+      </c>
+      <c r="G41" t="s">
         <v>108</v>
-      </c>
-      <c r="G41" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3024,10 +3024,10 @@
         <v>109</v>
       </c>
       <c r="F42" t="s">
+        <v>109</v>
+      </c>
+      <c r="G42" t="s">
         <v>108</v>
-      </c>
-      <c r="G42" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3047,10 +3047,10 @@
         <v>109</v>
       </c>
       <c r="F43" t="s">
+        <v>109</v>
+      </c>
+      <c r="G43" t="s">
         <v>108</v>
-      </c>
-      <c r="G43" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3070,10 +3070,10 @@
         <v>109</v>
       </c>
       <c r="F44" t="s">
+        <v>109</v>
+      </c>
+      <c r="G44" t="s">
         <v>108</v>
-      </c>
-      <c r="G44" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3093,10 +3093,10 @@
         <v>109</v>
       </c>
       <c r="F45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G45" t="s">
         <v>108</v>
-      </c>
-      <c r="G45" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3116,10 +3116,10 @@
         <v>109</v>
       </c>
       <c r="F46" t="s">
+        <v>109</v>
+      </c>
+      <c r="G46" t="s">
         <v>108</v>
-      </c>
-      <c r="G46" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3139,10 +3139,10 @@
         <v>109</v>
       </c>
       <c r="F47" t="s">
+        <v>109</v>
+      </c>
+      <c r="G47" t="s">
         <v>108</v>
-      </c>
-      <c r="G47" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3162,10 +3162,10 @@
         <v>109</v>
       </c>
       <c r="F48" t="s">
+        <v>109</v>
+      </c>
+      <c r="G48" t="s">
         <v>108</v>
-      </c>
-      <c r="G48" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3185,10 +3185,10 @@
         <v>109</v>
       </c>
       <c r="F49" t="s">
+        <v>109</v>
+      </c>
+      <c r="G49" t="s">
         <v>108</v>
-      </c>
-      <c r="G49" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3208,10 +3208,10 @@
         <v>109</v>
       </c>
       <c r="F50" t="s">
+        <v>109</v>
+      </c>
+      <c r="G50" t="s">
         <v>108</v>
-      </c>
-      <c r="G50" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3231,10 +3231,10 @@
         <v>109</v>
       </c>
       <c r="F51" t="s">
+        <v>109</v>
+      </c>
+      <c r="G51" t="s">
         <v>108</v>
-      </c>
-      <c r="G51" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3760,10 +3760,10 @@
         <v>183</v>
       </c>
       <c r="F74" t="s">
+        <v>183</v>
+      </c>
+      <c r="G74" t="s">
         <v>182</v>
-      </c>
-      <c r="G74" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3783,10 +3783,10 @@
         <v>183</v>
       </c>
       <c r="F75" t="s">
+        <v>183</v>
+      </c>
+      <c r="G75" t="s">
         <v>182</v>
-      </c>
-      <c r="G75" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3806,10 +3806,10 @@
         <v>183</v>
       </c>
       <c r="F76" t="s">
+        <v>183</v>
+      </c>
+      <c r="G76" t="s">
         <v>182</v>
-      </c>
-      <c r="G76" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3829,10 +3829,10 @@
         <v>183</v>
       </c>
       <c r="F77" t="s">
+        <v>183</v>
+      </c>
+      <c r="G77" t="s">
         <v>182</v>
-      </c>
-      <c r="G77" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3852,10 +3852,10 @@
         <v>183</v>
       </c>
       <c r="F78" t="s">
+        <v>183</v>
+      </c>
+      <c r="G78" t="s">
         <v>182</v>
-      </c>
-      <c r="G78" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3875,10 +3875,10 @@
         <v>183</v>
       </c>
       <c r="F79" t="s">
+        <v>183</v>
+      </c>
+      <c r="G79" t="s">
         <v>182</v>
-      </c>
-      <c r="G79" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3898,10 +3898,10 @@
         <v>183</v>
       </c>
       <c r="F80" t="s">
+        <v>183</v>
+      </c>
+      <c r="G80" t="s">
         <v>182</v>
-      </c>
-      <c r="G80" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3921,10 +3921,10 @@
         <v>183</v>
       </c>
       <c r="F81" t="s">
+        <v>183</v>
+      </c>
+      <c r="G81" t="s">
         <v>182</v>
-      </c>
-      <c r="G81" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3944,10 +3944,10 @@
         <v>183</v>
       </c>
       <c r="F82" t="s">
+        <v>183</v>
+      </c>
+      <c r="G82" t="s">
         <v>182</v>
-      </c>
-      <c r="G82" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3967,10 +3967,10 @@
         <v>183</v>
       </c>
       <c r="F83" t="s">
+        <v>183</v>
+      </c>
+      <c r="G83" t="s">
         <v>182</v>
-      </c>
-      <c r="G83" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3990,10 +3990,10 @@
         <v>183</v>
       </c>
       <c r="F84" t="s">
+        <v>183</v>
+      </c>
+      <c r="G84" t="s">
         <v>182</v>
-      </c>
-      <c r="G84" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -4013,10 +4013,10 @@
         <v>207</v>
       </c>
       <c r="F85" t="s">
+        <v>207</v>
+      </c>
+      <c r="G85" t="s">
         <v>206</v>
-      </c>
-      <c r="G85" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -4036,10 +4036,10 @@
         <v>207</v>
       </c>
       <c r="F86" t="s">
+        <v>207</v>
+      </c>
+      <c r="G86" t="s">
         <v>206</v>
-      </c>
-      <c r="G86" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -4059,10 +4059,10 @@
         <v>207</v>
       </c>
       <c r="F87" t="s">
+        <v>207</v>
+      </c>
+      <c r="G87" t="s">
         <v>206</v>
-      </c>
-      <c r="G87" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -4082,10 +4082,10 @@
         <v>207</v>
       </c>
       <c r="F88" t="s">
+        <v>207</v>
+      </c>
+      <c r="G88" t="s">
         <v>206</v>
-      </c>
-      <c r="G88" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -4105,10 +4105,10 @@
         <v>207</v>
       </c>
       <c r="F89" t="s">
+        <v>207</v>
+      </c>
+      <c r="G89" t="s">
         <v>206</v>
-      </c>
-      <c r="G89" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -4128,10 +4128,10 @@
         <v>207</v>
       </c>
       <c r="F90" t="s">
+        <v>207</v>
+      </c>
+      <c r="G90" t="s">
         <v>206</v>
-      </c>
-      <c r="G90" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -4151,10 +4151,10 @@
         <v>207</v>
       </c>
       <c r="F91" t="s">
+        <v>207</v>
+      </c>
+      <c r="G91" t="s">
         <v>206</v>
-      </c>
-      <c r="G91" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -4174,10 +4174,10 @@
         <v>223</v>
       </c>
       <c r="F92" t="s">
+        <v>223</v>
+      </c>
+      <c r="G92" t="s">
         <v>222</v>
-      </c>
-      <c r="G92" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -4197,10 +4197,10 @@
         <v>223</v>
       </c>
       <c r="F93" t="s">
+        <v>223</v>
+      </c>
+      <c r="G93" t="s">
         <v>222</v>
-      </c>
-      <c r="G93" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -4220,10 +4220,10 @@
         <v>223</v>
       </c>
       <c r="F94" t="s">
+        <v>223</v>
+      </c>
+      <c r="G94" t="s">
         <v>222</v>
-      </c>
-      <c r="G94" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -4243,10 +4243,10 @@
         <v>223</v>
       </c>
       <c r="F95" t="s">
+        <v>223</v>
+      </c>
+      <c r="G95" t="s">
         <v>222</v>
-      </c>
-      <c r="G95" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -4703,10 +4703,10 @@
         <v>233</v>
       </c>
       <c r="F115" t="s">
+        <v>277</v>
+      </c>
+      <c r="G115" t="s">
         <v>278</v>
-      </c>
-      <c r="G115" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4910,10 +4910,10 @@
         <v>302</v>
       </c>
       <c r="F124" t="s">
+        <v>302</v>
+      </c>
+      <c r="G124" t="s">
         <v>301</v>
-      </c>
-      <c r="G124" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4933,10 +4933,10 @@
         <v>302</v>
       </c>
       <c r="F125" t="s">
+        <v>302</v>
+      </c>
+      <c r="G125" t="s">
         <v>301</v>
-      </c>
-      <c r="G125" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4956,10 +4956,10 @@
         <v>302</v>
       </c>
       <c r="F126" t="s">
+        <v>302</v>
+      </c>
+      <c r="G126" t="s">
         <v>301</v>
-      </c>
-      <c r="G126" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4979,10 +4979,10 @@
         <v>302</v>
       </c>
       <c r="F127" t="s">
+        <v>302</v>
+      </c>
+      <c r="G127" t="s">
         <v>301</v>
-      </c>
-      <c r="G127" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -5002,10 +5002,10 @@
         <v>302</v>
       </c>
       <c r="F128" t="s">
+        <v>302</v>
+      </c>
+      <c r="G128" t="s">
         <v>301</v>
-      </c>
-      <c r="G128" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -5025,10 +5025,10 @@
         <v>302</v>
       </c>
       <c r="F129" t="s">
+        <v>302</v>
+      </c>
+      <c r="G129" t="s">
         <v>301</v>
-      </c>
-      <c r="G129" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -5048,10 +5048,10 @@
         <v>316</v>
       </c>
       <c r="F130" t="s">
+        <v>316</v>
+      </c>
+      <c r="G130" t="s">
         <v>315</v>
-      </c>
-      <c r="G130" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -5071,10 +5071,10 @@
         <v>316</v>
       </c>
       <c r="F131" t="s">
+        <v>316</v>
+      </c>
+      <c r="G131" t="s">
         <v>315</v>
-      </c>
-      <c r="G131" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -5094,10 +5094,10 @@
         <v>316</v>
       </c>
       <c r="F132" t="s">
+        <v>316</v>
+      </c>
+      <c r="G132" t="s">
         <v>315</v>
-      </c>
-      <c r="G132" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -5117,10 +5117,10 @@
         <v>316</v>
       </c>
       <c r="F133" t="s">
+        <v>316</v>
+      </c>
+      <c r="G133" t="s">
         <v>315</v>
-      </c>
-      <c r="G133" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -6497,10 +6497,10 @@
         <v>460</v>
       </c>
       <c r="F193" t="s">
+        <v>460</v>
+      </c>
+      <c r="G193" t="s">
         <v>459</v>
-      </c>
-      <c r="G193" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -6520,10 +6520,10 @@
         <v>460</v>
       </c>
       <c r="F194" t="s">
+        <v>460</v>
+      </c>
+      <c r="G194" t="s">
         <v>459</v>
-      </c>
-      <c r="G194" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -6543,10 +6543,10 @@
         <v>460</v>
       </c>
       <c r="F195" t="s">
+        <v>460</v>
+      </c>
+      <c r="G195" t="s">
         <v>459</v>
-      </c>
-      <c r="G195" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -6566,10 +6566,10 @@
         <v>460</v>
       </c>
       <c r="F196" t="s">
+        <v>460</v>
+      </c>
+      <c r="G196" t="s">
         <v>459</v>
-      </c>
-      <c r="G196" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -6589,10 +6589,10 @@
         <v>460</v>
       </c>
       <c r="F197" t="s">
+        <v>460</v>
+      </c>
+      <c r="G197" t="s">
         <v>459</v>
-      </c>
-      <c r="G197" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -6612,10 +6612,10 @@
         <v>460</v>
       </c>
       <c r="F198" t="s">
+        <v>460</v>
+      </c>
+      <c r="G198" t="s">
         <v>459</v>
-      </c>
-      <c r="G198" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -6635,10 +6635,10 @@
         <v>474</v>
       </c>
       <c r="F199" t="s">
+        <v>474</v>
+      </c>
+      <c r="G199" t="s">
         <v>473</v>
-      </c>
-      <c r="G199" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -6658,10 +6658,10 @@
         <v>478</v>
       </c>
       <c r="F200" t="s">
+        <v>478</v>
+      </c>
+      <c r="G200" t="s">
         <v>477</v>
-      </c>
-      <c r="G200" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -6681,10 +6681,10 @@
         <v>478</v>
       </c>
       <c r="F201" t="s">
+        <v>478</v>
+      </c>
+      <c r="G201" t="s">
         <v>477</v>
-      </c>
-      <c r="G201" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -6704,10 +6704,10 @@
         <v>478</v>
       </c>
       <c r="F202" t="s">
+        <v>478</v>
+      </c>
+      <c r="G202" t="s">
         <v>477</v>
-      </c>
-      <c r="G202" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -6727,10 +6727,10 @@
         <v>478</v>
       </c>
       <c r="F203" t="s">
+        <v>478</v>
+      </c>
+      <c r="G203" t="s">
         <v>477</v>
-      </c>
-      <c r="G203" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -6750,10 +6750,10 @@
         <v>478</v>
       </c>
       <c r="F204" t="s">
+        <v>478</v>
+      </c>
+      <c r="G204" t="s">
         <v>477</v>
-      </c>
-      <c r="G204" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -6773,10 +6773,10 @@
         <v>478</v>
       </c>
       <c r="F205" t="s">
+        <v>478</v>
+      </c>
+      <c r="G205" t="s">
         <v>477</v>
-      </c>
-      <c r="G205" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -6796,10 +6796,10 @@
         <v>492</v>
       </c>
       <c r="F206" t="s">
+        <v>492</v>
+      </c>
+      <c r="G206" t="s">
         <v>491</v>
-      </c>
-      <c r="G206" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -6819,10 +6819,10 @@
         <v>492</v>
       </c>
       <c r="F207" t="s">
+        <v>492</v>
+      </c>
+      <c r="G207" t="s">
         <v>491</v>
-      </c>
-      <c r="G207" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -6842,10 +6842,10 @@
         <v>492</v>
       </c>
       <c r="F208" t="s">
+        <v>492</v>
+      </c>
+      <c r="G208" t="s">
         <v>491</v>
-      </c>
-      <c r="G208" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -6865,10 +6865,10 @@
         <v>492</v>
       </c>
       <c r="F209" t="s">
+        <v>492</v>
+      </c>
+      <c r="G209" t="s">
         <v>491</v>
-      </c>
-      <c r="G209" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -6888,10 +6888,10 @@
         <v>492</v>
       </c>
       <c r="F210" t="s">
+        <v>492</v>
+      </c>
+      <c r="G210" t="s">
         <v>491</v>
-      </c>
-      <c r="G210" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -6911,10 +6911,10 @@
         <v>492</v>
       </c>
       <c r="F211" t="s">
+        <v>492</v>
+      </c>
+      <c r="G211" t="s">
         <v>491</v>
-      </c>
-      <c r="G211" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -6934,10 +6934,10 @@
         <v>492</v>
       </c>
       <c r="F212" t="s">
+        <v>492</v>
+      </c>
+      <c r="G212" t="s">
         <v>491</v>
-      </c>
-      <c r="G212" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -6957,10 +6957,10 @@
         <v>492</v>
       </c>
       <c r="F213" t="s">
+        <v>492</v>
+      </c>
+      <c r="G213" t="s">
         <v>491</v>
-      </c>
-      <c r="G213" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -6980,10 +6980,10 @@
         <v>492</v>
       </c>
       <c r="F214" t="s">
+        <v>492</v>
+      </c>
+      <c r="G214" t="s">
         <v>491</v>
-      </c>
-      <c r="G214" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -7003,10 +7003,10 @@
         <v>492</v>
       </c>
       <c r="F215" t="s">
+        <v>492</v>
+      </c>
+      <c r="G215" t="s">
         <v>491</v>
-      </c>
-      <c r="G215" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -7026,10 +7026,10 @@
         <v>514</v>
       </c>
       <c r="F216" t="s">
+        <v>514</v>
+      </c>
+      <c r="G216" t="s">
         <v>513</v>
-      </c>
-      <c r="G216" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -7049,10 +7049,10 @@
         <v>518</v>
       </c>
       <c r="F217" t="s">
+        <v>518</v>
+      </c>
+      <c r="G217" t="s">
         <v>517</v>
-      </c>
-      <c r="G217" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -7072,10 +7072,10 @@
         <v>522</v>
       </c>
       <c r="F218" t="s">
+        <v>522</v>
+      </c>
+      <c r="G218" t="s">
         <v>521</v>
-      </c>
-      <c r="G218" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -7095,10 +7095,10 @@
         <v>522</v>
       </c>
       <c r="F219" t="s">
+        <v>522</v>
+      </c>
+      <c r="G219" t="s">
         <v>521</v>
-      </c>
-      <c r="G219" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -7118,10 +7118,10 @@
         <v>528</v>
       </c>
       <c r="F220" t="s">
+        <v>528</v>
+      </c>
+      <c r="G220" t="s">
         <v>527</v>
-      </c>
-      <c r="G220" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -7141,10 +7141,10 @@
         <v>528</v>
       </c>
       <c r="F221" t="s">
+        <v>528</v>
+      </c>
+      <c r="G221" t="s">
         <v>527</v>
-      </c>
-      <c r="G221" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -7164,10 +7164,10 @@
         <v>528</v>
       </c>
       <c r="F222" t="s">
+        <v>528</v>
+      </c>
+      <c r="G222" t="s">
         <v>527</v>
-      </c>
-      <c r="G222" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -7187,10 +7187,10 @@
         <v>528</v>
       </c>
       <c r="F223" t="s">
+        <v>528</v>
+      </c>
+      <c r="G223" t="s">
         <v>527</v>
-      </c>
-      <c r="G223" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -7210,10 +7210,10 @@
         <v>528</v>
       </c>
       <c r="F224" t="s">
+        <v>528</v>
+      </c>
+      <c r="G224" t="s">
         <v>527</v>
-      </c>
-      <c r="G224" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -7233,10 +7233,10 @@
         <v>528</v>
       </c>
       <c r="F225" t="s">
+        <v>528</v>
+      </c>
+      <c r="G225" t="s">
         <v>527</v>
-      </c>
-      <c r="G225" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -7256,10 +7256,10 @@
         <v>528</v>
       </c>
       <c r="F226" t="s">
+        <v>528</v>
+      </c>
+      <c r="G226" t="s">
         <v>527</v>
-      </c>
-      <c r="G226" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -7279,10 +7279,10 @@
         <v>544</v>
       </c>
       <c r="F227" t="s">
+        <v>544</v>
+      </c>
+      <c r="G227" t="s">
         <v>543</v>
-      </c>
-      <c r="G227" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -7302,10 +7302,10 @@
         <v>544</v>
       </c>
       <c r="F228" t="s">
+        <v>544</v>
+      </c>
+      <c r="G228" t="s">
         <v>543</v>
-      </c>
-      <c r="G228" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -7325,10 +7325,10 @@
         <v>544</v>
       </c>
       <c r="F229" t="s">
+        <v>544</v>
+      </c>
+      <c r="G229" t="s">
         <v>543</v>
-      </c>
-      <c r="G229" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -7348,10 +7348,10 @@
         <v>552</v>
       </c>
       <c r="F230" t="s">
+        <v>552</v>
+      </c>
+      <c r="G230" t="s">
         <v>551</v>
-      </c>
-      <c r="G230" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -7371,10 +7371,10 @@
         <v>556</v>
       </c>
       <c r="F231" t="s">
+        <v>556</v>
+      </c>
+      <c r="G231" t="s">
         <v>555</v>
-      </c>
-      <c r="G231" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -7394,10 +7394,10 @@
         <v>560</v>
       </c>
       <c r="F232" t="s">
+        <v>560</v>
+      </c>
+      <c r="G232" t="s">
         <v>559</v>
-      </c>
-      <c r="G232" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -7417,10 +7417,10 @@
         <v>564</v>
       </c>
       <c r="F233" t="s">
+        <v>564</v>
+      </c>
+      <c r="G233" t="s">
         <v>563</v>
-      </c>
-      <c r="G233" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -7440,10 +7440,10 @@
         <v>568</v>
       </c>
       <c r="F234" t="s">
+        <v>568</v>
+      </c>
+      <c r="G234" t="s">
         <v>567</v>
-      </c>
-      <c r="G234" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -7463,10 +7463,10 @@
         <v>568</v>
       </c>
       <c r="F235" t="s">
+        <v>568</v>
+      </c>
+      <c r="G235" t="s">
         <v>567</v>
-      </c>
-      <c r="G235" t="s">
-        <v>568</v>
       </c>
     </row>
   </sheetData>
